--- a/Results/Baseline/RR/Results_world_base_RR_full.xlsx
+++ b/Results/Baseline/RR/Results_world_base_RR_full.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285157676107</v>
+        <v>262.0285148604052</v>
       </c>
       <c r="E2">
-        <v>302.6178224646155</v>
+        <v>302.6178207744261</v>
       </c>
       <c r="F2">
-        <v>500.2357385408587</v>
+        <v>500.2357346939585</v>
       </c>
       <c r="G2">
-        <v>370.6148562676103</v>
+        <v>370.6148455386391</v>
       </c>
       <c r="H2">
-        <v>949.0094723905804</v>
+        <v>949.0094393650288</v>
       </c>
       <c r="I2">
-        <v>545.2975928662561</v>
+        <v>545.2974529834346</v>
       </c>
       <c r="J2">
-        <v>608.5204017291309</v>
+        <v>608.5197926795595</v>
       </c>
       <c r="K2">
-        <v>699.9372068231121</v>
+        <v>699.934635046829</v>
       </c>
       <c r="L2">
-        <v>557.9137424972839</v>
+        <v>557.9045701280914</v>
       </c>
       <c r="M2">
-        <v>684.5761934710124</v>
+        <v>684.5434541030725</v>
       </c>
       <c r="N2">
-        <v>347.2610377311124</v>
+        <v>347.1508255153527</v>
       </c>
       <c r="O2">
-        <v>385.4413957896422</v>
+        <v>385.147498015312</v>
       </c>
       <c r="P2">
-        <v>773.5546720442911</v>
+        <v>772.7472494934864</v>
       </c>
       <c r="Q2">
-        <v>781.6609725111036</v>
+        <v>779.8737286403936</v>
       </c>
       <c r="R2">
-        <v>789.953186158007</v>
+        <v>787.1290046851781</v>
       </c>
       <c r="S2">
-        <v>1976.396304656319</v>
+        <v>1973.759598534596</v>
       </c>
       <c r="T2">
-        <v>1978.811131677626</v>
+        <v>1977.333259397554</v>
       </c>
       <c r="U2">
-        <v>1983.964085131291</v>
+        <v>1982.771496582937</v>
       </c>
       <c r="V2">
-        <v>1992.441552000856</v>
+        <v>1990.4672011255</v>
       </c>
       <c r="W2">
-        <v>2001.320466059246</v>
+        <v>1998.444149275162</v>
       </c>
       <c r="X2">
-        <v>1838.363211643597</v>
+        <v>1834.317934436091</v>
       </c>
       <c r="Y2">
-        <v>1849.178598433864</v>
+        <v>1843.629055379445</v>
       </c>
       <c r="Z2">
-        <v>1858.432142212312</v>
+        <v>1851.890013711119</v>
       </c>
       <c r="AA2">
-        <v>1868.620694050687</v>
+        <v>1860.791804775178</v>
       </c>
       <c r="AB2">
-        <v>1888.873665555143</v>
+        <v>1876.508334143771</v>
       </c>
       <c r="AC2">
-        <v>571.8599077555037</v>
+        <v>551.9092280038722</v>
       </c>
       <c r="AD2">
-        <v>605.1561423251856</v>
+        <v>576.5751182150447</v>
       </c>
       <c r="AE2">
-        <v>637.722737743396</v>
+        <v>600.8182817038665</v>
       </c>
       <c r="AF2">
-        <v>640.7499276820117</v>
+        <v>605.2118880110346</v>
       </c>
       <c r="AG2">
-        <v>636.2288022481579</v>
+        <v>604.642977426008</v>
       </c>
       <c r="AH2">
-        <v>454.6667156503573</v>
+        <v>424.0187307960426</v>
       </c>
       <c r="AI2">
-        <v>454.9440823115204</v>
+        <v>427.130213978828</v>
       </c>
       <c r="AJ2">
-        <v>453.9561950480164</v>
+        <v>429.6366615819496</v>
       </c>
       <c r="AK2">
-        <v>456.3274889647873</v>
+        <v>434.6832367941177</v>
       </c>
       <c r="AL2">
-        <v>487.5460237191899</v>
+        <v>459.4868006899217</v>
       </c>
       <c r="AM2">
-        <v>547.6194204641099</v>
+        <v>504.039032273574</v>
       </c>
       <c r="AN2">
-        <v>613.288454754921</v>
+        <v>552.5570989813048</v>
       </c>
       <c r="AO2">
-        <v>702.9136663915175</v>
+        <v>617.3952471921466</v>
       </c>
       <c r="AP2">
-        <v>815.1828257186357</v>
+        <v>697.571288992306</v>
       </c>
       <c r="AQ2">
-        <v>877.4285367117598</v>
+        <v>743.7970470920135</v>
       </c>
       <c r="AR2">
-        <v>892.0089075986998</v>
+        <v>757.6253654757005</v>
       </c>
       <c r="AS2">
-        <v>899.9579000792589</v>
+        <v>766.6295770198687</v>
       </c>
       <c r="AT2">
-        <v>901.3608602626316</v>
+        <v>770.764772036219</v>
       </c>
       <c r="AU2">
-        <v>896.909237769406</v>
+        <v>770.4237874164309</v>
       </c>
       <c r="AV2">
-        <v>905.8936147864063</v>
+        <v>782.0020363399358</v>
       </c>
       <c r="AW2">
-        <v>905.0135254003012</v>
+        <v>784.138511693174</v>
       </c>
       <c r="AX2">
-        <v>1094.864005655895</v>
+        <v>983.5732683873214</v>
       </c>
       <c r="AY2">
-        <v>1028.967966615776</v>
+        <v>939.8330730952956</v>
       </c>
       <c r="AZ2">
-        <v>937.2502072913924</v>
+        <v>878.3172842830825</v>
       </c>
       <c r="BA2">
-        <v>898.7667236541648</v>
+        <v>852.6691824938948</v>
       </c>
       <c r="BB2">
-        <v>878.456228005321</v>
+        <v>830.8767254948198</v>
       </c>
       <c r="BC2">
-        <v>874.7329221445247</v>
+        <v>829.0924493688601</v>
       </c>
       <c r="BD2">
-        <v>859.2876973938398</v>
+        <v>819.6148883930761</v>
       </c>
       <c r="BE2">
-        <v>841.252070056061</v>
+        <v>808.7154891226008</v>
       </c>
       <c r="BF2">
-        <v>833.0689532254282</v>
+        <v>804.886497769808</v>
       </c>
       <c r="BG2">
-        <v>811.5868302633501</v>
+        <v>784.1117397591629</v>
       </c>
       <c r="BH2">
-        <v>830.3485210048938</v>
+        <v>799.5345342910522</v>
       </c>
       <c r="BI2">
-        <v>869.7318456049327</v>
+        <v>829.2906408663949</v>
       </c>
       <c r="BJ2">
-        <v>929.369107857584</v>
+        <v>873.0699575785403</v>
       </c>
       <c r="BK2">
-        <v>1002.906643773479</v>
+        <v>926.5062741678319</v>
       </c>
       <c r="BL2">
-        <v>1064.546797655516</v>
+        <v>965.7504794337555</v>
       </c>
       <c r="BM2">
-        <v>1139.478620177913</v>
+        <v>1020.514382553825</v>
       </c>
       <c r="BN2">
-        <v>1188.115893668961</v>
+        <v>1057.516169659959</v>
       </c>
       <c r="BO2">
-        <v>1209.18270538479</v>
+        <v>1075.827884611949</v>
       </c>
       <c r="BP2">
-        <v>1217.126522660331</v>
+        <v>1085.168898585376</v>
       </c>
       <c r="BQ2">
-        <v>1207.238519755596</v>
+        <v>1077.980669765752</v>
       </c>
       <c r="BR2">
-        <v>1209.309570766277</v>
+        <v>1083.182254620888</v>
       </c>
       <c r="BS2">
-        <v>1211.005887221051</v>
+        <v>1087.915234056483</v>
       </c>
       <c r="BT2">
-        <v>1209.69097906193</v>
+        <v>1090.372792016915</v>
       </c>
       <c r="BU2">
-        <v>1195.080063363171</v>
+        <v>1083.584124669203</v>
       </c>
       <c r="BV2">
-        <v>1141.579104805371</v>
+        <v>1046.007992293442</v>
       </c>
       <c r="BW2">
-        <v>1094.011266270122</v>
+        <v>1016.594000757669</v>
       </c>
       <c r="BX2">
-        <v>1067.729789530202</v>
+        <v>1001.39832550634</v>
       </c>
       <c r="BY2">
-        <v>1061.062420352786</v>
+        <v>999.3362054118626</v>
       </c>
       <c r="BZ2">
-        <v>1057.166282673752</v>
+        <v>999.0620631172181</v>
       </c>
       <c r="CA2">
-        <v>1035.674217691672</v>
+        <v>982.4269676284094</v>
       </c>
       <c r="CB2">
-        <v>1029.031306287967</v>
+        <v>980.455781652468</v>
       </c>
       <c r="CC2">
-        <v>1029.718146783685</v>
+        <v>983.5277786184157</v>
       </c>
       <c r="CD2">
-        <v>1042.464856662771</v>
+        <v>994.8905807683221</v>
       </c>
       <c r="CE2">
-        <v>1071.408974049652</v>
+        <v>1017.375705084242</v>
       </c>
       <c r="CF2">
-        <v>1102.389244326611</v>
+        <v>1036.440989260175</v>
       </c>
       <c r="CG2">
-        <v>1163.553541534301</v>
+        <v>1081.290985927539</v>
       </c>
       <c r="CH2">
-        <v>1232.251691195116</v>
+        <v>1131.417133997633</v>
       </c>
       <c r="CI2">
-        <v>1299.587492122816</v>
+        <v>1180.780920307861</v>
       </c>
       <c r="CJ2">
-        <v>1356.202487495792</v>
+        <v>1223.020210112689</v>
       </c>
       <c r="CK2">
-        <v>1373.144830095221</v>
+        <v>1231.636401237983</v>
       </c>
       <c r="CL2">
-        <v>1393.479029052376</v>
+        <v>1249.676036024536</v>
       </c>
       <c r="CM2">
-        <v>1402.212031593069</v>
+        <v>1259.881199957273</v>
       </c>
       <c r="CN2">
-        <v>1405.7042529117</v>
+        <v>1266.518791944022</v>
       </c>
       <c r="CO2">
-        <v>1407.009001220609</v>
+        <v>1271.621322471942</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49072132380686</v>
+        <v>16.4907212641697</v>
       </c>
       <c r="E3">
-        <v>19.15942778845229</v>
+        <v>19.1594276772375</v>
       </c>
       <c r="F3">
-        <v>32.31319942214698</v>
+        <v>32.31319916822227</v>
       </c>
       <c r="G3">
-        <v>23.60829084110206</v>
+        <v>23.60829012859528</v>
       </c>
       <c r="H3">
-        <v>62.55451122266908</v>
+        <v>62.55450901652186</v>
       </c>
       <c r="I3">
-        <v>35.42810028129121</v>
+        <v>35.42809090677193</v>
       </c>
       <c r="J3">
-        <v>39.56187252993911</v>
+        <v>39.56183165867873</v>
       </c>
       <c r="K3">
-        <v>45.54857760805003</v>
+        <v>45.54840493589061</v>
       </c>
       <c r="L3">
-        <v>36.05467960572009</v>
+        <v>36.05406363831817</v>
       </c>
       <c r="M3">
-        <v>44.48867009225577</v>
+        <v>44.48647131321518</v>
       </c>
       <c r="N3">
-        <v>21.68447130087793</v>
+        <v>21.67706918684147</v>
       </c>
       <c r="O3">
-        <v>24.39208425019295</v>
+        <v>24.37234508302133</v>
       </c>
       <c r="P3">
-        <v>50.37331572123138</v>
+        <v>50.31908611007695</v>
       </c>
       <c r="Q3">
-        <v>50.88094486991839</v>
+        <v>50.76090621670165</v>
       </c>
       <c r="R3">
-        <v>51.40121742513987</v>
+        <v>51.21153341768601</v>
       </c>
       <c r="S3">
-        <v>131.0159206709665</v>
+        <v>130.8388285505398</v>
       </c>
       <c r="T3">
-        <v>131.1324102147508</v>
+        <v>131.0331510736648</v>
       </c>
       <c r="U3">
-        <v>131.4327378050583</v>
+        <v>131.3526399660083</v>
       </c>
       <c r="V3">
-        <v>131.9563292242567</v>
+        <v>131.8237248690866</v>
       </c>
       <c r="W3">
-        <v>132.5068868551394</v>
+        <v>132.31370256001</v>
       </c>
       <c r="X3">
-        <v>121.5204093239797</v>
+        <v>121.2487125006156</v>
       </c>
       <c r="Y3">
-        <v>122.2027406445077</v>
+        <v>121.8300106471332</v>
       </c>
       <c r="Z3">
-        <v>122.7802393262174</v>
+        <v>122.3408429889133</v>
       </c>
       <c r="AA3">
-        <v>123.4205464478099</v>
+        <v>122.8947255753061</v>
       </c>
       <c r="AB3">
-        <v>124.7367454533768</v>
+        <v>123.9062361665804</v>
       </c>
       <c r="AC3">
-        <v>36.26570179733598</v>
+        <v>34.92572521009579</v>
       </c>
       <c r="AD3">
-        <v>38.45678328125761</v>
+        <v>36.53715267134353</v>
       </c>
       <c r="AE3">
-        <v>40.59880860778485</v>
+        <v>38.12013784118168</v>
       </c>
       <c r="AF3">
-        <v>40.75691723585184</v>
+        <v>38.37002249932544</v>
       </c>
       <c r="AG3">
-        <v>40.40802834052241</v>
+        <v>38.28658437223635</v>
       </c>
       <c r="AH3">
-        <v>28.17194213945343</v>
+        <v>26.11348972597277</v>
       </c>
       <c r="AI3">
-        <v>28.14346676461354</v>
+        <v>26.27536945153256</v>
       </c>
       <c r="AJ3">
-        <v>28.029647524862</v>
+        <v>26.3962494638652</v>
       </c>
       <c r="AK3">
-        <v>28.14091155845289</v>
+        <v>26.68720217360286</v>
       </c>
       <c r="AL3">
-        <v>30.18892081481911</v>
+        <v>28.30435688457457</v>
       </c>
       <c r="AM3">
-        <v>34.17390708666859</v>
+        <v>31.24687448614917</v>
       </c>
       <c r="AN3">
-        <v>38.53442393086758</v>
+        <v>34.45545801033358</v>
       </c>
       <c r="AO3">
-        <v>44.50312600779149</v>
+        <v>38.75935134240229</v>
       </c>
       <c r="AP3">
-        <v>51.99199881157524</v>
+        <v>44.09270686181324</v>
       </c>
       <c r="AQ3">
-        <v>56.12270344488043</v>
+        <v>47.14744242473851</v>
       </c>
       <c r="AR3">
-        <v>57.05199190373569</v>
+        <v>48.0262244104691</v>
       </c>
       <c r="AS3">
-        <v>57.53636374435977</v>
+        <v>48.58147364852248</v>
       </c>
       <c r="AT3">
-        <v>57.58160698815563</v>
+        <v>48.81022932164394</v>
       </c>
       <c r="AU3">
-        <v>57.23418075356565</v>
+        <v>48.73889414571129</v>
       </c>
       <c r="AV3">
-        <v>57.7868507698113</v>
+        <v>49.46578073817143</v>
       </c>
       <c r="AW3">
-        <v>57.67493964557056</v>
+        <v>49.55647476217627</v>
       </c>
       <c r="AX3">
-        <v>70.37352193784319</v>
+        <v>62.89877888347401</v>
       </c>
       <c r="AY3">
-        <v>65.89843496956415</v>
+        <v>59.91177745904695</v>
       </c>
       <c r="AZ3">
-        <v>59.69017327048721</v>
+        <v>55.73201572808279</v>
       </c>
       <c r="BA3">
-        <v>57.05576042954699</v>
+        <v>53.95968165227806</v>
       </c>
       <c r="BB3">
-        <v>55.63611927201396</v>
+        <v>52.44050006301756</v>
       </c>
       <c r="BC3">
-        <v>55.32990543333712</v>
+        <v>52.26451600253081</v>
       </c>
       <c r="BD3">
-        <v>54.23643043745377</v>
+        <v>51.57185331599413</v>
       </c>
       <c r="BE3">
-        <v>52.96877346993912</v>
+        <v>50.7834957562553</v>
       </c>
       <c r="BF3">
-        <v>52.36214537209502</v>
+        <v>50.4693092481446</v>
       </c>
       <c r="BG3">
-        <v>50.85801641833707</v>
+        <v>49.01268971062274</v>
       </c>
       <c r="BH3">
-        <v>52.05554265502425</v>
+        <v>49.98596073740588</v>
       </c>
       <c r="BI3">
-        <v>54.63737153678787</v>
+        <v>51.92118232263575</v>
       </c>
       <c r="BJ3">
-        <v>58.57889049237721</v>
+        <v>54.79761001636581</v>
       </c>
       <c r="BK3">
-        <v>63.45349063635928</v>
+        <v>58.32212148093563</v>
       </c>
       <c r="BL3">
-        <v>67.52576335567845</v>
+        <v>60.89018127510514</v>
       </c>
       <c r="BM3">
-        <v>72.49048160611126</v>
+        <v>64.50033165270312</v>
       </c>
       <c r="BN3">
-        <v>75.68995843767669</v>
+        <v>66.91831855049193</v>
       </c>
       <c r="BO3">
-        <v>77.03858974297998</v>
+        <v>68.08190807329787</v>
       </c>
       <c r="BP3">
-        <v>77.50632673290208</v>
+        <v>68.64349035933702</v>
       </c>
       <c r="BQ3">
-        <v>76.77194117078783</v>
+        <v>68.09043686318998</v>
       </c>
       <c r="BR3">
-        <v>76.84069672992834</v>
+        <v>68.36945582379307</v>
       </c>
       <c r="BS3">
-        <v>76.88449241086285</v>
+        <v>68.61720951448027</v>
       </c>
       <c r="BT3">
-        <v>76.72637413095579</v>
+        <v>68.71246853797415</v>
       </c>
       <c r="BU3">
-        <v>75.67592120894825</v>
+        <v>68.18739441163154</v>
       </c>
       <c r="BV3">
-        <v>72.01041618587277</v>
+        <v>65.59147428835701</v>
       </c>
       <c r="BW3">
-        <v>68.74351903830572</v>
+        <v>63.54387285676141</v>
       </c>
       <c r="BX3">
-        <v>66.90567520445303</v>
+        <v>62.45060153676162</v>
       </c>
       <c r="BY3">
-        <v>66.38449807689616</v>
+        <v>62.23873267804952</v>
       </c>
       <c r="BZ3">
-        <v>66.04921839893953</v>
+        <v>62.14672131033208</v>
       </c>
       <c r="CA3">
-        <v>64.52788137198584</v>
+        <v>60.95159923205943</v>
       </c>
       <c r="CB3">
-        <v>64.00342896822536</v>
+        <v>60.7409200706127</v>
       </c>
       <c r="CC3">
-        <v>63.97090428165</v>
+        <v>60.868592301289</v>
       </c>
       <c r="CD3">
-        <v>64.74786347859103</v>
+        <v>61.55260090640253</v>
       </c>
       <c r="CE3">
-        <v>66.61213709199812</v>
+        <v>62.98305798253858</v>
       </c>
       <c r="CF3">
-        <v>68.60784400423667</v>
+        <v>64.17849886793329</v>
       </c>
       <c r="CG3">
-        <v>72.63004984435811</v>
+        <v>67.10496064765896</v>
       </c>
       <c r="CH3">
-        <v>77.15797936580131</v>
+        <v>70.38550880861662</v>
       </c>
       <c r="CI3">
-        <v>81.59437239488388</v>
+        <v>73.61481877612879</v>
       </c>
       <c r="CJ3">
-        <v>85.31097399625871</v>
+        <v>76.36588247055296</v>
       </c>
       <c r="CK3">
-        <v>86.35923415350457</v>
+        <v>76.85492112375957</v>
       </c>
       <c r="CL3">
-        <v>87.63540015374015</v>
+        <v>77.97697518522897</v>
       </c>
       <c r="CM3">
-        <v>88.13276460611709</v>
+        <v>78.57321851513174</v>
       </c>
       <c r="CN3">
-        <v>88.27835339862432</v>
+        <v>78.93006661488081</v>
       </c>
       <c r="CO3">
-        <v>88.2771763167184</v>
+        <v>79.183967656164</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474398.50083487</v>
+        <v>26474389.70802449</v>
       </c>
       <c r="E4">
-        <v>26777252.44691184</v>
+        <v>26777236.78782429</v>
       </c>
       <c r="F4">
-        <v>29376253.38005716</v>
+        <v>29376223.15571003</v>
       </c>
       <c r="G4">
-        <v>29467718.55205593</v>
+        <v>29467663.53330994</v>
       </c>
       <c r="H4">
-        <v>26832838.57122289</v>
+        <v>26832757.00891154</v>
       </c>
       <c r="I4">
-        <v>26319529.47954745</v>
+        <v>26319388.86987014</v>
       </c>
       <c r="J4">
-        <v>29027850.99371881</v>
+        <v>29027609.61940568</v>
       </c>
       <c r="K4">
-        <v>32848297.91682382</v>
+        <v>32847882.68569755</v>
       </c>
       <c r="L4">
-        <v>32625856.88683803</v>
+        <v>32625214.99901917</v>
       </c>
       <c r="M4">
-        <v>34706528.99870037</v>
+        <v>34705446.69745082</v>
       </c>
       <c r="N4">
-        <v>37560819.85764034</v>
+        <v>37558890.90265385</v>
       </c>
       <c r="O4">
-        <v>34847266.89234641</v>
+        <v>34844155.38676182</v>
       </c>
       <c r="P4">
-        <v>38699786.11820978</v>
+        <v>38693980.58993585</v>
       </c>
       <c r="Q4">
-        <v>40020673.57437765</v>
+        <v>40011398.05070379</v>
       </c>
       <c r="R4">
-        <v>41335220.65467387</v>
+        <v>41323635.06779889</v>
       </c>
       <c r="S4">
-        <v>47217378.94157843</v>
+        <v>47204853.10662761</v>
       </c>
       <c r="T4">
-        <v>48661371.44144877</v>
+        <v>48647478.72232445</v>
       </c>
       <c r="U4">
-        <v>50108315.72596996</v>
+        <v>50092319.01233643</v>
       </c>
       <c r="V4">
-        <v>51556440.52448785</v>
+        <v>51537944.26792783</v>
       </c>
       <c r="W4">
-        <v>53004622.9524168</v>
+        <v>52983529.73657158</v>
       </c>
       <c r="X4">
-        <v>53973149.26748795</v>
+        <v>53949254.53549419</v>
       </c>
       <c r="Y4">
-        <v>55327587.91673051</v>
+        <v>55300422.23585627</v>
       </c>
       <c r="Z4">
-        <v>56679398.52814619</v>
+        <v>56649457.79190166</v>
       </c>
       <c r="AA4">
-        <v>58030995.15691326</v>
+        <v>57998225.5530099</v>
       </c>
       <c r="AB4">
-        <v>59385893.99092593</v>
+        <v>59349295.94539548</v>
       </c>
       <c r="AC4">
-        <v>55591863.24876358</v>
+        <v>55550687.04773363</v>
       </c>
       <c r="AD4">
-        <v>56957096.67111354</v>
+        <v>56910119.86282898</v>
       </c>
       <c r="AE4">
-        <v>58325799.86117048</v>
+        <v>58271858.36289862</v>
       </c>
       <c r="AF4">
-        <v>59694023.91181531</v>
+        <v>59633171.43484309</v>
       </c>
       <c r="AG4">
-        <v>61065933.2526321</v>
+        <v>60996637.27936421</v>
       </c>
       <c r="AH4">
-        <v>61561074.24701751</v>
+        <v>61479944.56415162</v>
       </c>
       <c r="AI4">
-        <v>62981877.1041529</v>
+        <v>62884389.88279029</v>
       </c>
       <c r="AJ4">
-        <v>64422535.65327948</v>
+        <v>64303106.10110551</v>
       </c>
       <c r="AK4">
-        <v>65890319.79962434</v>
+        <v>65741719.56497829</v>
       </c>
       <c r="AL4">
-        <v>67393940.27219513</v>
+        <v>67206658.40518448</v>
       </c>
       <c r="AM4">
-        <v>68900571.67105126</v>
+        <v>68666393.8739797</v>
       </c>
       <c r="AN4">
-        <v>70422901.60998927</v>
+        <v>70137330.19661205</v>
       </c>
       <c r="AO4">
-        <v>71980773.66680984</v>
+        <v>71635486.59479734</v>
       </c>
       <c r="AP4">
-        <v>73567388.36188458</v>
+        <v>73156098.71621628</v>
       </c>
       <c r="AQ4">
-        <v>75085574.25338513</v>
+        <v>74623602.84689103</v>
       </c>
       <c r="AR4">
-        <v>76516947.48021679</v>
+        <v>76021207.9449482</v>
       </c>
       <c r="AS4">
-        <v>77922187.00318661</v>
+        <v>77400363.62153013</v>
       </c>
       <c r="AT4">
-        <v>79296972.7382156</v>
+        <v>78758335.67755866</v>
       </c>
       <c r="AU4">
-        <v>80639064.26764446</v>
+        <v>80093849.24920288</v>
       </c>
       <c r="AV4">
-        <v>82459652.27618326</v>
+        <v>81916342.58060996</v>
       </c>
       <c r="AW4">
-        <v>83976842.63385174</v>
+        <v>83445752.27697657</v>
       </c>
       <c r="AX4">
-        <v>85503485.49460013</v>
+        <v>84999788.33841324</v>
       </c>
       <c r="AY4">
-        <v>86744378.48533492</v>
+        <v>86287243.06400305</v>
       </c>
       <c r="AZ4">
-        <v>87933285.66997951</v>
+        <v>87535647.07441992</v>
       </c>
       <c r="BA4">
-        <v>89184426.89333105</v>
+        <v>88833951.61679022</v>
       </c>
       <c r="BB4">
-        <v>90491363.57960951</v>
+        <v>90174451.49731708</v>
       </c>
       <c r="BC4">
-        <v>91900585.21547903</v>
+        <v>91615704.37676761</v>
       </c>
       <c r="BD4">
-        <v>93313147.20453365</v>
+        <v>93058265.2019026</v>
       </c>
       <c r="BE4">
-        <v>94740424.90793286</v>
+        <v>94510360.60299404</v>
       </c>
       <c r="BF4">
-        <v>96204683.86844134</v>
+        <v>95989102.17500603</v>
       </c>
       <c r="BG4">
-        <v>97691366.13114512</v>
+        <v>97478548.27498265</v>
       </c>
       <c r="BH4">
-        <v>99312025.27358888</v>
+        <v>99091153.32168184</v>
       </c>
       <c r="BI4">
-        <v>100970318.2922729</v>
+        <v>100730747.786941</v>
       </c>
       <c r="BJ4">
-        <v>102661615.0913131</v>
+        <v>102394047.4351764</v>
       </c>
       <c r="BK4">
-        <v>104379232.9674579</v>
+        <v>104076348.8319476</v>
       </c>
       <c r="BL4">
-        <v>106092724.4153865</v>
+        <v>105749612.1291954</v>
       </c>
       <c r="BM4">
-        <v>107874340.3928528</v>
+        <v>107491211.8254269</v>
       </c>
       <c r="BN4">
-        <v>109623238.6392404</v>
+        <v>109206902.7608776</v>
       </c>
       <c r="BO4">
-        <v>111334385.8464639</v>
+        <v>110893129.3420803</v>
       </c>
       <c r="BP4">
-        <v>113023158.9593285</v>
+        <v>112562318.0798489</v>
       </c>
       <c r="BQ4">
-        <v>114756653.5565713</v>
+        <v>114280021.8717398</v>
       </c>
       <c r="BR4">
-        <v>116527930.6833165</v>
+        <v>116039311.7942961</v>
       </c>
       <c r="BS4">
-        <v>118286398.4084433</v>
+        <v>117789838.4122633</v>
       </c>
       <c r="BT4">
-        <v>120026532.1918915</v>
+        <v>119527376.8190697</v>
       </c>
       <c r="BU4">
-        <v>121733789.5860394</v>
+        <v>121240552.4131919</v>
       </c>
       <c r="BV4">
-        <v>123422127.8730078</v>
+        <v>122946613.786925</v>
       </c>
       <c r="BW4">
-        <v>125138534.5218946</v>
+        <v>124686654.3725947</v>
       </c>
       <c r="BX4">
-        <v>126877075.143247</v>
+        <v>126445352.1937883</v>
       </c>
       <c r="BY4">
-        <v>128641567.410388</v>
+        <v>128225511.566395</v>
       </c>
       <c r="BZ4">
-        <v>130413746.632869</v>
+        <v>130012482.5109386</v>
       </c>
       <c r="CA4">
-        <v>132219245.6616681</v>
+        <v>131833192.8259231</v>
       </c>
       <c r="CB4">
-        <v>134082653.7267622</v>
+        <v>133710400.7631957</v>
       </c>
       <c r="CC4">
-        <v>135962856.5720346</v>
+        <v>135600369.1995881</v>
       </c>
       <c r="CD4">
-        <v>137866475.4063375</v>
+        <v>137507959.0762994</v>
       </c>
       <c r="CE4">
-        <v>139796783.5120317</v>
+        <v>139435446.3858931</v>
       </c>
       <c r="CF4">
-        <v>141784863.8948499</v>
+        <v>141413866.1730965</v>
       </c>
       <c r="CG4">
-        <v>143852989.2606068</v>
+        <v>143466339.952836</v>
       </c>
       <c r="CH4">
-        <v>145936213.1076132</v>
+        <v>145529469.5398485</v>
       </c>
       <c r="CI4">
-        <v>148024044.1893206</v>
+        <v>147595179.4992918</v>
       </c>
       <c r="CJ4">
-        <v>150103637.3312421</v>
+        <v>149653579.9525046</v>
       </c>
       <c r="CK4">
-        <v>152168070.0006443</v>
+        <v>151700479.1771709</v>
       </c>
       <c r="CL4">
-        <v>154289883.0506691</v>
+        <v>153809128.6565178</v>
       </c>
       <c r="CM4">
-        <v>156396253.0666054</v>
+        <v>155905511.5449444</v>
       </c>
       <c r="CN4">
-        <v>158493286.6147105</v>
+        <v>157994650.8500522</v>
       </c>
       <c r="CO4">
-        <v>160582922.0298263</v>
+        <v>160078270.89132</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694789.953015983</v>
+        <v>1694767.465953461</v>
       </c>
       <c r="E5">
-        <v>995965.2779685578</v>
+        <v>995925.2326633425</v>
       </c>
       <c r="F5">
-        <v>499158.2463613245</v>
+        <v>499080.9657124638</v>
       </c>
       <c r="G5">
-        <v>306704.4670821299</v>
+        <v>306563.8622812042</v>
       </c>
       <c r="H5">
-        <v>287423.4664670098</v>
+        <v>287215.331605756</v>
       </c>
       <c r="I5">
-        <v>203737.0081146677</v>
+        <v>203379.552692952</v>
       </c>
       <c r="J5">
-        <v>166470.7375973884</v>
+        <v>165862.7583882738</v>
       </c>
       <c r="K5">
-        <v>214815.1735198498</v>
+        <v>213791.1815975346</v>
       </c>
       <c r="L5">
-        <v>390229.6026876326</v>
+        <v>388717.2567983895</v>
       </c>
       <c r="M5">
-        <v>340744.1078809435</v>
+        <v>338415.8440162192</v>
       </c>
       <c r="N5">
-        <v>428744.849644278</v>
+        <v>425215.052123079</v>
       </c>
       <c r="O5">
-        <v>537718.1822935381</v>
+        <v>533244.18515805</v>
       </c>
       <c r="P5">
-        <v>3536323.807297462</v>
+        <v>3529952.373119299</v>
       </c>
       <c r="Q5">
-        <v>3541070.677054125</v>
+        <v>3532448.806236533</v>
       </c>
       <c r="R5">
-        <v>3546902.874074936</v>
+        <v>3535503.19316757</v>
       </c>
       <c r="S5">
-        <v>11268071.20636495</v>
+        <v>11253327.4758357</v>
       </c>
       <c r="T5">
-        <v>11276288.22419797</v>
+        <v>11257617.01332154</v>
       </c>
       <c r="U5">
-        <v>11285686.93512008</v>
+        <v>11262514.77191692</v>
       </c>
       <c r="V5">
-        <v>11296189.47023387</v>
+        <v>11267980.56592902</v>
       </c>
       <c r="W5">
-        <v>11307673.39176916</v>
+        <v>11273951.29538868</v>
       </c>
       <c r="X5">
-        <v>10812103.30589527</v>
+        <v>10772458.79114144</v>
       </c>
       <c r="Y5">
-        <v>10825172.95623033</v>
+        <v>10779248.03925662</v>
       </c>
       <c r="Z5">
-        <v>10838981.63985392</v>
+        <v>10786417.3221423</v>
       </c>
       <c r="AA5">
-        <v>10853741.30438076</v>
+        <v>10794075.88178458</v>
       </c>
       <c r="AB5">
-        <v>10869998.15734484</v>
+        <v>10802505.07362271</v>
       </c>
       <c r="AC5">
-        <v>1877830.504998265</v>
+        <v>1801291.414320705</v>
       </c>
       <c r="AD5">
-        <v>1900711.423944453</v>
+        <v>1813132.399618169</v>
       </c>
       <c r="AE5">
-        <v>1929945.44889885</v>
+        <v>1828242.329866065</v>
       </c>
       <c r="AF5">
-        <v>1968390.749099702</v>
+        <v>1848091.219461565</v>
       </c>
       <c r="AG5">
-        <v>2019359.963334081</v>
+        <v>1874383.921236143</v>
       </c>
       <c r="AH5">
-        <v>381830.4427987147</v>
+        <v>204412.4900254859</v>
       </c>
       <c r="AI5">
-        <v>468024.3776157183</v>
+        <v>248831.8659789536</v>
       </c>
       <c r="AJ5">
-        <v>575962.6372485294</v>
+        <v>304440.2092140813</v>
       </c>
       <c r="AK5">
-        <v>706983.5408228326</v>
+        <v>371926.6506930591</v>
       </c>
       <c r="AL5">
-        <v>860824.1978983106</v>
+        <v>451156.7717100643</v>
       </c>
       <c r="AM5">
-        <v>1035292.906717756</v>
+        <v>541003.5536704395</v>
       </c>
       <c r="AN5">
-        <v>1226062.419385945</v>
+        <v>639238.3465726624</v>
       </c>
       <c r="AO5">
-        <v>1426642.221875243</v>
+        <v>742523.3263725679</v>
       </c>
       <c r="AP5">
-        <v>1628532.808327061</v>
+        <v>846484.9597202903</v>
       </c>
       <c r="AQ5">
-        <v>1821645.852255032</v>
+        <v>945925.1848383428</v>
       </c>
       <c r="AR5">
-        <v>1995071.237731458</v>
+        <v>1035233.980505498</v>
       </c>
       <c r="AS5">
-        <v>2138055.308142246</v>
+        <v>1108878.650335801</v>
       </c>
       <c r="AT5">
-        <v>2241185.994136252</v>
+        <v>1162016.332073845</v>
       </c>
       <c r="AU5">
-        <v>2297563.450143999</v>
+        <v>1191096.868351626</v>
       </c>
       <c r="AV5">
-        <v>3453315.343027117</v>
+        <v>2343922.16199153</v>
       </c>
       <c r="AW5">
-        <v>3735087.966945645</v>
+        <v>2646887.323551402</v>
       </c>
       <c r="AX5">
-        <v>3646392.594150365</v>
+        <v>2601332.63720229</v>
       </c>
       <c r="AY5">
-        <v>3520381.038068181</v>
+        <v>2536567.01260543</v>
       </c>
       <c r="AZ5">
-        <v>3367562.604150558</v>
+        <v>2458005.184282721</v>
       </c>
       <c r="BA5">
-        <v>3200004.550313153</v>
+        <v>2371864.657751284</v>
       </c>
       <c r="BB5">
-        <v>2863278.345339412</v>
+        <v>2117603.884540213</v>
       </c>
       <c r="BC5">
-        <v>2703636.954774208</v>
+        <v>2035550.663912566</v>
       </c>
       <c r="BD5">
-        <v>2565002.144124783</v>
+        <v>1964305.566742117</v>
       </c>
       <c r="BE5">
-        <v>2456282.116220694</v>
+        <v>1908452.796704301</v>
       </c>
       <c r="BF5">
-        <v>2383617.787474189</v>
+        <v>1871153.583061576</v>
       </c>
       <c r="BG5">
-        <v>2185139.89295788</v>
+        <v>1689134.793829844</v>
       </c>
       <c r="BH5">
-        <v>2189959.269405876</v>
+        <v>1691713.105094773</v>
       </c>
       <c r="BI5">
-        <v>2229975.482062479</v>
+        <v>1712403.22183228</v>
       </c>
       <c r="BJ5">
-        <v>2299756.552392482</v>
+        <v>1748410.031148982</v>
       </c>
       <c r="BK5">
-        <v>2392706.030106047</v>
+        <v>1796339.09628426</v>
       </c>
       <c r="BL5">
-        <v>2377972.270466988</v>
+        <v>1728710.897873082</v>
       </c>
       <c r="BM5">
-        <v>2496598.937043154</v>
+        <v>1789855.386804349</v>
       </c>
       <c r="BN5">
-        <v>2618324.786202845</v>
+        <v>1852591.855212244</v>
       </c>
       <c r="BO5">
-        <v>2737315.437126476</v>
+        <v>1913918.115778539</v>
       </c>
       <c r="BP5">
-        <v>2848309.454965844</v>
+        <v>1971128.358611613</v>
       </c>
       <c r="BQ5">
-        <v>2860296.693920597</v>
+        <v>1935446.919014576</v>
       </c>
       <c r="BR5">
-        <v>2942284.43415992</v>
+        <v>1977736.144506971</v>
       </c>
       <c r="BS5">
-        <v>3004932.504239044</v>
+        <v>2010074.099147128</v>
       </c>
       <c r="BT5">
-        <v>3046318.40697074</v>
+        <v>2031471.231392909</v>
       </c>
       <c r="BU5">
-        <v>3065600.730518928</v>
+        <v>2041493.502938196</v>
       </c>
       <c r="BV5">
-        <v>2978769.083122113</v>
+        <v>1955978.477984953</v>
       </c>
       <c r="BW5">
-        <v>2955992.607724956</v>
+        <v>1944360.931963155</v>
       </c>
       <c r="BX5">
-        <v>2915658.666073496</v>
+        <v>1923711.751806685</v>
       </c>
       <c r="BY5">
-        <v>2861596.402459537</v>
+        <v>1896001.309222796</v>
       </c>
       <c r="BZ5">
-        <v>2798554.027304891</v>
+        <v>1863671.130746993</v>
       </c>
       <c r="CA5">
-        <v>2643361.651955016</v>
+        <v>1740952.331437299</v>
       </c>
       <c r="CB5">
-        <v>2578601.733041102</v>
+        <v>1707744.740884074</v>
       </c>
       <c r="CC5">
-        <v>2520952.789817697</v>
+        <v>1678197.044749648</v>
       </c>
       <c r="CD5">
-        <v>2474845.867132782</v>
+        <v>1654589.550360223</v>
       </c>
       <c r="CE5">
-        <v>2443565.654551874</v>
+        <v>1638612.515258661</v>
       </c>
       <c r="CF5">
-        <v>2329214.380604239</v>
+        <v>1531431.379360262</v>
       </c>
       <c r="CG5">
-        <v>2331996.771644763</v>
+        <v>1532990.651523755</v>
       </c>
       <c r="CH5">
-        <v>2351317.230660206</v>
+        <v>1543059.981641498</v>
       </c>
       <c r="CI5">
-        <v>2385336.513079179</v>
+        <v>1560692.243482209</v>
       </c>
       <c r="CJ5">
-        <v>2431384.028476568</v>
+        <v>1584512.407098367</v>
       </c>
       <c r="CK5">
-        <v>2349786.444306497</v>
+        <v>1476414.75413435</v>
       </c>
       <c r="CL5">
-        <v>2409920.61763198</v>
+        <v>1507486.937954524</v>
       </c>
       <c r="CM5">
-        <v>2471757.686655857</v>
+        <v>1539434.066008659</v>
       </c>
       <c r="CN5">
-        <v>2531898.962518165</v>
+        <v>1570507.987914195</v>
       </c>
       <c r="CO5">
-        <v>2587301.395138896</v>
+        <v>1599143.204755623</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>262.0285148604052</v>
+      </c>
+      <c r="E2">
+        <v>564.6463356348313</v>
+      </c>
+      <c r="F2">
+        <v>1064.88207032879</v>
+      </c>
+      <c r="G2">
+        <v>1435.496915867429</v>
+      </c>
+      <c r="H2">
+        <v>2384.506355232458</v>
+      </c>
+      <c r="I2">
+        <v>2929.803808215892</v>
+      </c>
+      <c r="J2">
+        <v>3538.323600895452</v>
+      </c>
+      <c r="K2">
+        <v>4238.258235942281</v>
+      </c>
+      <c r="L2">
+        <v>4796.162806070372</v>
+      </c>
+      <c r="M2">
+        <v>5480.706260173445</v>
+      </c>
+      <c r="N2">
+        <v>5827.857085688798</v>
+      </c>
+      <c r="O2">
+        <v>6213.00458370411</v>
+      </c>
+      <c r="P2">
+        <v>6985.751833197596</v>
+      </c>
+      <c r="Q2">
+        <v>7765.62556183799</v>
+      </c>
+      <c r="R2">
+        <v>8552.754566523168</v>
+      </c>
+      <c r="S2">
+        <v>10526.51416505776</v>
+      </c>
+      <c r="T2">
+        <v>12503.84742445532</v>
+      </c>
+      <c r="U2">
+        <v>14486.61892103825</v>
+      </c>
+      <c r="V2">
+        <v>16477.08612216375</v>
+      </c>
+      <c r="W2">
+        <v>18475.53027143891</v>
+      </c>
+      <c r="X2">
+        <v>20309.84820587501</v>
+      </c>
+      <c r="Y2">
+        <v>22153.47726125445</v>
+      </c>
+      <c r="Z2">
+        <v>24005.36727496557</v>
+      </c>
+      <c r="AA2">
+        <v>25866.15907974075</v>
+      </c>
+      <c r="AB2">
+        <v>27742.66741388452</v>
+      </c>
+      <c r="AC2">
+        <v>28294.57664188839</v>
+      </c>
+      <c r="AD2">
+        <v>28871.15176010344</v>
+      </c>
+      <c r="AE2">
+        <v>29471.9700418073</v>
+      </c>
+      <c r="AF2">
+        <v>30077.18192981834</v>
+      </c>
+      <c r="AG2">
+        <v>30681.82490724434</v>
+      </c>
+      <c r="AH2">
+        <v>31105.84363804039</v>
+      </c>
+      <c r="AI2">
+        <v>31532.97385201921</v>
+      </c>
+      <c r="AJ2">
+        <v>31962.61051360116</v>
+      </c>
+      <c r="AK2">
+        <v>32397.29375039528</v>
+      </c>
+      <c r="AL2">
+        <v>32856.7805510852</v>
+      </c>
+      <c r="AM2">
+        <v>33360.81958335878</v>
+      </c>
+      <c r="AN2">
+        <v>33913.37668234009</v>
+      </c>
+      <c r="AO2">
+        <v>34530.77192953223</v>
+      </c>
+      <c r="AP2">
+        <v>35228.34321852454</v>
+      </c>
+      <c r="AQ2">
+        <v>35972.14026561655</v>
+      </c>
+      <c r="AR2">
+        <v>36729.76563109225</v>
+      </c>
+      <c r="AS2">
+        <v>37496.39520811212</v>
+      </c>
+      <c r="AT2">
+        <v>38267.15998014835</v>
+      </c>
+      <c r="AU2">
+        <v>39037.58376756478</v>
+      </c>
+      <c r="AV2">
+        <v>39819.58580390472</v>
+      </c>
+      <c r="AW2">
+        <v>40603.72431559789</v>
+      </c>
+      <c r="AX2">
+        <v>41587.29758398521</v>
+      </c>
+      <c r="AY2">
+        <v>42527.1306570805</v>
+      </c>
+      <c r="AZ2">
+        <v>43405.44794136359</v>
+      </c>
+      <c r="BA2">
+        <v>44258.11712385748</v>
+      </c>
+      <c r="BB2">
+        <v>45088.9938493523</v>
+      </c>
+      <c r="BC2">
+        <v>45918.08629872116</v>
+      </c>
+      <c r="BD2">
+        <v>46737.70118711423</v>
+      </c>
+      <c r="BE2">
+        <v>47546.41667623683</v>
+      </c>
+      <c r="BF2">
+        <v>48351.30317400664</v>
+      </c>
+      <c r="BG2">
+        <v>49135.41491376581</v>
+      </c>
+      <c r="BH2">
+        <v>49934.94944805686</v>
+      </c>
+      <c r="BI2">
+        <v>50764.24008892326</v>
+      </c>
+      <c r="BJ2">
+        <v>51637.3100465018</v>
+      </c>
+      <c r="BK2">
+        <v>52563.81632066963</v>
+      </c>
+      <c r="BL2">
+        <v>53529.56680010339</v>
+      </c>
+      <c r="BM2">
+        <v>54550.08118265722</v>
+      </c>
+      <c r="BN2">
+        <v>55607.59735231718</v>
+      </c>
+      <c r="BO2">
+        <v>56683.42523692913</v>
+      </c>
+      <c r="BP2">
+        <v>57768.5941355145</v>
+      </c>
+      <c r="BQ2">
+        <v>58846.57480528026</v>
+      </c>
+      <c r="BR2">
+        <v>59929.75705990115</v>
+      </c>
+      <c r="BS2">
+        <v>61017.67229395763</v>
+      </c>
+      <c r="BT2">
+        <v>62108.04508597454</v>
+      </c>
+      <c r="BU2">
+        <v>63191.62921064374</v>
+      </c>
+      <c r="BV2">
+        <v>64237.63720293719</v>
+      </c>
+      <c r="BW2">
+        <v>65254.23120369486</v>
+      </c>
+      <c r="BX2">
+        <v>66255.62952920119</v>
+      </c>
+      <c r="BY2">
+        <v>67254.96573461306</v>
+      </c>
+      <c r="BZ2">
+        <v>68254.02779773028</v>
+      </c>
+      <c r="CA2">
+        <v>69236.45476535869</v>
+      </c>
+      <c r="CB2">
+        <v>70216.91054701115</v>
+      </c>
+      <c r="CC2">
+        <v>71200.43832562957</v>
+      </c>
+      <c r="CD2">
+        <v>72195.32890639789</v>
+      </c>
+      <c r="CE2">
+        <v>73212.70461148213</v>
+      </c>
+      <c r="CF2">
+        <v>74249.1456007423</v>
+      </c>
+      <c r="CG2">
+        <v>75330.43658666984</v>
+      </c>
+      <c r="CH2">
+        <v>76461.85372066747</v>
+      </c>
+      <c r="CI2">
+        <v>77642.63464097533</v>
+      </c>
+      <c r="CJ2">
+        <v>78865.65485108802</v>
+      </c>
+      <c r="CK2">
+        <v>80097.291252326</v>
+      </c>
+      <c r="CL2">
+        <v>81346.96728835054</v>
+      </c>
+      <c r="CM2">
+        <v>82606.84848830782</v>
+      </c>
+      <c r="CN2">
+        <v>83873.36728025184</v>
+      </c>
+      <c r="CO2">
+        <v>85144.98860272378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>16.4907212641697</v>
+      </c>
+      <c r="E3">
+        <v>35.6501489414072</v>
+      </c>
+      <c r="F3">
+        <v>67.96334810962946</v>
+      </c>
+      <c r="G3">
+        <v>91.57163823822474</v>
+      </c>
+      <c r="H3">
+        <v>154.1261472547466</v>
+      </c>
+      <c r="I3">
+        <v>189.5542381615185</v>
+      </c>
+      <c r="J3">
+        <v>229.1160698201973</v>
+      </c>
+      <c r="K3">
+        <v>274.6644747560879</v>
+      </c>
+      <c r="L3">
+        <v>310.718538394406</v>
+      </c>
+      <c r="M3">
+        <v>355.2050097076212</v>
+      </c>
+      <c r="N3">
+        <v>376.8820788944627</v>
+      </c>
+      <c r="O3">
+        <v>401.2544239774841</v>
+      </c>
+      <c r="P3">
+        <v>451.573510087561</v>
+      </c>
+      <c r="Q3">
+        <v>502.3344163042627</v>
+      </c>
+      <c r="R3">
+        <v>553.5459497219487</v>
+      </c>
+      <c r="S3">
+        <v>684.3847782724885</v>
+      </c>
+      <c r="T3">
+        <v>815.4179293461532</v>
+      </c>
+      <c r="U3">
+        <v>946.7705693121615</v>
+      </c>
+      <c r="V3">
+        <v>1078.594294181248</v>
+      </c>
+      <c r="W3">
+        <v>1210.907996741258</v>
+      </c>
+      <c r="X3">
+        <v>1332.156709241873</v>
+      </c>
+      <c r="Y3">
+        <v>1453.986719889007</v>
+      </c>
+      <c r="Z3">
+        <v>1576.32756287792</v>
+      </c>
+      <c r="AA3">
+        <v>1699.222288453226</v>
+      </c>
+      <c r="AB3">
+        <v>1823.128524619806</v>
+      </c>
+      <c r="AC3">
+        <v>1858.054249829902</v>
+      </c>
+      <c r="AD3">
+        <v>1894.591402501246</v>
+      </c>
+      <c r="AE3">
+        <v>1932.711540342427</v>
+      </c>
+      <c r="AF3">
+        <v>1971.081562841753</v>
+      </c>
+      <c r="AG3">
+        <v>2009.368147213989</v>
+      </c>
+      <c r="AH3">
+        <v>2035.481636939962</v>
+      </c>
+      <c r="AI3">
+        <v>2061.757006391495</v>
+      </c>
+      <c r="AJ3">
+        <v>2088.15325585536</v>
+      </c>
+      <c r="AK3">
+        <v>2114.840458028963</v>
+      </c>
+      <c r="AL3">
+        <v>2143.144814913538</v>
+      </c>
+      <c r="AM3">
+        <v>2174.391689399687</v>
+      </c>
+      <c r="AN3">
+        <v>2208.84714741002</v>
+      </c>
+      <c r="AO3">
+        <v>2247.606498752422</v>
+      </c>
+      <c r="AP3">
+        <v>2291.699205614236</v>
+      </c>
+      <c r="AQ3">
+        <v>2338.846648038974</v>
+      </c>
+      <c r="AR3">
+        <v>2386.872872449444</v>
+      </c>
+      <c r="AS3">
+        <v>2435.454346097966</v>
+      </c>
+      <c r="AT3">
+        <v>2484.26457541961</v>
+      </c>
+      <c r="AU3">
+        <v>2533.003469565321</v>
+      </c>
+      <c r="AV3">
+        <v>2582.469250303493</v>
+      </c>
+      <c r="AW3">
+        <v>2632.025725065669</v>
+      </c>
+      <c r="AX3">
+        <v>2694.924503949142</v>
+      </c>
+      <c r="AY3">
+        <v>2754.836281408189</v>
+      </c>
+      <c r="AZ3">
+        <v>2810.568297136272</v>
+      </c>
+      <c r="BA3">
+        <v>2864.52797878855</v>
+      </c>
+      <c r="BB3">
+        <v>2916.968478851568</v>
+      </c>
+      <c r="BC3">
+        <v>2969.232994854099</v>
+      </c>
+      <c r="BD3">
+        <v>3020.804848170093</v>
+      </c>
+      <c r="BE3">
+        <v>3071.588343926348</v>
+      </c>
+      <c r="BF3">
+        <v>3122.057653174493</v>
+      </c>
+      <c r="BG3">
+        <v>3171.070342885116</v>
+      </c>
+      <c r="BH3">
+        <v>3221.056303622522</v>
+      </c>
+      <c r="BI3">
+        <v>3272.977485945158</v>
+      </c>
+      <c r="BJ3">
+        <v>3327.775095961524</v>
+      </c>
+      <c r="BK3">
+        <v>3386.097217442459</v>
+      </c>
+      <c r="BL3">
+        <v>3446.987398717564</v>
+      </c>
+      <c r="BM3">
+        <v>3511.487730370267</v>
+      </c>
+      <c r="BN3">
+        <v>3578.40604892076</v>
+      </c>
+      <c r="BO3">
+        <v>3646.487956994057</v>
+      </c>
+      <c r="BP3">
+        <v>3715.131447353394</v>
+      </c>
+      <c r="BQ3">
+        <v>3783.221884216584</v>
+      </c>
+      <c r="BR3">
+        <v>3851.591340040377</v>
+      </c>
+      <c r="BS3">
+        <v>3920.208549554858</v>
+      </c>
+      <c r="BT3">
+        <v>3988.921018092832</v>
+      </c>
+      <c r="BU3">
+        <v>4057.108412504463</v>
+      </c>
+      <c r="BV3">
+        <v>4122.699886792821</v>
+      </c>
+      <c r="BW3">
+        <v>4186.243759649582</v>
+      </c>
+      <c r="BX3">
+        <v>4248.694361186343</v>
+      </c>
+      <c r="BY3">
+        <v>4310.933093864393</v>
+      </c>
+      <c r="BZ3">
+        <v>4373.079815174726</v>
+      </c>
+      <c r="CA3">
+        <v>4434.031414406785</v>
+      </c>
+      <c r="CB3">
+        <v>4494.772334477398</v>
+      </c>
+      <c r="CC3">
+        <v>4555.640926778687</v>
+      </c>
+      <c r="CD3">
+        <v>4617.193527685089</v>
+      </c>
+      <c r="CE3">
+        <v>4680.176585667627</v>
+      </c>
+      <c r="CF3">
+        <v>4744.35508453556</v>
+      </c>
+      <c r="CG3">
+        <v>4811.460045183219</v>
+      </c>
+      <c r="CH3">
+        <v>4881.845553991836</v>
+      </c>
+      <c r="CI3">
+        <v>4955.460372767965</v>
+      </c>
+      <c r="CJ3">
+        <v>5031.826255238518</v>
+      </c>
+      <c r="CK3">
+        <v>5108.681176362277</v>
+      </c>
+      <c r="CL3">
+        <v>5186.658151547506</v>
+      </c>
+      <c r="CM3">
+        <v>5265.231370062638</v>
+      </c>
+      <c r="CN3">
+        <v>5344.161436677519</v>
+      </c>
+      <c r="CO3">
+        <v>5423.345404333683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>26474389.70802449</v>
+      </c>
+      <c r="E4">
+        <v>53251626.49584877</v>
+      </c>
+      <c r="F4">
+        <v>82627849.65155882</v>
+      </c>
+      <c r="G4">
+        <v>112095513.1848688</v>
+      </c>
+      <c r="H4">
+        <v>138928270.1937803</v>
+      </c>
+      <c r="I4">
+        <v>165247659.0636504</v>
+      </c>
+      <c r="J4">
+        <v>194275268.6830561</v>
+      </c>
+      <c r="K4">
+        <v>227123151.3687537</v>
+      </c>
+      <c r="L4">
+        <v>259748366.3677728</v>
+      </c>
+      <c r="M4">
+        <v>294453813.0652237</v>
+      </c>
+      <c r="N4">
+        <v>332012703.9678776</v>
+      </c>
+      <c r="O4">
+        <v>366856859.3546394</v>
+      </c>
+      <c r="P4">
+        <v>405550839.9445753</v>
+      </c>
+      <c r="Q4">
+        <v>445562237.995279</v>
+      </c>
+      <c r="R4">
+        <v>486885873.0630779</v>
+      </c>
+      <c r="S4">
+        <v>534090726.1697055</v>
+      </c>
+      <c r="T4">
+        <v>582738204.89203</v>
+      </c>
+      <c r="U4">
+        <v>632830523.9043665</v>
+      </c>
+      <c r="V4">
+        <v>684368468.1722944</v>
+      </c>
+      <c r="W4">
+        <v>737351997.9088659</v>
+      </c>
+      <c r="X4">
+        <v>791301252.4443601</v>
+      </c>
+      <c r="Y4">
+        <v>846601674.6802164</v>
+      </c>
+      <c r="Z4">
+        <v>903251132.4721181</v>
+      </c>
+      <c r="AA4">
+        <v>961249358.025128</v>
+      </c>
+      <c r="AB4">
+        <v>1020598653.970523</v>
+      </c>
+      <c r="AC4">
+        <v>1076149341.018257</v>
+      </c>
+      <c r="AD4">
+        <v>1133059460.881086</v>
+      </c>
+      <c r="AE4">
+        <v>1191331319.243985</v>
+      </c>
+      <c r="AF4">
+        <v>1250964490.678828</v>
+      </c>
+      <c r="AG4">
+        <v>1311961127.958192</v>
+      </c>
+      <c r="AH4">
+        <v>1373441072.522343</v>
+      </c>
+      <c r="AI4">
+        <v>1436325462.405134</v>
+      </c>
+      <c r="AJ4">
+        <v>1500628568.506239</v>
+      </c>
+      <c r="AK4">
+        <v>1566370288.071218</v>
+      </c>
+      <c r="AL4">
+        <v>1633576946.476402</v>
+      </c>
+      <c r="AM4">
+        <v>1702243340.350382</v>
+      </c>
+      <c r="AN4">
+        <v>1772380670.546994</v>
+      </c>
+      <c r="AO4">
+        <v>1844016157.141791</v>
+      </c>
+      <c r="AP4">
+        <v>1917172255.858008</v>
+      </c>
+      <c r="AQ4">
+        <v>1991795858.704899</v>
+      </c>
+      <c r="AR4">
+        <v>2067817066.649847</v>
+      </c>
+      <c r="AS4">
+        <v>2145217430.271377</v>
+      </c>
+      <c r="AT4">
+        <v>2223975765.948936</v>
+      </c>
+      <c r="AU4">
+        <v>2304069615.198138</v>
+      </c>
+      <c r="AV4">
+        <v>2385985957.778748</v>
+      </c>
+      <c r="AW4">
+        <v>2469431710.055725</v>
+      </c>
+      <c r="AX4">
+        <v>2554431498.394138</v>
+      </c>
+      <c r="AY4">
+        <v>2640718741.458141</v>
+      </c>
+      <c r="AZ4">
+        <v>2728254388.532561</v>
+      </c>
+      <c r="BA4">
+        <v>2817088340.149351</v>
+      </c>
+      <c r="BB4">
+        <v>2907262791.646668</v>
+      </c>
+      <c r="BC4">
+        <v>2998878496.023436</v>
+      </c>
+      <c r="BD4">
+        <v>3091936761.225338</v>
+      </c>
+      <c r="BE4">
+        <v>3186447121.828332</v>
+      </c>
+      <c r="BF4">
+        <v>3282436224.003338</v>
+      </c>
+      <c r="BG4">
+        <v>3379914772.278321</v>
+      </c>
+      <c r="BH4">
+        <v>3479005925.600003</v>
+      </c>
+      <c r="BI4">
+        <v>3579736673.386944</v>
+      </c>
+      <c r="BJ4">
+        <v>3682130720.82212</v>
+      </c>
+      <c r="BK4">
+        <v>3786207069.654068</v>
+      </c>
+      <c r="BL4">
+        <v>3891956681.783263</v>
+      </c>
+      <c r="BM4">
+        <v>3999447893.60869</v>
+      </c>
+      <c r="BN4">
+        <v>4108654796.369568</v>
+      </c>
+      <c r="BO4">
+        <v>4219547925.711648</v>
+      </c>
+      <c r="BP4">
+        <v>4332110243.791497</v>
+      </c>
+      <c r="BQ4">
+        <v>4446390265.663237</v>
+      </c>
+      <c r="BR4">
+        <v>4562429577.457533</v>
+      </c>
+      <c r="BS4">
+        <v>4680219415.869796</v>
+      </c>
+      <c r="BT4">
+        <v>4799746792.688866</v>
+      </c>
+      <c r="BU4">
+        <v>4920987345.102057</v>
+      </c>
+      <c r="BV4">
+        <v>5043933958.888983</v>
+      </c>
+      <c r="BW4">
+        <v>5168620613.261578</v>
+      </c>
+      <c r="BX4">
+        <v>5295065965.455366</v>
+      </c>
+      <c r="BY4">
+        <v>5423291477.021761</v>
+      </c>
+      <c r="BZ4">
+        <v>5553303959.5327</v>
+      </c>
+      <c r="CA4">
+        <v>5685137152.358623</v>
+      </c>
+      <c r="CB4">
+        <v>5818847553.121819</v>
+      </c>
+      <c r="CC4">
+        <v>5954447922.321406</v>
+      </c>
+      <c r="CD4">
+        <v>6091955881.397706</v>
+      </c>
+      <c r="CE4">
+        <v>6231391327.783599</v>
+      </c>
+      <c r="CF4">
+        <v>6372805193.956696</v>
+      </c>
+      <c r="CG4">
+        <v>6516271533.909532</v>
+      </c>
+      <c r="CH4">
+        <v>6661801003.44938</v>
+      </c>
+      <c r="CI4">
+        <v>6809396182.948671</v>
+      </c>
+      <c r="CJ4">
+        <v>6959049762.901176</v>
+      </c>
+      <c r="CK4">
+        <v>7110750242.078347</v>
+      </c>
+      <c r="CL4">
+        <v>7264559370.734865</v>
+      </c>
+      <c r="CM4">
+        <v>7420464882.27981</v>
+      </c>
+      <c r="CN4">
+        <v>7578459533.129862</v>
+      </c>
+      <c r="CO4">
+        <v>7738537804.021182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1694767.465953461</v>
+      </c>
+      <c r="E5">
+        <v>2690692.698616804</v>
+      </c>
+      <c r="F5">
+        <v>3189773.664329268</v>
+      </c>
+      <c r="G5">
+        <v>3496337.526610472</v>
+      </c>
+      <c r="H5">
+        <v>3783552.858216228</v>
+      </c>
+      <c r="I5">
+        <v>3986932.41090918</v>
+      </c>
+      <c r="J5">
+        <v>4152795.169297454</v>
+      </c>
+      <c r="K5">
+        <v>4366586.350894989</v>
+      </c>
+      <c r="L5">
+        <v>4755303.607693378</v>
+      </c>
+      <c r="M5">
+        <v>5093719.451709597</v>
+      </c>
+      <c r="N5">
+        <v>5518934.503832676</v>
+      </c>
+      <c r="O5">
+        <v>6052178.688990726</v>
+      </c>
+      <c r="P5">
+        <v>9582131.062110025</v>
+      </c>
+      <c r="Q5">
+        <v>13114579.86834656</v>
+      </c>
+      <c r="R5">
+        <v>16650083.06151413</v>
+      </c>
+      <c r="S5">
+        <v>27903410.53734982</v>
+      </c>
+      <c r="T5">
+        <v>39161027.55067137</v>
+      </c>
+      <c r="U5">
+        <v>50423542.32258829</v>
+      </c>
+      <c r="V5">
+        <v>61691522.88851732</v>
+      </c>
+      <c r="W5">
+        <v>72965474.183906</v>
+      </c>
+      <c r="X5">
+        <v>83737932.97504744</v>
+      </c>
+      <c r="Y5">
+        <v>94517181.01430406</v>
+      </c>
+      <c r="Z5">
+        <v>105303598.3364464</v>
+      </c>
+      <c r="AA5">
+        <v>116097674.2182309</v>
+      </c>
+      <c r="AB5">
+        <v>126900179.2918537</v>
+      </c>
+      <c r="AC5">
+        <v>128701470.7061744</v>
+      </c>
+      <c r="AD5">
+        <v>130514603.1057925</v>
+      </c>
+      <c r="AE5">
+        <v>132342845.4356586</v>
+      </c>
+      <c r="AF5">
+        <v>134190936.6551202</v>
+      </c>
+      <c r="AG5">
+        <v>136065320.5763563</v>
+      </c>
+      <c r="AH5">
+        <v>136269733.0663818</v>
+      </c>
+      <c r="AI5">
+        <v>136518564.9323607</v>
+      </c>
+      <c r="AJ5">
+        <v>136823005.1415748</v>
+      </c>
+      <c r="AK5">
+        <v>137194931.7922679</v>
+      </c>
+      <c r="AL5">
+        <v>137646088.563978</v>
+      </c>
+      <c r="AM5">
+        <v>138187092.1176484</v>
+      </c>
+      <c r="AN5">
+        <v>138826330.4642211</v>
+      </c>
+      <c r="AO5">
+        <v>139568853.7905936</v>
+      </c>
+      <c r="AP5">
+        <v>140415338.7503139</v>
+      </c>
+      <c r="AQ5">
+        <v>141361263.9351523</v>
+      </c>
+      <c r="AR5">
+        <v>142396497.9156578</v>
+      </c>
+      <c r="AS5">
+        <v>143505376.5659935</v>
+      </c>
+      <c r="AT5">
+        <v>144667392.8980674</v>
+      </c>
+      <c r="AU5">
+        <v>145858489.766419</v>
+      </c>
+      <c r="AV5">
+        <v>148202411.9284106</v>
+      </c>
+      <c r="AW5">
+        <v>150849299.251962</v>
+      </c>
+      <c r="AX5">
+        <v>153450631.8891643</v>
+      </c>
+      <c r="AY5">
+        <v>155987198.9017697</v>
+      </c>
+      <c r="AZ5">
+        <v>158445204.0860524</v>
+      </c>
+      <c r="BA5">
+        <v>160817068.7438037</v>
+      </c>
+      <c r="BB5">
+        <v>162934672.6283439</v>
+      </c>
+      <c r="BC5">
+        <v>164970223.2922565</v>
+      </c>
+      <c r="BD5">
+        <v>166934528.8589986</v>
+      </c>
+      <c r="BE5">
+        <v>168842981.6557029</v>
+      </c>
+      <c r="BF5">
+        <v>170714135.2387645</v>
+      </c>
+      <c r="BG5">
+        <v>172403270.0325943</v>
+      </c>
+      <c r="BH5">
+        <v>174094983.1376891</v>
+      </c>
+      <c r="BI5">
+        <v>175807386.3595214</v>
+      </c>
+      <c r="BJ5">
+        <v>177555796.3906703</v>
+      </c>
+      <c r="BK5">
+        <v>179352135.4869546</v>
+      </c>
+      <c r="BL5">
+        <v>181080846.3848277</v>
+      </c>
+      <c r="BM5">
+        <v>182870701.771632</v>
+      </c>
+      <c r="BN5">
+        <v>184723293.6268443</v>
+      </c>
+      <c r="BO5">
+        <v>186637211.7426228</v>
+      </c>
+      <c r="BP5">
+        <v>188608340.1012344</v>
+      </c>
+      <c r="BQ5">
+        <v>190543787.020249</v>
+      </c>
+      <c r="BR5">
+        <v>192521523.1647559</v>
+      </c>
+      <c r="BS5">
+        <v>194531597.2639031</v>
+      </c>
+      <c r="BT5">
+        <v>196563068.495296</v>
+      </c>
+      <c r="BU5">
+        <v>198604561.9982342</v>
+      </c>
+      <c r="BV5">
+        <v>200560540.4762191</v>
+      </c>
+      <c r="BW5">
+        <v>202504901.4081823</v>
+      </c>
+      <c r="BX5">
+        <v>204428613.159989</v>
+      </c>
+      <c r="BY5">
+        <v>206324614.4692118</v>
+      </c>
+      <c r="BZ5">
+        <v>208188285.5999587</v>
+      </c>
+      <c r="CA5">
+        <v>209929237.931396</v>
+      </c>
+      <c r="CB5">
+        <v>211636982.6722801</v>
+      </c>
+      <c r="CC5">
+        <v>213315179.7170298</v>
+      </c>
+      <c r="CD5">
+        <v>214969769.26739</v>
+      </c>
+      <c r="CE5">
+        <v>216608381.7826487</v>
+      </c>
+      <c r="CF5">
+        <v>218139813.1620089</v>
+      </c>
+      <c r="CG5">
+        <v>219672803.8135327</v>
+      </c>
+      <c r="CH5">
+        <v>221215863.7951742</v>
+      </c>
+      <c r="CI5">
+        <v>222776556.0386564</v>
+      </c>
+      <c r="CJ5">
+        <v>224361068.4457547</v>
+      </c>
+      <c r="CK5">
+        <v>225837483.1998891</v>
+      </c>
+      <c r="CL5">
+        <v>227344970.1378436</v>
+      </c>
+      <c r="CM5">
+        <v>228884404.2038523</v>
+      </c>
+      <c r="CN5">
+        <v>230454912.1917665</v>
+      </c>
+      <c r="CO5">
+        <v>232054055.3965221</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/RR/Results_world_base_RR_full.xlsx
+++ b/Results/Baseline/RR/Results_world_base_RR_full.xlsx
@@ -29,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285148604052</v>
+        <v>261.9472600640528</v>
       </c>
       <c r="E2">
-        <v>302.6178207744261</v>
+        <v>302.5639882458125</v>
       </c>
       <c r="F2">
-        <v>500.2357346939585</v>
+        <v>500.2023325229081</v>
       </c>
       <c r="G2">
-        <v>370.6148455386391</v>
+        <v>370.5884416084285</v>
       </c>
       <c r="H2">
-        <v>949.0094393650288</v>
+        <v>948.980296248033</v>
       </c>
       <c r="I2">
-        <v>545.2974529834346</v>
+        <v>545.2749069198272</v>
       </c>
       <c r="J2">
-        <v>608.5197926795595</v>
+        <v>608.4981381272771</v>
       </c>
       <c r="K2">
-        <v>699.934635046829</v>
+        <v>699.9134658860155</v>
       </c>
       <c r="L2">
-        <v>557.9045701280914</v>
+        <v>557.8761921188465</v>
       </c>
       <c r="M2">
-        <v>684.5434541030725</v>
+        <v>684.5176110887784</v>
       </c>
       <c r="N2">
-        <v>347.1508255153527</v>
+        <v>345.4458354396534</v>
       </c>
       <c r="O2">
-        <v>385.147498015312</v>
+        <v>383.592260127869</v>
       </c>
       <c r="P2">
-        <v>772.7472494934864</v>
+        <v>770.9808728758536</v>
       </c>
       <c r="Q2">
-        <v>779.8737286403936</v>
+        <v>778.0794695170396</v>
       </c>
       <c r="R2">
-        <v>787.1290046851781</v>
+        <v>785.3070845409572</v>
       </c>
       <c r="S2">
-        <v>1973.759598534596</v>
+        <v>1971.518226153727</v>
       </c>
       <c r="T2">
-        <v>1977.333259397554</v>
+        <v>1975.059190640531</v>
       </c>
       <c r="U2">
-        <v>1982.771496582937</v>
+        <v>1980.464632210437</v>
       </c>
       <c r="V2">
-        <v>1990.4672011255</v>
+        <v>1988.12750730279</v>
       </c>
       <c r="W2">
-        <v>1998.444149275162</v>
+        <v>1996.071621544525</v>
       </c>
       <c r="X2">
-        <v>1834.317934436091</v>
+        <v>1831.945142313142</v>
       </c>
       <c r="Y2">
-        <v>1843.629055379445</v>
+        <v>1841.224274209226</v>
       </c>
       <c r="Z2">
-        <v>1851.890013711119</v>
+        <v>1849.453327985607</v>
       </c>
       <c r="AA2">
-        <v>1860.791804775178</v>
+        <v>1858.32322180638</v>
       </c>
       <c r="AB2">
-        <v>1876.508334143771</v>
+        <v>1874.007768512969</v>
       </c>
       <c r="AC2">
-        <v>551.9092280038722</v>
+        <v>549.8257572310469</v>
       </c>
       <c r="AD2">
-        <v>576.5751182150447</v>
+        <v>574.458845297152</v>
       </c>
       <c r="AE2">
-        <v>600.8182817038665</v>
+        <v>598.6690553282052</v>
       </c>
       <c r="AF2">
-        <v>605.2118880110346</v>
+        <v>603.0295774294713</v>
       </c>
       <c r="AG2">
-        <v>604.642977426008</v>
+        <v>602.4273734116684</v>
       </c>
       <c r="AH2">
-        <v>424.0187307960426</v>
+        <v>421.8495022842388</v>
       </c>
       <c r="AI2">
-        <v>427.130213978828</v>
+        <v>424.9260422441258</v>
       </c>
       <c r="AJ2">
-        <v>429.6366615819496</v>
+        <v>427.3967500290863</v>
       </c>
       <c r="AK2">
-        <v>434.6832367941177</v>
+        <v>432.4065427301878</v>
       </c>
       <c r="AL2">
-        <v>459.4868006899217</v>
+        <v>457.1720689401727</v>
       </c>
       <c r="AM2">
-        <v>504.039032273574</v>
+        <v>501.6851140183748</v>
       </c>
       <c r="AN2">
-        <v>552.5570989813048</v>
+        <v>550.1633927447689</v>
       </c>
       <c r="AO2">
-        <v>617.3952471921466</v>
+        <v>614.9605418309601</v>
       </c>
       <c r="AP2">
-        <v>697.571288992306</v>
+        <v>695.0946438025013</v>
       </c>
       <c r="AQ2">
-        <v>743.7970470920135</v>
+        <v>741.2807388388734</v>
       </c>
       <c r="AR2">
-        <v>757.6253654757005</v>
+        <v>755.0702307087299</v>
       </c>
       <c r="AS2">
-        <v>766.6295770198687</v>
+        <v>764.0366403115574</v>
       </c>
       <c r="AT2">
-        <v>770.764772036219</v>
+        <v>768.1352492600954</v>
       </c>
       <c r="AU2">
-        <v>770.4237874164309</v>
+        <v>767.7590041496562</v>
       </c>
       <c r="AV2">
-        <v>782.0020363399358</v>
+        <v>779.2561756643512</v>
       </c>
       <c r="AW2">
-        <v>784.138511693174</v>
+        <v>781.3430667654021</v>
       </c>
       <c r="AX2">
-        <v>983.5732683873214</v>
+        <v>980.7295579684504</v>
       </c>
       <c r="AY2">
-        <v>939.8330730952956</v>
+        <v>936.9579014828611</v>
       </c>
       <c r="AZ2">
-        <v>878.3172842830825</v>
+        <v>875.4125073453</v>
       </c>
       <c r="BA2">
-        <v>852.6691824938948</v>
+        <v>849.7328494058657</v>
       </c>
       <c r="BB2">
-        <v>830.8767254948198</v>
+        <v>827.9111981306293</v>
       </c>
       <c r="BC2">
-        <v>829.0924493688601</v>
+        <v>826.0890175584319</v>
       </c>
       <c r="BD2">
-        <v>819.6148883930761</v>
+        <v>816.5733055982598</v>
       </c>
       <c r="BE2">
-        <v>808.7154891226008</v>
+        <v>805.6351036371897</v>
       </c>
       <c r="BF2">
-        <v>804.886497769808</v>
+        <v>801.7658895454782</v>
       </c>
       <c r="BG2">
-        <v>784.1117397591629</v>
+        <v>780.9548675548587</v>
       </c>
       <c r="BH2">
-        <v>799.5345342910522</v>
+        <v>796.3316069689852</v>
       </c>
       <c r="BI2">
-        <v>829.2906408663949</v>
+        <v>826.0402590930486</v>
       </c>
       <c r="BJ2">
-        <v>873.0699575785403</v>
+        <v>869.7709067303512</v>
       </c>
       <c r="BK2">
-        <v>926.5062741678319</v>
+        <v>923.1575793743789</v>
       </c>
       <c r="BL2">
-        <v>965.7504794337555</v>
+        <v>962.3554788317695</v>
       </c>
       <c r="BM2">
-        <v>1020.514382553825</v>
+        <v>1017.066885784799</v>
       </c>
       <c r="BN2">
-        <v>1057.516169659959</v>
+        <v>1054.017227239844</v>
       </c>
       <c r="BO2">
-        <v>1075.827884611949</v>
+        <v>1072.278744278378</v>
       </c>
       <c r="BP2">
-        <v>1085.168898585376</v>
+        <v>1081.570337391527</v>
       </c>
       <c r="BQ2">
-        <v>1077.980669765752</v>
+        <v>1074.334070674188</v>
       </c>
       <c r="BR2">
-        <v>1083.182254620888</v>
+        <v>1079.483747764993</v>
       </c>
       <c r="BS2">
-        <v>1087.915234056483</v>
+        <v>1084.165350081036</v>
       </c>
       <c r="BT2">
-        <v>1090.372792016915</v>
+        <v>1086.572255494762</v>
       </c>
       <c r="BU2">
-        <v>1083.584124669203</v>
+        <v>1079.73414124064</v>
       </c>
       <c r="BV2">
-        <v>1046.007992293442</v>
+        <v>1042.111477830739</v>
       </c>
       <c r="BW2">
-        <v>1016.594000757669</v>
+        <v>1012.647486827561</v>
       </c>
       <c r="BX2">
-        <v>1001.39832550634</v>
+        <v>997.4011763113591</v>
       </c>
       <c r="BY2">
-        <v>999.3362054118626</v>
+        <v>995.2876280286404</v>
       </c>
       <c r="BZ2">
-        <v>999.0620631172181</v>
+        <v>994.9618308900295</v>
       </c>
       <c r="CA2">
-        <v>982.4269676284094</v>
+        <v>978.2763238704088</v>
       </c>
       <c r="CB2">
-        <v>980.455781652468</v>
+        <v>976.2500150019441</v>
       </c>
       <c r="CC2">
-        <v>983.5277786184157</v>
+        <v>979.2662918949696</v>
       </c>
       <c r="CD2">
-        <v>994.8905807683221</v>
+        <v>990.5725417712317</v>
       </c>
       <c r="CE2">
-        <v>1017.375705084242</v>
+        <v>1013.000167816229</v>
       </c>
       <c r="CF2">
-        <v>1036.440989260175</v>
+        <v>1032.008258268781</v>
       </c>
       <c r="CG2">
-        <v>1081.290985927539</v>
+        <v>1076.795214718335</v>
       </c>
       <c r="CH2">
-        <v>1131.417133997633</v>
+        <v>1126.857748734077</v>
       </c>
       <c r="CI2">
-        <v>1180.780920307861</v>
+        <v>1176.157693580835</v>
       </c>
       <c r="CJ2">
-        <v>1223.020210112689</v>
+        <v>1218.333346102828</v>
       </c>
       <c r="CK2">
-        <v>1231.636401237983</v>
+        <v>1226.889707917357</v>
       </c>
       <c r="CL2">
-        <v>1249.676036024536</v>
+        <v>1244.863300874676</v>
       </c>
       <c r="CM2">
-        <v>1259.881199957273</v>
+        <v>1255.002920914531</v>
       </c>
       <c r="CN2">
-        <v>1266.518791944022</v>
+        <v>1261.575287593672</v>
       </c>
       <c r="CO2">
-        <v>1271.621322471942</v>
+        <v>1266.612866201052</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.4907212641697</v>
+        <v>16.48537993724342</v>
       </c>
       <c r="E3">
-        <v>19.1594276772375</v>
+        <v>19.15588856276863</v>
       </c>
       <c r="F3">
-        <v>32.31319916822227</v>
+        <v>32.31100287195206</v>
       </c>
       <c r="G3">
-        <v>23.60829012859528</v>
+        <v>23.60655368172608</v>
       </c>
       <c r="H3">
-        <v>62.55450901652186</v>
+        <v>62.55259237644246</v>
       </c>
       <c r="I3">
-        <v>35.42809090677193</v>
+        <v>35.4266080237992</v>
       </c>
       <c r="J3">
-        <v>39.56183165867873</v>
+        <v>39.56040732986385</v>
       </c>
       <c r="K3">
-        <v>45.54840493589061</v>
+        <v>45.54701273377307</v>
       </c>
       <c r="L3">
-        <v>36.05406363831817</v>
+        <v>36.05219760501377</v>
       </c>
       <c r="M3">
-        <v>44.48647131321518</v>
+        <v>44.48477195818336</v>
       </c>
       <c r="N3">
-        <v>21.67706918684147</v>
+        <v>21.61883087004233</v>
       </c>
       <c r="O3">
-        <v>24.37234508302133</v>
+        <v>24.31857910209132</v>
       </c>
       <c r="P3">
-        <v>50.31908611007695</v>
+        <v>50.25329065818438</v>
       </c>
       <c r="Q3">
-        <v>50.76090621670165</v>
+        <v>50.69382503739336</v>
       </c>
       <c r="R3">
-        <v>51.21153341768601</v>
+        <v>51.14318108949972</v>
       </c>
       <c r="S3">
-        <v>130.8388285505398</v>
+        <v>130.7435212352095</v>
       </c>
       <c r="T3">
-        <v>131.0331510736648</v>
+        <v>130.9363135840933</v>
       </c>
       <c r="U3">
-        <v>131.3526399660083</v>
+        <v>131.2542657743722</v>
       </c>
       <c r="V3">
-        <v>131.8237248690866</v>
+        <v>131.7238117521813</v>
       </c>
       <c r="W3">
-        <v>132.31370256001</v>
+        <v>132.2122502263641</v>
       </c>
       <c r="X3">
-        <v>121.2487125006156</v>
+        <v>121.1478155400725</v>
       </c>
       <c r="Y3">
-        <v>121.8300106471332</v>
+        <v>121.7275831153449</v>
       </c>
       <c r="Z3">
-        <v>122.3408429889133</v>
+        <v>122.2368904470552</v>
       </c>
       <c r="AA3">
-        <v>122.8947255753061</v>
+        <v>122.7892485067165</v>
       </c>
       <c r="AB3">
-        <v>123.9062361665804</v>
+        <v>123.7992289571712</v>
       </c>
       <c r="AC3">
-        <v>34.92572521009579</v>
+        <v>34.84669890175937</v>
       </c>
       <c r="AD3">
-        <v>36.53715267134353</v>
+        <v>36.45653176670924</v>
       </c>
       <c r="AE3">
-        <v>38.12013784118168</v>
+        <v>38.03791239260138</v>
       </c>
       <c r="AF3">
-        <v>38.37002249932544</v>
+        <v>38.28618390332246</v>
       </c>
       <c r="AG3">
-        <v>38.28658437223635</v>
+        <v>38.20111887702271</v>
       </c>
       <c r="AH3">
-        <v>26.11348972597277</v>
+        <v>26.03162858441701</v>
       </c>
       <c r="AI3">
-        <v>26.27536945153256</v>
+        <v>26.19176717477905</v>
       </c>
       <c r="AJ3">
-        <v>26.3962494638652</v>
+        <v>26.31085366282995</v>
       </c>
       <c r="AK3">
-        <v>26.68720217360286</v>
+        <v>26.59994426740899</v>
       </c>
       <c r="AL3">
-        <v>28.30435688457457</v>
+        <v>28.21515432041273</v>
       </c>
       <c r="AM3">
-        <v>31.24687448614917</v>
+        <v>31.15564098198947</v>
       </c>
       <c r="AN3">
-        <v>34.45545801033358</v>
+        <v>34.36215401238877</v>
       </c>
       <c r="AO3">
-        <v>38.75935134240229</v>
+        <v>38.66389717068211</v>
       </c>
       <c r="AP3">
-        <v>44.09270686181324</v>
+        <v>43.99504061930835</v>
       </c>
       <c r="AQ3">
-        <v>47.14744242473851</v>
+        <v>47.04771391204812</v>
       </c>
       <c r="AR3">
-        <v>48.0262244104691</v>
+        <v>47.92453729165306</v>
       </c>
       <c r="AS3">
-        <v>48.58147364852248</v>
+        <v>48.47789529750027</v>
       </c>
       <c r="AT3">
-        <v>48.81022932164394</v>
+        <v>48.70483968609841</v>
       </c>
       <c r="AU3">
-        <v>48.73889414571129</v>
+        <v>48.63178038159134</v>
       </c>
       <c r="AV3">
-        <v>49.46578073817143</v>
+        <v>49.35393159843112</v>
       </c>
       <c r="AW3">
-        <v>49.55647476217627</v>
+        <v>49.44202486963682</v>
       </c>
       <c r="AX3">
-        <v>62.89877888347401</v>
+        <v>62.78181388152785</v>
       </c>
       <c r="AY3">
-        <v>59.91177745904695</v>
+        <v>59.79340307780486</v>
       </c>
       <c r="AZ3">
-        <v>55.73201572808279</v>
+        <v>55.61235404829592</v>
       </c>
       <c r="BA3">
-        <v>53.95968165227806</v>
+        <v>53.83860428514903</v>
       </c>
       <c r="BB3">
-        <v>52.44050006301756</v>
+        <v>52.31824961893121</v>
       </c>
       <c r="BC3">
-        <v>52.26451600253081</v>
+        <v>52.14051987478872</v>
       </c>
       <c r="BD3">
-        <v>51.57185331599413</v>
+        <v>51.44609530992616</v>
       </c>
       <c r="BE3">
-        <v>50.7834957562553</v>
+        <v>50.65593303188957</v>
       </c>
       <c r="BF3">
-        <v>50.4693092481446</v>
+        <v>50.33984841549508</v>
       </c>
       <c r="BG3">
-        <v>49.01268971062274</v>
+        <v>48.88163758781356</v>
       </c>
       <c r="BH3">
-        <v>49.98596073740588</v>
+        <v>49.85267362901053</v>
       </c>
       <c r="BI3">
-        <v>51.92118232263575</v>
+        <v>51.78556820578853</v>
       </c>
       <c r="BJ3">
-        <v>54.79761001636581</v>
+        <v>54.65958901487823</v>
       </c>
       <c r="BK3">
-        <v>58.32212148093563</v>
+        <v>58.18162948287311</v>
       </c>
       <c r="BL3">
-        <v>60.89018127510514</v>
+        <v>60.74749083466683</v>
       </c>
       <c r="BM3">
-        <v>64.50033165270312</v>
+        <v>64.35503583934266</v>
       </c>
       <c r="BN3">
-        <v>66.91831855049193</v>
+        <v>66.77048649412571</v>
       </c>
       <c r="BO3">
-        <v>68.08190807329787</v>
+        <v>67.93162187280578</v>
       </c>
       <c r="BP3">
-        <v>68.64349035933702</v>
+        <v>68.4908011344737</v>
       </c>
       <c r="BQ3">
-        <v>68.09043686318998</v>
+        <v>67.93552344254115</v>
       </c>
       <c r="BR3">
-        <v>68.36945582379307</v>
+        <v>68.2120638127667</v>
       </c>
       <c r="BS3">
-        <v>68.61720951448027</v>
+        <v>68.45737380255733</v>
       </c>
       <c r="BT3">
-        <v>68.71246853797415</v>
+        <v>68.55023677296357</v>
       </c>
       <c r="BU3">
-        <v>68.18739441163154</v>
+        <v>68.02284589525068</v>
       </c>
       <c r="BV3">
-        <v>65.59147428835701</v>
+        <v>65.42487082173695</v>
       </c>
       <c r="BW3">
-        <v>63.54387285676141</v>
+        <v>63.37498644751282</v>
       </c>
       <c r="BX3">
-        <v>62.45060153676162</v>
+        <v>62.27939032120079</v>
       </c>
       <c r="BY3">
-        <v>62.23873267804952</v>
+        <v>62.06514445741061</v>
       </c>
       <c r="BZ3">
-        <v>62.14672131033208</v>
+        <v>61.97074115350754</v>
       </c>
       <c r="CA3">
-        <v>60.95159923205943</v>
+        <v>60.77337882582801</v>
       </c>
       <c r="CB3">
-        <v>60.7409200706127</v>
+        <v>60.56014968011761</v>
       </c>
       <c r="CC3">
-        <v>60.868592301289</v>
+        <v>60.68523264032837</v>
       </c>
       <c r="CD3">
-        <v>61.55260090640253</v>
+        <v>61.36659723143823</v>
       </c>
       <c r="CE3">
-        <v>62.98305798253858</v>
+        <v>62.79434806849929</v>
       </c>
       <c r="CF3">
-        <v>64.17849886793329</v>
+        <v>63.98718790147537</v>
       </c>
       <c r="CG3">
-        <v>67.10496064765896</v>
+        <v>66.91066426310346</v>
       </c>
       <c r="CH3">
-        <v>70.38550880861662</v>
+        <v>70.18818927256976</v>
       </c>
       <c r="CI3">
-        <v>73.61481877612879</v>
+        <v>73.41446114700635</v>
       </c>
       <c r="CJ3">
-        <v>76.36588247055296</v>
+        <v>76.16250020168715</v>
       </c>
       <c r="CK3">
-        <v>76.85492112375957</v>
+        <v>76.64884506215728</v>
       </c>
       <c r="CL3">
-        <v>77.97697518522897</v>
+        <v>77.76779697555394</v>
       </c>
       <c r="CM3">
-        <v>78.57321851513174</v>
+        <v>78.36097092525588</v>
       </c>
       <c r="CN3">
-        <v>78.93006661488081</v>
+        <v>78.71477060629303</v>
       </c>
       <c r="CO3">
-        <v>79.183967656164</v>
+        <v>78.96564121194649</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474389.70802449</v>
+        <v>804639.2050553659</v>
       </c>
       <c r="E4">
-        <v>26777236.78782429</v>
+        <v>548723.3242650117</v>
       </c>
       <c r="F4">
-        <v>29376223.15571003</v>
+        <v>355073.8984457181</v>
       </c>
       <c r="G4">
-        <v>29467663.53330994</v>
+        <v>291545.9398878629</v>
       </c>
       <c r="H4">
-        <v>26832757.00891154</v>
+        <v>328006.5025128267</v>
       </c>
       <c r="I4">
-        <v>26319388.86987014</v>
+        <v>256108.6506172263</v>
       </c>
       <c r="J4">
-        <v>29027609.61940568</v>
+        <v>249600.0595948292</v>
       </c>
       <c r="K4">
-        <v>32847882.68569755</v>
+        <v>237583.1566489558</v>
       </c>
       <c r="L4">
-        <v>32625214.99901917</v>
+        <v>305969.2535715514</v>
       </c>
       <c r="M4">
-        <v>34705446.69745082</v>
+        <v>280503.061528866</v>
       </c>
       <c r="N4">
-        <v>37558890.90265385</v>
+        <v>306576.0581405597</v>
       </c>
       <c r="O4">
-        <v>34844155.38676182</v>
+        <v>386749.5594112837</v>
       </c>
       <c r="P4">
-        <v>38693980.58993585</v>
+        <v>1801530.329054188</v>
       </c>
       <c r="Q4">
-        <v>40011398.05070379</v>
+        <v>1808597.852628684</v>
       </c>
       <c r="R4">
-        <v>41323635.06779889</v>
+        <v>1812860.879121145</v>
       </c>
       <c r="S4">
-        <v>47204853.10662761</v>
+        <v>5689217.357277946</v>
       </c>
       <c r="T4">
-        <v>48647478.72232445</v>
+        <v>5691608.613121784</v>
       </c>
       <c r="U4">
-        <v>50092319.01233643</v>
+        <v>5695171.818355992</v>
       </c>
       <c r="V4">
-        <v>51537944.26792783</v>
+        <v>5699108.583822033</v>
       </c>
       <c r="W4">
-        <v>52983529.73657158</v>
+        <v>5703040.633327082</v>
       </c>
       <c r="X4">
-        <v>53949254.53549419</v>
+        <v>5374888.169368589</v>
       </c>
       <c r="Y4">
-        <v>55300422.23585627</v>
+        <v>5379875.400106831</v>
       </c>
       <c r="Z4">
-        <v>56649457.79190166</v>
+        <v>5383758.960864661</v>
       </c>
       <c r="AA4">
-        <v>57998225.5530099</v>
+        <v>5387498.581991775</v>
       </c>
       <c r="AB4">
-        <v>59349295.94539548</v>
+        <v>5392277.297044988</v>
       </c>
       <c r="AC4">
-        <v>55550687.04773363</v>
+        <v>897654.9198817867</v>
       </c>
       <c r="AD4">
-        <v>56910119.86282898</v>
+        <v>904451.2418461674</v>
       </c>
       <c r="AE4">
-        <v>58271858.36289862</v>
+        <v>912703.4926970723</v>
       </c>
       <c r="AF4">
-        <v>59633171.43484309</v>
+        <v>921745.5918088916</v>
       </c>
       <c r="AG4">
-        <v>60996637.27936421</v>
+        <v>932509.0391692072</v>
       </c>
       <c r="AH4">
-        <v>61479944.56415162</v>
+        <v>150868.9783683423</v>
       </c>
       <c r="AI4">
-        <v>62884389.88279029</v>
+        <v>172187.626735935</v>
       </c>
       <c r="AJ4">
-        <v>64303106.10110551</v>
+        <v>201942.4464327527</v>
       </c>
       <c r="AK4">
-        <v>65741719.56497829</v>
+        <v>243124.6617538523</v>
       </c>
       <c r="AL4">
-        <v>67206658.40518448</v>
+        <v>298578.4961583769</v>
       </c>
       <c r="AM4">
-        <v>68666393.8739797</v>
+        <v>365844.614574245</v>
       </c>
       <c r="AN4">
-        <v>70137330.19661205</v>
+        <v>439540.0530973302</v>
       </c>
       <c r="AO4">
-        <v>71635486.59479734</v>
+        <v>527759.1127925945</v>
       </c>
       <c r="AP4">
-        <v>73156098.71621628</v>
+        <v>627695.6467452359</v>
       </c>
       <c r="AQ4">
-        <v>74623602.84689103</v>
+        <v>699670.2434188125</v>
       </c>
       <c r="AR4">
-        <v>76021207.9449482</v>
+        <v>742043.9918424489</v>
       </c>
       <c r="AS4">
-        <v>77400363.62153013</v>
+        <v>773660.4427390648</v>
       </c>
       <c r="AT4">
-        <v>78758335.67755866</v>
+        <v>792760.8092025765</v>
       </c>
       <c r="AU4">
-        <v>80093849.24920288</v>
+        <v>798438.0008717187</v>
       </c>
       <c r="AV4">
-        <v>81916342.58060996</v>
+        <v>1237289.780110251</v>
       </c>
       <c r="AW4">
-        <v>83445752.27697657</v>
+        <v>1345377.777379535</v>
       </c>
       <c r="AX4">
-        <v>84999788.33841324</v>
+        <v>1480175.270517842</v>
       </c>
       <c r="AY4">
-        <v>86287243.06400305</v>
+        <v>1407677.708723225</v>
       </c>
       <c r="AZ4">
-        <v>87535647.07441992</v>
+        <v>1313767.133457336</v>
       </c>
       <c r="BA4">
-        <v>88833951.61679022</v>
+        <v>1245326.215671117</v>
       </c>
       <c r="BB4">
-        <v>90174451.49731708</v>
+        <v>1118797.163870912</v>
       </c>
       <c r="BC4">
-        <v>91615704.37676761</v>
+        <v>1079580.730513598</v>
       </c>
       <c r="BD4">
-        <v>93058265.2019026</v>
+        <v>1041969.167460487</v>
       </c>
       <c r="BE4">
-        <v>94510360.60299404</v>
+        <v>1010468.945903504</v>
       </c>
       <c r="BF4">
-        <v>95989102.17500603</v>
+        <v>994277.2102867065</v>
       </c>
       <c r="BG4">
-        <v>97478548.27498265</v>
+        <v>911996.6945050539</v>
       </c>
       <c r="BH4">
-        <v>99091153.32168184</v>
+        <v>929012.1876663502</v>
       </c>
       <c r="BI4">
-        <v>100730747.786941</v>
+        <v>961220.8135492017</v>
       </c>
       <c r="BJ4">
-        <v>102394047.4351764</v>
+        <v>1006686.222834959</v>
       </c>
       <c r="BK4">
-        <v>104076348.8319476</v>
+        <v>1062819.259188419</v>
       </c>
       <c r="BL4">
-        <v>105749612.1291954</v>
+        <v>1063194.262851791</v>
       </c>
       <c r="BM4">
-        <v>107491211.8254269</v>
+        <v>1124871.042273574</v>
       </c>
       <c r="BN4">
-        <v>109206902.7608776</v>
+        <v>1173161.728744209</v>
       </c>
       <c r="BO4">
-        <v>110893129.3420803</v>
+        <v>1205994.011840343</v>
       </c>
       <c r="BP4">
-        <v>112562318.0798489</v>
+        <v>1229635.212015672</v>
       </c>
       <c r="BQ4">
-        <v>114280021.8717398</v>
+        <v>1203738.701838366</v>
       </c>
       <c r="BR4">
-        <v>116039311.7942961</v>
+        <v>1216565.403806582</v>
       </c>
       <c r="BS4">
-        <v>117789838.4122633</v>
+        <v>1224074.295360831</v>
       </c>
       <c r="BT4">
-        <v>119527376.8190697</v>
+        <v>1223971.940356318</v>
       </c>
       <c r="BU4">
-        <v>121240552.4131919</v>
+        <v>1210287.384748435</v>
       </c>
       <c r="BV4">
-        <v>122946613.786925</v>
+        <v>1133946.08153552</v>
       </c>
       <c r="BW4">
-        <v>124686654.3725947</v>
+        <v>1091815.487368502</v>
       </c>
       <c r="BX4">
-        <v>126445352.1937883</v>
+        <v>1058835.384802549</v>
       </c>
       <c r="BY4">
-        <v>128225511.566395</v>
+        <v>1036688.000889484</v>
       </c>
       <c r="BZ4">
-        <v>130012482.5109386</v>
+        <v>1017939.06019074</v>
       </c>
       <c r="CA4">
-        <v>131833192.8259231</v>
+        <v>954355.7862108706</v>
       </c>
       <c r="CB4">
-        <v>133710400.7631957</v>
+        <v>938489.0124144518</v>
       </c>
       <c r="CC4">
-        <v>135600369.1995881</v>
+        <v>929601.949079862</v>
       </c>
       <c r="CD4">
-        <v>137507959.0762994</v>
+        <v>930351.3488015354</v>
       </c>
       <c r="CE4">
-        <v>139435446.3858931</v>
+        <v>941965.1663468548</v>
       </c>
       <c r="CF4">
-        <v>141413866.1730965</v>
+        <v>913403.3500767406</v>
       </c>
       <c r="CG4">
-        <v>143466339.952836</v>
+        <v>944376.6032661406</v>
       </c>
       <c r="CH4">
-        <v>145529469.5398485</v>
+        <v>981437.8623258495</v>
       </c>
       <c r="CI4">
-        <v>147595179.4992918</v>
+        <v>1020354.627749699</v>
       </c>
       <c r="CJ4">
-        <v>149653579.9525046</v>
+        <v>1055891.942685894</v>
       </c>
       <c r="CK4">
-        <v>151700479.1771709</v>
+        <v>1013997.38214646</v>
       </c>
       <c r="CL4">
-        <v>153809128.6565178</v>
+        <v>1032381.711033423</v>
       </c>
       <c r="CM4">
-        <v>155905511.5449444</v>
+        <v>1044412.968818649</v>
       </c>
       <c r="CN4">
-        <v>157994650.8500522</v>
+        <v>1052575.503680638</v>
       </c>
       <c r="CO4">
-        <v>160078270.89132</v>
+        <v>1057647.212430665</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694767.465953461</v>
+        <v>1694765.500019309</v>
       </c>
       <c r="E5">
-        <v>995925.2326633425</v>
+        <v>995923.9418223609</v>
       </c>
       <c r="F5">
-        <v>499080.9657124638</v>
+        <v>499080.1759011137</v>
       </c>
       <c r="G5">
-        <v>306563.8622812042</v>
+        <v>306563.2458506891</v>
       </c>
       <c r="H5">
-        <v>287215.331605756</v>
+        <v>287214.6565754326</v>
       </c>
       <c r="I5">
-        <v>203379.552692952</v>
+        <v>203379.0319039942</v>
       </c>
       <c r="J5">
-        <v>165862.7583882738</v>
+        <v>165862.260963542</v>
       </c>
       <c r="K5">
-        <v>213791.1815975346</v>
+        <v>213790.6907842293</v>
       </c>
       <c r="L5">
-        <v>388717.2567983895</v>
+        <v>388716.5891332898</v>
       </c>
       <c r="M5">
-        <v>338415.8440162192</v>
+        <v>338415.2376235322</v>
       </c>
       <c r="N5">
-        <v>425215.052123079</v>
+        <v>425186.3321593324</v>
       </c>
       <c r="O5">
-        <v>533244.18515805</v>
+        <v>533217.8721845702</v>
       </c>
       <c r="P5">
-        <v>3529952.373119299</v>
+        <v>3529921.410042091</v>
       </c>
       <c r="Q5">
-        <v>3532448.806236533</v>
+        <v>3532417.325437126</v>
       </c>
       <c r="R5">
-        <v>3535503.19316757</v>
+        <v>3535471.199540295</v>
       </c>
       <c r="S5">
-        <v>11253327.4758357</v>
+        <v>11253285.54521802</v>
       </c>
       <c r="T5">
-        <v>11257617.01332154</v>
+        <v>11257574.47100712</v>
       </c>
       <c r="U5">
-        <v>11262514.77191692</v>
+        <v>11262471.61563974</v>
       </c>
       <c r="V5">
-        <v>11267980.56592902</v>
+        <v>11267936.7948878</v>
       </c>
       <c r="W5">
-        <v>11273951.29538868</v>
+        <v>11273906.90943887</v>
       </c>
       <c r="X5">
-        <v>10772458.79114144</v>
+        <v>10772414.51871099</v>
       </c>
       <c r="Y5">
-        <v>10779248.03925662</v>
+        <v>10779203.12676499</v>
       </c>
       <c r="Z5">
-        <v>10786417.3221423</v>
+        <v>10786371.77143875</v>
       </c>
       <c r="AA5">
-        <v>10794075.88178458</v>
+        <v>10794029.69298962</v>
       </c>
       <c r="AB5">
-        <v>10802505.07362271</v>
+        <v>10802458.24477617</v>
       </c>
       <c r="AC5">
-        <v>1801291.414320705</v>
+        <v>1801254.759697539</v>
       </c>
       <c r="AD5">
-        <v>1813132.399618169</v>
+        <v>1813095.067817081</v>
       </c>
       <c r="AE5">
-        <v>1828242.329866065</v>
+        <v>1828204.317212147</v>
       </c>
       <c r="AF5">
-        <v>1848091.219461565</v>
+        <v>1848052.522558907</v>
       </c>
       <c r="AG5">
-        <v>1874383.921236143</v>
+        <v>1874344.534818555</v>
       </c>
       <c r="AH5">
-        <v>204412.4900254859</v>
+        <v>204374.3400486798</v>
       </c>
       <c r="AI5">
-        <v>248831.8659789536</v>
+        <v>248792.9832535175</v>
       </c>
       <c r="AJ5">
-        <v>304440.2092140813</v>
+        <v>304400.5749421639</v>
       </c>
       <c r="AK5">
-        <v>371926.6506930591</v>
+        <v>371886.2405280492</v>
       </c>
       <c r="AL5">
-        <v>451156.7717100643</v>
+        <v>451115.5566156618</v>
       </c>
       <c r="AM5">
-        <v>541003.5536704395</v>
+        <v>540961.4961567003</v>
       </c>
       <c r="AN5">
-        <v>639238.3465726624</v>
+        <v>639195.4324622758</v>
       </c>
       <c r="AO5">
-        <v>742523.3263725679</v>
+        <v>742479.5282097947</v>
       </c>
       <c r="AP5">
-        <v>846484.9597202903</v>
+        <v>846440.2564803202</v>
       </c>
       <c r="AQ5">
-        <v>945925.1848383428</v>
+        <v>945879.6276757841</v>
       </c>
       <c r="AR5">
-        <v>1035233.980505498</v>
+        <v>1035187.589359238</v>
       </c>
       <c r="AS5">
-        <v>1108878.650335801</v>
+        <v>1108831.44948511</v>
       </c>
       <c r="AT5">
-        <v>1162016.332073845</v>
+        <v>1161968.350506955</v>
       </c>
       <c r="AU5">
-        <v>1191096.868351626</v>
+        <v>1191048.13782815</v>
       </c>
       <c r="AV5">
-        <v>2343922.16199153</v>
+        <v>2343871.558658456</v>
       </c>
       <c r="AW5">
-        <v>2646887.323551402</v>
+        <v>2646835.624409389</v>
       </c>
       <c r="AX5">
-        <v>2601332.63720229</v>
+        <v>2601279.903456337</v>
       </c>
       <c r="AY5">
-        <v>2536567.01260543</v>
+        <v>2536513.620622267</v>
       </c>
       <c r="AZ5">
-        <v>2458005.184282721</v>
+        <v>2457951.176699388</v>
       </c>
       <c r="BA5">
-        <v>2371864.657751284</v>
+        <v>2371809.991789562</v>
       </c>
       <c r="BB5">
-        <v>2117603.884540213</v>
+        <v>2117548.629441518</v>
       </c>
       <c r="BC5">
-        <v>2035550.663912566</v>
+        <v>2035494.60977754</v>
       </c>
       <c r="BD5">
-        <v>1964305.566742117</v>
+        <v>1964248.707069941</v>
       </c>
       <c r="BE5">
-        <v>1908452.796704301</v>
+        <v>1908395.115549221</v>
       </c>
       <c r="BF5">
-        <v>1871153.583061576</v>
+        <v>1871095.047059432</v>
       </c>
       <c r="BG5">
-        <v>1689134.793829844</v>
+        <v>1689075.50539843</v>
       </c>
       <c r="BH5">
-        <v>1691713.105094773</v>
+        <v>1691652.829119179</v>
       </c>
       <c r="BI5">
-        <v>1712403.22183228</v>
+        <v>1712341.925468352</v>
       </c>
       <c r="BJ5">
-        <v>1748410.031148982</v>
+        <v>1748347.685928397</v>
       </c>
       <c r="BK5">
-        <v>1796339.09628426</v>
+        <v>1796275.679387742</v>
       </c>
       <c r="BL5">
-        <v>1728710.897873082</v>
+        <v>1728646.507207921</v>
       </c>
       <c r="BM5">
-        <v>1789855.386804349</v>
+        <v>1789789.872622165</v>
       </c>
       <c r="BN5">
-        <v>1852591.855212244</v>
+        <v>1852525.240778111</v>
       </c>
       <c r="BO5">
-        <v>1913918.115778539</v>
+        <v>1913850.429029914</v>
       </c>
       <c r="BP5">
-        <v>1971128.358611613</v>
+        <v>1971059.617246651</v>
       </c>
       <c r="BQ5">
-        <v>1935446.919014576</v>
+        <v>1935377.18952197</v>
       </c>
       <c r="BR5">
-        <v>1977736.144506971</v>
+        <v>1977665.333512838</v>
       </c>
       <c r="BS5">
-        <v>2010074.099147128</v>
+        <v>2010002.21939749</v>
       </c>
       <c r="BT5">
-        <v>2031471.231392909</v>
+        <v>2031398.300048313</v>
       </c>
       <c r="BU5">
-        <v>2041493.502938196</v>
+        <v>2041419.547921177</v>
       </c>
       <c r="BV5">
-        <v>1955978.477984953</v>
+        <v>1955903.588918315</v>
       </c>
       <c r="BW5">
-        <v>1944360.931963155</v>
+        <v>1944285.024792138</v>
       </c>
       <c r="BX5">
-        <v>1923711.751806685</v>
+        <v>1923634.813189436</v>
       </c>
       <c r="BY5">
-        <v>1896001.309222796</v>
+        <v>1895923.32212873</v>
       </c>
       <c r="BZ5">
-        <v>1863671.130746993</v>
+        <v>1863592.090538655</v>
       </c>
       <c r="CA5">
-        <v>1740952.331437299</v>
+        <v>1740872.285278122</v>
       </c>
       <c r="CB5">
-        <v>1707744.740884074</v>
+        <v>1707663.575576252</v>
       </c>
       <c r="CC5">
-        <v>1678197.044749648</v>
+        <v>1678114.746642368</v>
       </c>
       <c r="CD5">
-        <v>1654589.550360223</v>
+        <v>1654506.100357424</v>
       </c>
       <c r="CE5">
-        <v>1638612.515258661</v>
+        <v>1638527.891577693</v>
       </c>
       <c r="CF5">
-        <v>1531431.379360262</v>
+        <v>1531345.607897239</v>
       </c>
       <c r="CG5">
-        <v>1532990.651523755</v>
+        <v>1532903.592032054</v>
       </c>
       <c r="CH5">
-        <v>1543059.981641498</v>
+        <v>1542971.620552969</v>
       </c>
       <c r="CI5">
-        <v>1560692.243482209</v>
+        <v>1560602.575033618</v>
       </c>
       <c r="CJ5">
-        <v>1584512.407098367</v>
+        <v>1584421.435270553</v>
       </c>
       <c r="CK5">
-        <v>1476414.75413435</v>
+        <v>1476322.580884</v>
       </c>
       <c r="CL5">
-        <v>1507486.937954524</v>
+        <v>1507393.412089416</v>
       </c>
       <c r="CM5">
-        <v>1539434.066008659</v>
+        <v>1539339.19854678</v>
       </c>
       <c r="CN5">
-        <v>1570507.987914195</v>
+        <v>1570411.786038188</v>
       </c>
       <c r="CO5">
-        <v>1599143.204755623</v>
+        <v>1599045.674785746</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285148604052</v>
+        <v>261.9472600640528</v>
       </c>
       <c r="E2">
-        <v>564.6463356348313</v>
+        <v>564.5112483098653</v>
       </c>
       <c r="F2">
-        <v>1064.88207032879</v>
+        <v>1064.713580832773</v>
       </c>
       <c r="G2">
-        <v>1435.496915867429</v>
+        <v>1435.302022441202</v>
       </c>
       <c r="H2">
-        <v>2384.506355232458</v>
+        <v>2384.282318689235</v>
       </c>
       <c r="I2">
-        <v>2929.803808215892</v>
+        <v>2929.557225609062</v>
       </c>
       <c r="J2">
-        <v>3538.323600895452</v>
+        <v>3538.055363736339</v>
       </c>
       <c r="K2">
-        <v>4238.258235942281</v>
+        <v>4237.968829622355</v>
       </c>
       <c r="L2">
-        <v>4796.162806070372</v>
+        <v>4795.845021741201</v>
       </c>
       <c r="M2">
-        <v>5480.706260173445</v>
+        <v>5480.36263282998</v>
       </c>
       <c r="N2">
-        <v>5827.857085688798</v>
+        <v>5825.808468269634</v>
       </c>
       <c r="O2">
-        <v>6213.00458370411</v>
+        <v>6209.400728397502</v>
       </c>
       <c r="P2">
-        <v>6985.751833197596</v>
+        <v>6980.381601273356</v>
       </c>
       <c r="Q2">
-        <v>7765.62556183799</v>
+        <v>7758.461070790396</v>
       </c>
       <c r="R2">
-        <v>8552.754566523168</v>
+        <v>8543.768155331352</v>
       </c>
       <c r="S2">
-        <v>10526.51416505776</v>
+        <v>10515.28638148508</v>
       </c>
       <c r="T2">
-        <v>12503.84742445532</v>
+        <v>12490.34557212561</v>
       </c>
       <c r="U2">
-        <v>14486.61892103825</v>
+        <v>14470.81020433605</v>
       </c>
       <c r="V2">
-        <v>16477.08612216375</v>
+        <v>16458.93771163884</v>
       </c>
       <c r="W2">
-        <v>18475.53027143891</v>
+        <v>18455.00933318336</v>
       </c>
       <c r="X2">
-        <v>20309.84820587501</v>
+        <v>20286.95447549651</v>
       </c>
       <c r="Y2">
-        <v>22153.47726125445</v>
+        <v>22128.17874970573</v>
       </c>
       <c r="Z2">
-        <v>24005.36727496557</v>
+        <v>23977.63207769134</v>
       </c>
       <c r="AA2">
-        <v>25866.15907974075</v>
+        <v>25835.95529949772</v>
       </c>
       <c r="AB2">
-        <v>27742.66741388452</v>
+        <v>27709.96306801069</v>
       </c>
       <c r="AC2">
-        <v>28294.57664188839</v>
+        <v>28259.78882524174</v>
       </c>
       <c r="AD2">
-        <v>28871.15176010344</v>
+        <v>28834.24767053889</v>
       </c>
       <c r="AE2">
-        <v>29471.9700418073</v>
+        <v>29432.91672586709</v>
       </c>
       <c r="AF2">
-        <v>30077.18192981834</v>
+        <v>30035.94630329657</v>
       </c>
       <c r="AG2">
-        <v>30681.82490724434</v>
+        <v>30638.37367670823</v>
       </c>
       <c r="AH2">
-        <v>31105.84363804039</v>
+        <v>31060.22317899247</v>
       </c>
       <c r="AI2">
-        <v>31532.97385201921</v>
+        <v>31485.1492212366</v>
       </c>
       <c r="AJ2">
-        <v>31962.61051360116</v>
+        <v>31912.54597126568</v>
       </c>
       <c r="AK2">
-        <v>32397.29375039528</v>
+        <v>32344.95251399587</v>
       </c>
       <c r="AL2">
-        <v>32856.7805510852</v>
+        <v>32802.12458293604</v>
       </c>
       <c r="AM2">
-        <v>33360.81958335878</v>
+        <v>33303.80969695441</v>
       </c>
       <c r="AN2">
-        <v>33913.37668234009</v>
+        <v>33853.97308969918</v>
       </c>
       <c r="AO2">
-        <v>34530.77192953223</v>
+        <v>34468.93363153014</v>
       </c>
       <c r="AP2">
-        <v>35228.34321852454</v>
+        <v>35164.02827533264</v>
       </c>
       <c r="AQ2">
-        <v>35972.14026561655</v>
+        <v>35905.30901417151</v>
       </c>
       <c r="AR2">
-        <v>36729.76563109225</v>
+        <v>36660.37924488024</v>
       </c>
       <c r="AS2">
-        <v>37496.39520811212</v>
+        <v>37424.4158851918</v>
       </c>
       <c r="AT2">
-        <v>38267.15998014835</v>
+        <v>38192.55113445189</v>
       </c>
       <c r="AU2">
-        <v>39037.58376756478</v>
+        <v>38960.31013860155</v>
       </c>
       <c r="AV2">
-        <v>39819.58580390472</v>
+        <v>39739.5663142659</v>
       </c>
       <c r="AW2">
-        <v>40603.72431559789</v>
+        <v>40520.9093810313</v>
       </c>
       <c r="AX2">
-        <v>41587.29758398521</v>
+        <v>41501.63893899975</v>
       </c>
       <c r="AY2">
-        <v>42527.1306570805</v>
+        <v>42438.59684048261</v>
       </c>
       <c r="AZ2">
-        <v>43405.44794136359</v>
+        <v>43314.00934782792</v>
       </c>
       <c r="BA2">
-        <v>44258.11712385748</v>
+        <v>44163.74219723378</v>
       </c>
       <c r="BB2">
-        <v>45088.9938493523</v>
+        <v>44991.65339536441</v>
       </c>
       <c r="BC2">
-        <v>45918.08629872116</v>
+        <v>45817.74241292285</v>
       </c>
       <c r="BD2">
-        <v>46737.70118711423</v>
+        <v>46634.3157185211</v>
       </c>
       <c r="BE2">
-        <v>47546.41667623683</v>
+        <v>47439.95082215829</v>
       </c>
       <c r="BF2">
-        <v>48351.30317400664</v>
+        <v>48241.71671170378</v>
       </c>
       <c r="BG2">
-        <v>49135.41491376581</v>
+        <v>49022.67157925863</v>
       </c>
       <c r="BH2">
-        <v>49934.94944805686</v>
+        <v>49819.00318622762</v>
       </c>
       <c r="BI2">
-        <v>50764.24008892326</v>
+        <v>50645.04344532066</v>
       </c>
       <c r="BJ2">
-        <v>51637.3100465018</v>
+        <v>51514.81435205101</v>
       </c>
       <c r="BK2">
-        <v>52563.81632066963</v>
+        <v>52437.97193142539</v>
       </c>
       <c r="BL2">
-        <v>53529.56680010339</v>
+        <v>53400.32741025716</v>
       </c>
       <c r="BM2">
-        <v>54550.08118265722</v>
+        <v>54417.39429604196</v>
       </c>
       <c r="BN2">
-        <v>55607.59735231718</v>
+        <v>55471.4115232818</v>
       </c>
       <c r="BO2">
-        <v>56683.42523692913</v>
+        <v>56543.69026756018</v>
       </c>
       <c r="BP2">
-        <v>57768.5941355145</v>
+        <v>57625.26060495171</v>
       </c>
       <c r="BQ2">
-        <v>58846.57480528026</v>
+        <v>58699.59467562589</v>
       </c>
       <c r="BR2">
-        <v>59929.75705990115</v>
+        <v>59779.07842339089</v>
       </c>
       <c r="BS2">
-        <v>61017.67229395763</v>
+        <v>60863.24377347192</v>
       </c>
       <c r="BT2">
-        <v>62108.04508597454</v>
+        <v>61949.81602896668</v>
       </c>
       <c r="BU2">
-        <v>63191.62921064374</v>
+        <v>63029.55017020732</v>
       </c>
       <c r="BV2">
-        <v>64237.63720293719</v>
+        <v>64071.66164803806</v>
       </c>
       <c r="BW2">
-        <v>65254.23120369486</v>
+        <v>65084.30913486562</v>
       </c>
       <c r="BX2">
-        <v>66255.62952920119</v>
+        <v>66081.71031117698</v>
       </c>
       <c r="BY2">
-        <v>67254.96573461306</v>
+        <v>67076.99793920563</v>
       </c>
       <c r="BZ2">
-        <v>68254.02779773028</v>
+        <v>68071.95977009565</v>
       </c>
       <c r="CA2">
-        <v>69236.45476535869</v>
+        <v>69050.23609396606</v>
       </c>
       <c r="CB2">
-        <v>70216.91054701115</v>
+        <v>70026.48610896801</v>
       </c>
       <c r="CC2">
-        <v>71200.43832562957</v>
+        <v>71005.75240086297</v>
       </c>
       <c r="CD2">
-        <v>72195.32890639789</v>
+        <v>71996.32494263421</v>
       </c>
       <c r="CE2">
-        <v>73212.70461148213</v>
+        <v>73009.32511045043</v>
       </c>
       <c r="CF2">
-        <v>74249.1456007423</v>
+        <v>74041.33336871921</v>
       </c>
       <c r="CG2">
-        <v>75330.43658666984</v>
+        <v>75118.12858343754</v>
       </c>
       <c r="CH2">
-        <v>76461.85372066747</v>
+        <v>76244.98633217163</v>
       </c>
       <c r="CI2">
-        <v>77642.63464097533</v>
+        <v>77421.14402575247</v>
       </c>
       <c r="CJ2">
-        <v>78865.65485108802</v>
+        <v>78639.47737185529</v>
       </c>
       <c r="CK2">
-        <v>80097.291252326</v>
+        <v>79866.36707977265</v>
       </c>
       <c r="CL2">
-        <v>81346.96728835054</v>
+        <v>81111.23038064732</v>
       </c>
       <c r="CM2">
-        <v>82606.84848830782</v>
+        <v>82366.23330156185</v>
       </c>
       <c r="CN2">
-        <v>83873.36728025184</v>
+        <v>83627.80858915552</v>
       </c>
       <c r="CO2">
-        <v>85144.98860272378</v>
+        <v>84894.42145535658</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.4907212641697</v>
+        <v>16.48537993724342</v>
       </c>
       <c r="E3">
-        <v>35.6501489414072</v>
+        <v>35.64126850001205</v>
       </c>
       <c r="F3">
-        <v>67.96334810962946</v>
+        <v>67.95227137196412</v>
       </c>
       <c r="G3">
-        <v>91.57163823822474</v>
+        <v>91.55882505369019</v>
       </c>
       <c r="H3">
-        <v>154.1261472547466</v>
+        <v>154.1114174301326</v>
       </c>
       <c r="I3">
-        <v>189.5542381615185</v>
+        <v>189.5380254539318</v>
       </c>
       <c r="J3">
-        <v>229.1160698201973</v>
+        <v>229.0984327837957</v>
       </c>
       <c r="K3">
-        <v>274.6644747560879</v>
+        <v>274.6454455175687</v>
       </c>
       <c r="L3">
-        <v>310.718538394406</v>
+        <v>310.6976431225825</v>
       </c>
       <c r="M3">
-        <v>355.2050097076212</v>
+        <v>355.1824150807658</v>
       </c>
       <c r="N3">
-        <v>376.8820788944627</v>
+        <v>376.8012459508082</v>
       </c>
       <c r="O3">
-        <v>401.2544239774841</v>
+        <v>401.1198250528995</v>
       </c>
       <c r="P3">
-        <v>451.573510087561</v>
+        <v>451.3731157110839</v>
       </c>
       <c r="Q3">
-        <v>502.3344163042627</v>
+        <v>502.0669407484772</v>
       </c>
       <c r="R3">
-        <v>553.5459497219487</v>
+        <v>553.210121837977</v>
       </c>
       <c r="S3">
-        <v>684.3847782724885</v>
+        <v>683.9536430731865</v>
       </c>
       <c r="T3">
-        <v>815.4179293461532</v>
+        <v>814.8899566572799</v>
       </c>
       <c r="U3">
-        <v>946.7705693121615</v>
+        <v>946.144222431652</v>
       </c>
       <c r="V3">
-        <v>1078.594294181248</v>
+        <v>1077.868034183833</v>
       </c>
       <c r="W3">
-        <v>1210.907996741258</v>
+        <v>1210.080284410197</v>
       </c>
       <c r="X3">
-        <v>1332.156709241873</v>
+        <v>1331.22809995027</v>
       </c>
       <c r="Y3">
-        <v>1453.986719889007</v>
+        <v>1452.955683065615</v>
       </c>
       <c r="Z3">
-        <v>1576.32756287792</v>
+        <v>1575.19257351267</v>
       </c>
       <c r="AA3">
-        <v>1699.222288453226</v>
+        <v>1697.981822019387</v>
       </c>
       <c r="AB3">
-        <v>1823.128524619806</v>
+        <v>1821.781050976558</v>
       </c>
       <c r="AC3">
-        <v>1858.054249829902</v>
+        <v>1856.627749878317</v>
       </c>
       <c r="AD3">
-        <v>1894.591402501246</v>
+        <v>1893.084281645027</v>
       </c>
       <c r="AE3">
-        <v>1932.711540342427</v>
+        <v>1931.122194037628</v>
       </c>
       <c r="AF3">
-        <v>1971.081562841753</v>
+        <v>1969.40837794095</v>
       </c>
       <c r="AG3">
-        <v>2009.368147213989</v>
+        <v>2007.609496817973</v>
       </c>
       <c r="AH3">
-        <v>2035.481636939962</v>
+        <v>2033.64112540239</v>
       </c>
       <c r="AI3">
-        <v>2061.757006391495</v>
+        <v>2059.832892577169</v>
       </c>
       <c r="AJ3">
-        <v>2088.15325585536</v>
+        <v>2086.143746239999</v>
       </c>
       <c r="AK3">
-        <v>2114.840458028963</v>
+        <v>2112.743690507408</v>
       </c>
       <c r="AL3">
-        <v>2143.144814913538</v>
+        <v>2140.95884482782</v>
       </c>
       <c r="AM3">
-        <v>2174.391689399687</v>
+        <v>2172.11448580981</v>
       </c>
       <c r="AN3">
-        <v>2208.84714741002</v>
+        <v>2206.476639822199</v>
       </c>
       <c r="AO3">
-        <v>2247.606498752422</v>
+        <v>2245.140536992881</v>
       </c>
       <c r="AP3">
-        <v>2291.699205614236</v>
+        <v>2289.135577612189</v>
       </c>
       <c r="AQ3">
-        <v>2338.846648038974</v>
+        <v>2336.183291524237</v>
       </c>
       <c r="AR3">
-        <v>2386.872872449444</v>
+        <v>2384.10782881589</v>
       </c>
       <c r="AS3">
-        <v>2435.454346097966</v>
+        <v>2432.58572411339</v>
       </c>
       <c r="AT3">
-        <v>2484.26457541961</v>
+        <v>2481.290563799489</v>
       </c>
       <c r="AU3">
-        <v>2533.003469565321</v>
+        <v>2529.92234418108</v>
       </c>
       <c r="AV3">
-        <v>2582.469250303493</v>
+        <v>2579.276275779511</v>
       </c>
       <c r="AW3">
-        <v>2632.025725065669</v>
+        <v>2628.718300649148</v>
       </c>
       <c r="AX3">
-        <v>2694.924503949142</v>
+        <v>2691.500114530676</v>
       </c>
       <c r="AY3">
-        <v>2754.836281408189</v>
+        <v>2751.293517608481</v>
       </c>
       <c r="AZ3">
-        <v>2810.568297136272</v>
+        <v>2806.905871656777</v>
       </c>
       <c r="BA3">
-        <v>2864.52797878855</v>
+        <v>2860.744475941925</v>
       </c>
       <c r="BB3">
-        <v>2916.968478851568</v>
+        <v>2913.062725560857</v>
       </c>
       <c r="BC3">
-        <v>2969.232994854099</v>
+        <v>2965.203245435645</v>
       </c>
       <c r="BD3">
-        <v>3020.804848170093</v>
+        <v>3016.649340745571</v>
       </c>
       <c r="BE3">
-        <v>3071.588343926348</v>
+        <v>3067.305273777461</v>
       </c>
       <c r="BF3">
-        <v>3122.057653174493</v>
+        <v>3117.645122192956</v>
       </c>
       <c r="BG3">
-        <v>3171.070342885116</v>
+        <v>3166.52675978077</v>
       </c>
       <c r="BH3">
-        <v>3221.056303622522</v>
+        <v>3216.37943340978</v>
       </c>
       <c r="BI3">
-        <v>3272.977485945158</v>
+        <v>3268.165001615569</v>
       </c>
       <c r="BJ3">
-        <v>3327.775095961524</v>
+        <v>3322.824590630447</v>
       </c>
       <c r="BK3">
-        <v>3386.097217442459</v>
+        <v>3381.00622011332</v>
       </c>
       <c r="BL3">
-        <v>3446.987398717564</v>
+        <v>3441.753710947987</v>
       </c>
       <c r="BM3">
-        <v>3511.487730370267</v>
+        <v>3506.108746787329</v>
       </c>
       <c r="BN3">
-        <v>3578.40604892076</v>
+        <v>3572.879233281455</v>
       </c>
       <c r="BO3">
-        <v>3646.487956994057</v>
+        <v>3640.810855154261</v>
       </c>
       <c r="BP3">
-        <v>3715.131447353394</v>
+        <v>3709.301656288735</v>
       </c>
       <c r="BQ3">
-        <v>3783.221884216584</v>
+        <v>3777.237179731276</v>
       </c>
       <c r="BR3">
-        <v>3851.591340040377</v>
+        <v>3845.449243544042</v>
       </c>
       <c r="BS3">
-        <v>3920.208549554858</v>
+        <v>3913.9066173466</v>
       </c>
       <c r="BT3">
-        <v>3988.921018092832</v>
+        <v>3982.456854119564</v>
       </c>
       <c r="BU3">
-        <v>4057.108412504463</v>
+        <v>4050.479700014814</v>
       </c>
       <c r="BV3">
-        <v>4122.699886792821</v>
+        <v>4115.904570836551</v>
       </c>
       <c r="BW3">
-        <v>4186.243759649582</v>
+        <v>4179.279557284064</v>
       </c>
       <c r="BX3">
-        <v>4248.694361186343</v>
+        <v>4241.558947605265</v>
       </c>
       <c r="BY3">
-        <v>4310.933093864393</v>
+        <v>4303.624092062675</v>
       </c>
       <c r="BZ3">
-        <v>4373.079815174726</v>
+        <v>4365.594833216182</v>
       </c>
       <c r="CA3">
-        <v>4434.031414406785</v>
+        <v>4426.368212042011</v>
       </c>
       <c r="CB3">
-        <v>4494.772334477398</v>
+        <v>4486.928361722128</v>
       </c>
       <c r="CC3">
-        <v>4555.640926778687</v>
+        <v>4547.613594362457</v>
       </c>
       <c r="CD3">
-        <v>4617.193527685089</v>
+        <v>4608.980191593895</v>
       </c>
       <c r="CE3">
-        <v>4680.176585667627</v>
+        <v>4671.774539662394</v>
       </c>
       <c r="CF3">
-        <v>4744.35508453556</v>
+        <v>4735.761727563869</v>
       </c>
       <c r="CG3">
-        <v>4811.460045183219</v>
+        <v>4802.672391826973</v>
       </c>
       <c r="CH3">
-        <v>4881.845553991836</v>
+        <v>4872.860581099542</v>
       </c>
       <c r="CI3">
-        <v>4955.460372767965</v>
+        <v>4946.275042246549</v>
       </c>
       <c r="CJ3">
-        <v>5031.826255238518</v>
+        <v>5022.437542448236</v>
       </c>
       <c r="CK3">
-        <v>5108.681176362277</v>
+        <v>5099.086387510393</v>
       </c>
       <c r="CL3">
-        <v>5186.658151547506</v>
+        <v>5176.854184485947</v>
       </c>
       <c r="CM3">
-        <v>5265.231370062638</v>
+        <v>5255.215155411203</v>
       </c>
       <c r="CN3">
-        <v>5344.161436677519</v>
+        <v>5333.929926017497</v>
       </c>
       <c r="CO3">
-        <v>5423.345404333683</v>
+        <v>5412.895567229443</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474389.70802449</v>
+        <v>804639.2050553659</v>
       </c>
       <c r="E4">
-        <v>53251626.49584877</v>
+        <v>1353362.529320378</v>
       </c>
       <c r="F4">
-        <v>82627849.65155882</v>
+        <v>1708436.427766096</v>
       </c>
       <c r="G4">
-        <v>112095513.1848688</v>
+        <v>1999982.367653959</v>
       </c>
       <c r="H4">
-        <v>138928270.1937803</v>
+        <v>2327988.870166786</v>
       </c>
       <c r="I4">
-        <v>165247659.0636504</v>
+        <v>2584097.520784012</v>
       </c>
       <c r="J4">
-        <v>194275268.6830561</v>
+        <v>2833697.580378841</v>
       </c>
       <c r="K4">
-        <v>227123151.3687537</v>
+        <v>3071280.737027797</v>
       </c>
       <c r="L4">
-        <v>259748366.3677728</v>
+        <v>3377249.990599348</v>
       </c>
       <c r="M4">
-        <v>294453813.0652237</v>
+        <v>3657753.052128214</v>
       </c>
       <c r="N4">
-        <v>332012703.9678776</v>
+        <v>3964329.110268774</v>
       </c>
       <c r="O4">
-        <v>366856859.3546394</v>
+        <v>4351078.669680058</v>
       </c>
       <c r="P4">
-        <v>405550839.9445753</v>
+        <v>6152608.998734247</v>
       </c>
       <c r="Q4">
-        <v>445562237.995279</v>
+        <v>7961206.851362932</v>
       </c>
       <c r="R4">
-        <v>486885873.0630779</v>
+        <v>9774067.730484076</v>
       </c>
       <c r="S4">
-        <v>534090726.1697055</v>
+        <v>15463285.08776202</v>
       </c>
       <c r="T4">
-        <v>582738204.89203</v>
+        <v>21154893.70088381</v>
       </c>
       <c r="U4">
-        <v>632830523.9043665</v>
+        <v>26850065.5192398</v>
       </c>
       <c r="V4">
-        <v>684368468.1722944</v>
+        <v>32549174.10306183</v>
       </c>
       <c r="W4">
-        <v>737351997.9088659</v>
+        <v>38252214.73638891</v>
       </c>
       <c r="X4">
-        <v>791301252.4443601</v>
+        <v>43627102.9057575</v>
       </c>
       <c r="Y4">
-        <v>846601674.6802164</v>
+        <v>49006978.30586433</v>
       </c>
       <c r="Z4">
-        <v>903251132.4721181</v>
+        <v>54390737.266729</v>
       </c>
       <c r="AA4">
-        <v>961249358.025128</v>
+        <v>59778235.84872077</v>
       </c>
       <c r="AB4">
-        <v>1020598653.970523</v>
+        <v>65170513.14576576</v>
       </c>
       <c r="AC4">
-        <v>1076149341.018257</v>
+        <v>66068168.06564754</v>
       </c>
       <c r="AD4">
-        <v>1133059460.881086</v>
+        <v>66972619.30749371</v>
       </c>
       <c r="AE4">
-        <v>1191331319.243985</v>
+        <v>67885322.80019078</v>
       </c>
       <c r="AF4">
-        <v>1250964490.678828</v>
+        <v>68807068.39199966</v>
       </c>
       <c r="AG4">
-        <v>1311961127.958192</v>
+        <v>69739577.43116887</v>
       </c>
       <c r="AH4">
-        <v>1373441072.522343</v>
+        <v>69890446.40953721</v>
       </c>
       <c r="AI4">
-        <v>1436325462.405134</v>
+        <v>70062634.03627315</v>
       </c>
       <c r="AJ4">
-        <v>1500628568.506239</v>
+        <v>70264576.48270591</v>
       </c>
       <c r="AK4">
-        <v>1566370288.071218</v>
+        <v>70507701.14445975</v>
       </c>
       <c r="AL4">
-        <v>1633576946.476402</v>
+        <v>70806279.64061813</v>
       </c>
       <c r="AM4">
-        <v>1702243340.350382</v>
+        <v>71172124.25519237</v>
       </c>
       <c r="AN4">
-        <v>1772380670.546994</v>
+        <v>71611664.30828971</v>
       </c>
       <c r="AO4">
-        <v>1844016157.141791</v>
+        <v>72139423.4210823</v>
       </c>
       <c r="AP4">
-        <v>1917172255.858008</v>
+        <v>72767119.06782754</v>
       </c>
       <c r="AQ4">
-        <v>1991795858.704899</v>
+        <v>73466789.31124635</v>
       </c>
       <c r="AR4">
-        <v>2067817066.649847</v>
+        <v>74208833.3030888</v>
       </c>
       <c r="AS4">
-        <v>2145217430.271377</v>
+        <v>74982493.74582787</v>
       </c>
       <c r="AT4">
-        <v>2223975765.948936</v>
+        <v>75775254.55503045</v>
       </c>
       <c r="AU4">
-        <v>2304069615.198138</v>
+        <v>76573692.55590217</v>
       </c>
       <c r="AV4">
-        <v>2385985957.778748</v>
+        <v>77810982.33601242</v>
       </c>
       <c r="AW4">
-        <v>2469431710.055725</v>
+        <v>79156360.11339197</v>
       </c>
       <c r="AX4">
-        <v>2554431498.394138</v>
+        <v>80636535.38390981</v>
       </c>
       <c r="AY4">
-        <v>2640718741.458141</v>
+        <v>82044213.09263304</v>
       </c>
       <c r="AZ4">
-        <v>2728254388.532561</v>
+        <v>83357980.22609037</v>
       </c>
       <c r="BA4">
-        <v>2817088340.149351</v>
+        <v>84603306.44176149</v>
       </c>
       <c r="BB4">
-        <v>2907262791.646668</v>
+        <v>85722103.60563241</v>
       </c>
       <c r="BC4">
-        <v>2998878496.023436</v>
+        <v>86801684.33614601</v>
       </c>
       <c r="BD4">
-        <v>3091936761.225338</v>
+        <v>87843653.5036065</v>
       </c>
       <c r="BE4">
-        <v>3186447121.828332</v>
+        <v>88854122.44951001</v>
       </c>
       <c r="BF4">
-        <v>3282436224.003338</v>
+        <v>89848399.65979671</v>
       </c>
       <c r="BG4">
-        <v>3379914772.278321</v>
+        <v>90760396.35430177</v>
       </c>
       <c r="BH4">
-        <v>3479005925.600003</v>
+        <v>91689408.54196812</v>
       </c>
       <c r="BI4">
-        <v>3579736673.386944</v>
+        <v>92650629.35551733</v>
       </c>
       <c r="BJ4">
-        <v>3682130720.82212</v>
+        <v>93657315.57835229</v>
       </c>
       <c r="BK4">
-        <v>3786207069.654068</v>
+        <v>94720134.8375407</v>
       </c>
       <c r="BL4">
-        <v>3891956681.783263</v>
+        <v>95783329.10039249</v>
       </c>
       <c r="BM4">
-        <v>3999447893.60869</v>
+        <v>96908200.14266607</v>
       </c>
       <c r="BN4">
-        <v>4108654796.369568</v>
+        <v>98081361.87141028</v>
       </c>
       <c r="BO4">
-        <v>4219547925.711648</v>
+        <v>99287355.88325062</v>
       </c>
       <c r="BP4">
-        <v>4332110243.791497</v>
+        <v>100516991.0952663</v>
       </c>
       <c r="BQ4">
-        <v>4446390265.663237</v>
+        <v>101720729.7971047</v>
       </c>
       <c r="BR4">
-        <v>4562429577.457533</v>
+        <v>102937295.2009112</v>
       </c>
       <c r="BS4">
-        <v>4680219415.869796</v>
+        <v>104161369.4962721</v>
       </c>
       <c r="BT4">
-        <v>4799746792.688866</v>
+        <v>105385341.4366284</v>
       </c>
       <c r="BU4">
-        <v>4920987345.102057</v>
+        <v>106595628.8213768</v>
       </c>
       <c r="BV4">
-        <v>5043933958.888983</v>
+        <v>107729574.9029123</v>
       </c>
       <c r="BW4">
-        <v>5168620613.261578</v>
+        <v>108821390.3902808</v>
       </c>
       <c r="BX4">
-        <v>5295065965.455366</v>
+        <v>109880225.7750834</v>
       </c>
       <c r="BY4">
-        <v>5423291477.021761</v>
+        <v>110916913.7759729</v>
       </c>
       <c r="BZ4">
-        <v>5553303959.5327</v>
+        <v>111934852.8361636</v>
       </c>
       <c r="CA4">
-        <v>5685137152.358623</v>
+        <v>112889208.6223745</v>
       </c>
       <c r="CB4">
-        <v>5818847553.121819</v>
+        <v>113827697.6347889</v>
       </c>
       <c r="CC4">
-        <v>5954447922.321406</v>
+        <v>114757299.5838688</v>
       </c>
       <c r="CD4">
-        <v>6091955881.397706</v>
+        <v>115687650.9326703</v>
       </c>
       <c r="CE4">
-        <v>6231391327.783599</v>
+        <v>116629616.0990172</v>
       </c>
       <c r="CF4">
-        <v>6372805193.956696</v>
+        <v>117543019.4490939</v>
       </c>
       <c r="CG4">
-        <v>6516271533.909532</v>
+        <v>118487396.05236</v>
       </c>
       <c r="CH4">
-        <v>6661801003.44938</v>
+        <v>119468833.9146859</v>
       </c>
       <c r="CI4">
-        <v>6809396182.948671</v>
+        <v>120489188.5424356</v>
       </c>
       <c r="CJ4">
-        <v>6959049762.901176</v>
+        <v>121545080.4851215</v>
       </c>
       <c r="CK4">
-        <v>7110750242.078347</v>
+        <v>122559077.8672679</v>
       </c>
       <c r="CL4">
-        <v>7264559370.734865</v>
+        <v>123591459.5783014</v>
       </c>
       <c r="CM4">
-        <v>7420464882.27981</v>
+        <v>124635872.54712</v>
       </c>
       <c r="CN4">
-        <v>7578459533.129862</v>
+        <v>125688448.0508006</v>
       </c>
       <c r="CO4">
-        <v>7738537804.021182</v>
+        <v>126746095.2632313</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694767.465953461</v>
+        <v>1694765.500019309</v>
       </c>
       <c r="E5">
-        <v>2690692.698616804</v>
+        <v>2690689.44184167</v>
       </c>
       <c r="F5">
-        <v>3189773.664329268</v>
+        <v>3189769.617742783</v>
       </c>
       <c r="G5">
-        <v>3496337.526610472</v>
+        <v>3496332.863593473</v>
       </c>
       <c r="H5">
-        <v>3783552.858216228</v>
+        <v>3783547.520168905</v>
       </c>
       <c r="I5">
-        <v>3986932.41090918</v>
+        <v>3986926.552072899</v>
       </c>
       <c r="J5">
-        <v>4152795.169297454</v>
+        <v>4152788.813036441</v>
       </c>
       <c r="K5">
-        <v>4366586.350894989</v>
+        <v>4366579.503820671</v>
       </c>
       <c r="L5">
-        <v>4755303.607693378</v>
+        <v>4755296.09295396</v>
       </c>
       <c r="M5">
-        <v>5093719.451709597</v>
+        <v>5093711.330577493</v>
       </c>
       <c r="N5">
-        <v>5518934.503832676</v>
+        <v>5518897.662736825</v>
       </c>
       <c r="O5">
-        <v>6052178.688990726</v>
+        <v>6052115.534921395</v>
       </c>
       <c r="P5">
-        <v>9582131.062110025</v>
+        <v>9582036.944963485</v>
       </c>
       <c r="Q5">
-        <v>13114579.86834656</v>
+        <v>13114454.27040061</v>
       </c>
       <c r="R5">
-        <v>16650083.06151413</v>
+        <v>16649925.46994091</v>
       </c>
       <c r="S5">
-        <v>27903410.53734982</v>
+        <v>27903211.01515893</v>
       </c>
       <c r="T5">
-        <v>39161027.55067137</v>
+        <v>39160785.48616605</v>
       </c>
       <c r="U5">
-        <v>50423542.32258829</v>
+        <v>50423257.10180578</v>
       </c>
       <c r="V5">
-        <v>61691522.88851732</v>
+        <v>61691193.89669359</v>
       </c>
       <c r="W5">
-        <v>72965474.183906</v>
+        <v>72965100.80613247</v>
       </c>
       <c r="X5">
-        <v>83737932.97504744</v>
+        <v>83737515.32484347</v>
       </c>
       <c r="Y5">
-        <v>94517181.01430406</v>
+        <v>94516718.45160845</v>
       </c>
       <c r="Z5">
-        <v>105303598.3364464</v>
+        <v>105303090.2230472</v>
       </c>
       <c r="AA5">
-        <v>116097674.2182309</v>
+        <v>116097119.9160368</v>
       </c>
       <c r="AB5">
-        <v>126900179.2918537</v>
+        <v>126899578.160813</v>
       </c>
       <c r="AC5">
-        <v>128701470.7061744</v>
+        <v>128700832.9205105</v>
       </c>
       <c r="AD5">
-        <v>130514603.1057925</v>
+        <v>130513927.9883276</v>
       </c>
       <c r="AE5">
-        <v>132342845.4356586</v>
+        <v>132342132.3055398</v>
       </c>
       <c r="AF5">
-        <v>134190936.6551202</v>
+        <v>134190184.8280987</v>
       </c>
       <c r="AG5">
-        <v>136065320.5763563</v>
+        <v>136064529.3629172</v>
       </c>
       <c r="AH5">
-        <v>136269733.0663818</v>
+        <v>136268903.7029659</v>
       </c>
       <c r="AI5">
-        <v>136518564.9323607</v>
+        <v>136517696.6862194</v>
       </c>
       <c r="AJ5">
-        <v>136823005.1415748</v>
+        <v>136822097.2611616</v>
       </c>
       <c r="AK5">
-        <v>137194931.7922679</v>
+        <v>137193983.5016896</v>
       </c>
       <c r="AL5">
-        <v>137646088.563978</v>
+        <v>137645099.0583053</v>
       </c>
       <c r="AM5">
-        <v>138187092.1176484</v>
+        <v>138186060.554462</v>
       </c>
       <c r="AN5">
-        <v>138826330.4642211</v>
+        <v>138825255.9869242</v>
       </c>
       <c r="AO5">
-        <v>139568853.7905936</v>
+        <v>139567735.515134</v>
       </c>
       <c r="AP5">
-        <v>140415338.7503139</v>
+        <v>140414175.7716143</v>
       </c>
       <c r="AQ5">
-        <v>141361263.9351523</v>
+        <v>141360055.3992901</v>
       </c>
       <c r="AR5">
-        <v>142396497.9156578</v>
+        <v>142395242.9886493</v>
       </c>
       <c r="AS5">
-        <v>143505376.5659935</v>
+        <v>143504074.4381345</v>
       </c>
       <c r="AT5">
-        <v>144667392.8980674</v>
+        <v>144666042.7886414</v>
       </c>
       <c r="AU5">
-        <v>145858489.766419</v>
+        <v>145857090.9264696</v>
       </c>
       <c r="AV5">
-        <v>148202411.9284106</v>
+        <v>148200962.485128</v>
       </c>
       <c r="AW5">
-        <v>150849299.251962</v>
+        <v>150847798.1095374</v>
       </c>
       <c r="AX5">
-        <v>153450631.8891643</v>
+        <v>153449078.0129937</v>
       </c>
       <c r="AY5">
-        <v>155987198.9017697</v>
+        <v>155985591.633616</v>
       </c>
       <c r="AZ5">
-        <v>158445204.0860524</v>
+        <v>158443542.8103154</v>
       </c>
       <c r="BA5">
-        <v>160817068.7438037</v>
+        <v>160815352.8021049</v>
       </c>
       <c r="BB5">
-        <v>162934672.6283439</v>
+        <v>162932901.4315465</v>
       </c>
       <c r="BC5">
-        <v>164970223.2922565</v>
+        <v>164968396.041324</v>
       </c>
       <c r="BD5">
-        <v>166934528.8589986</v>
+        <v>166932644.748394</v>
       </c>
       <c r="BE5">
-        <v>168842981.6557029</v>
+        <v>168841039.8639432</v>
       </c>
       <c r="BF5">
-        <v>170714135.2387645</v>
+        <v>170712134.9110026</v>
       </c>
       <c r="BG5">
-        <v>172403270.0325943</v>
+        <v>172401210.416401</v>
       </c>
       <c r="BH5">
-        <v>174094983.1376891</v>
+        <v>174092863.2455202</v>
       </c>
       <c r="BI5">
-        <v>175807386.3595214</v>
+        <v>175805205.1709886</v>
       </c>
       <c r="BJ5">
-        <v>177555796.3906703</v>
+        <v>177553552.856917</v>
       </c>
       <c r="BK5">
-        <v>179352135.4869546</v>
+        <v>179349828.5363047</v>
       </c>
       <c r="BL5">
-        <v>181080846.3848277</v>
+        <v>181078475.0435126</v>
       </c>
       <c r="BM5">
-        <v>182870701.771632</v>
+        <v>182868264.9161348</v>
       </c>
       <c r="BN5">
-        <v>184723293.6268443</v>
+        <v>184720790.1569129</v>
       </c>
       <c r="BO5">
-        <v>186637211.7426228</v>
+        <v>186634640.5859428</v>
       </c>
       <c r="BP5">
-        <v>188608340.1012344</v>
+        <v>188605700.2031895</v>
       </c>
       <c r="BQ5">
-        <v>190543787.020249</v>
+        <v>190541077.3927115</v>
       </c>
       <c r="BR5">
-        <v>192521523.1647559</v>
+        <v>192518742.7262243</v>
       </c>
       <c r="BS5">
-        <v>194531597.2639031</v>
+        <v>194528744.9456218</v>
       </c>
       <c r="BT5">
-        <v>196563068.495296</v>
+        <v>196560143.2456701</v>
       </c>
       <c r="BU5">
-        <v>198604561.9982342</v>
+        <v>198601562.7935913</v>
       </c>
       <c r="BV5">
-        <v>200560540.4762191</v>
+        <v>200557466.3825096</v>
       </c>
       <c r="BW5">
-        <v>202504901.4081823</v>
+        <v>202501751.4073018</v>
       </c>
       <c r="BX5">
-        <v>204428613.159989</v>
+        <v>204425386.2204912</v>
       </c>
       <c r="BY5">
-        <v>206324614.4692118</v>
+        <v>206321309.5426199</v>
       </c>
       <c r="BZ5">
-        <v>208188285.5999587</v>
+        <v>208184901.6331586</v>
       </c>
       <c r="CA5">
-        <v>209929237.931396</v>
+        <v>209925773.9184367</v>
       </c>
       <c r="CB5">
-        <v>211636982.6722801</v>
+        <v>211633437.494013</v>
       </c>
       <c r="CC5">
-        <v>213315179.7170298</v>
+        <v>213311552.2406553</v>
       </c>
       <c r="CD5">
-        <v>214969769.26739</v>
+        <v>214966058.3410127</v>
       </c>
       <c r="CE5">
-        <v>216608381.7826487</v>
+        <v>216604586.2325904</v>
       </c>
       <c r="CF5">
-        <v>218139813.1620089</v>
+        <v>218135931.8404877</v>
       </c>
       <c r="CG5">
-        <v>219672803.8135327</v>
+        <v>219668835.4325197</v>
       </c>
       <c r="CH5">
-        <v>221215863.7951742</v>
+        <v>221211807.0530727</v>
       </c>
       <c r="CI5">
-        <v>222776556.0386564</v>
+        <v>222772409.6281063</v>
       </c>
       <c r="CJ5">
-        <v>224361068.4457547</v>
+        <v>224356831.0633768</v>
       </c>
       <c r="CK5">
-        <v>225837483.1998891</v>
+        <v>225833153.6442609</v>
       </c>
       <c r="CL5">
-        <v>227344970.1378436</v>
+        <v>227340547.0563503</v>
       </c>
       <c r="CM5">
-        <v>228884404.2038523</v>
+        <v>228879886.254897</v>
       </c>
       <c r="CN5">
-        <v>230454912.1917665</v>
+        <v>230450298.0409352</v>
       </c>
       <c r="CO5">
-        <v>232054055.3965221</v>
+        <v>232049343.715721</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/RR/Results_world_base_RR_full.xlsx
+++ b/Results/Baseline/RR/Results_world_base_RR_full.xlsx
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>261.9472600640528</v>
+        <v>1072.353283839067</v>
       </c>
       <c r="E2">
-        <v>302.5639882458125</v>
+        <v>1397.697118375739</v>
       </c>
       <c r="F2">
-        <v>500.2023325229081</v>
+        <v>1396.973386976942</v>
       </c>
       <c r="G2">
-        <v>370.5884416084285</v>
+        <v>1327.49196668088</v>
       </c>
       <c r="H2">
-        <v>948.980296248033</v>
+        <v>1780.455995670179</v>
       </c>
       <c r="I2">
-        <v>545.2749069198272</v>
+        <v>1284.474208811795</v>
       </c>
       <c r="J2">
-        <v>608.4981381272771</v>
+        <v>2324.128032907367</v>
       </c>
       <c r="K2">
-        <v>699.9134658860155</v>
+        <v>2310.472716944614</v>
       </c>
       <c r="L2">
-        <v>557.8761921188465</v>
+        <v>2055.778711449723</v>
       </c>
       <c r="M2">
-        <v>684.5176110887784</v>
+        <v>1894.579167609841</v>
       </c>
       <c r="N2">
-        <v>345.4458354396534</v>
+        <v>4052.380606932934</v>
       </c>
       <c r="O2">
-        <v>383.592260127869</v>
+        <v>2457.181440402027</v>
       </c>
       <c r="P2">
-        <v>770.9808728758536</v>
+        <v>4922.175486689748</v>
       </c>
       <c r="Q2">
-        <v>778.0794695170396</v>
+        <v>5299.978622375539</v>
       </c>
       <c r="R2">
-        <v>785.3070845409572</v>
+        <v>5678.855684055323</v>
       </c>
       <c r="S2">
-        <v>1971.518226153727</v>
+        <v>12455.90133669935</v>
       </c>
       <c r="T2">
-        <v>1975.059190640531</v>
+        <v>13343.98860745829</v>
       </c>
       <c r="U2">
-        <v>1980.464632210437</v>
+        <v>14234.07356207303</v>
       </c>
       <c r="V2">
-        <v>1988.12750730279</v>
+        <v>15127.44606032934</v>
       </c>
       <c r="W2">
-        <v>1996.071621544525</v>
+        <v>16023.57388363136</v>
       </c>
       <c r="X2">
-        <v>1831.945142313142</v>
+        <v>16053.88248433963</v>
       </c>
       <c r="Y2">
-        <v>1841.224274209226</v>
+        <v>16875.89541766425</v>
       </c>
       <c r="Z2">
-        <v>1849.453327985607</v>
+        <v>17700.0896960772</v>
       </c>
       <c r="AA2">
-        <v>1858.32322180638</v>
+        <v>18528.81986269342</v>
       </c>
       <c r="AB2">
-        <v>1874.007768512969</v>
+        <v>19363.80751473205</v>
       </c>
       <c r="AC2">
-        <v>549.8257572310469</v>
+        <v>8720.068504860867</v>
       </c>
       <c r="AD2">
-        <v>574.458845297152</v>
+        <v>8880.797582077128</v>
       </c>
       <c r="AE2">
-        <v>598.6690553282052</v>
+        <v>9058.287927538566</v>
       </c>
       <c r="AF2">
-        <v>603.0295774294713</v>
+        <v>9239.204612731695</v>
       </c>
       <c r="AG2">
-        <v>602.4273734116684</v>
+        <v>9436.419453552146</v>
       </c>
       <c r="AH2">
-        <v>421.8495022842388</v>
+        <v>5542.4738291767</v>
       </c>
       <c r="AI2">
-        <v>424.9260422441258</v>
+        <v>5525.286056017435</v>
       </c>
       <c r="AJ2">
-        <v>427.3967500290863</v>
+        <v>5563.782355481401</v>
       </c>
       <c r="AK2">
-        <v>432.4065427301878</v>
+        <v>5664.663429527501</v>
       </c>
       <c r="AL2">
-        <v>457.1720689401727</v>
+        <v>5774.659654404786</v>
       </c>
       <c r="AM2">
-        <v>501.6851140183748</v>
+        <v>7742.921705839284</v>
       </c>
       <c r="AN2">
-        <v>550.1633927447689</v>
+        <v>8077.179867909555</v>
       </c>
       <c r="AO2">
-        <v>614.9605418309601</v>
+        <v>8511.241669559668</v>
       </c>
       <c r="AP2">
-        <v>695.0946438025013</v>
+        <v>9045.042964125932</v>
       </c>
       <c r="AQ2">
-        <v>741.2807388388734</v>
+        <v>9452.143616788342</v>
       </c>
       <c r="AR2">
-        <v>755.0702307087299</v>
+        <v>13020.59354108584</v>
       </c>
       <c r="AS2">
-        <v>764.0366403115574</v>
+        <v>13375.29342573262</v>
       </c>
       <c r="AT2">
-        <v>768.1352492600954</v>
+        <v>13683.6223917705</v>
       </c>
       <c r="AU2">
-        <v>767.7590041496562</v>
+        <v>13943.00290612465</v>
       </c>
       <c r="AV2">
-        <v>779.2561756643512</v>
+        <v>14179.48754986051</v>
       </c>
       <c r="AW2">
-        <v>781.3430667654021</v>
+        <v>15101.72653416384</v>
       </c>
       <c r="AX2">
-        <v>980.7295579684504</v>
+        <v>15144.51614692256</v>
       </c>
       <c r="AY2">
-        <v>936.9579014828611</v>
+        <v>14909.24245070144</v>
       </c>
       <c r="AZ2">
-        <v>875.4125073453</v>
+        <v>14468.04942854563</v>
       </c>
       <c r="BA2">
-        <v>849.7328494058657</v>
+        <v>14268.47988738955</v>
       </c>
       <c r="BB2">
-        <v>827.9111981306293</v>
+        <v>13409.39242300001</v>
       </c>
       <c r="BC2">
-        <v>826.0890175584319</v>
+        <v>13410.98836741779</v>
       </c>
       <c r="BD2">
-        <v>816.5733055982598</v>
+        <v>13334.59927135124</v>
       </c>
       <c r="BE2">
-        <v>805.6351036371897</v>
+        <v>13214.27671108248</v>
       </c>
       <c r="BF2">
-        <v>801.7658895454782</v>
+        <v>13226.86141219439</v>
       </c>
       <c r="BG2">
-        <v>780.9548675548587</v>
+        <v>12742.83499667864</v>
       </c>
       <c r="BH2">
-        <v>796.3316069689852</v>
+        <v>12985.87636448368</v>
       </c>
       <c r="BI2">
-        <v>826.0402590930486</v>
+        <v>13329.30624119079</v>
       </c>
       <c r="BJ2">
-        <v>869.7709067303512</v>
+        <v>13776.25153233177</v>
       </c>
       <c r="BK2">
-        <v>923.1575793743789</v>
+        <v>14267.70611761617</v>
       </c>
       <c r="BL2">
-        <v>962.3554788317695</v>
+        <v>14429.1469451583</v>
       </c>
       <c r="BM2">
-        <v>1017.066885784799</v>
+        <v>14994.52285981097</v>
       </c>
       <c r="BN2">
-        <v>1054.017227239844</v>
+        <v>15574.80663030666</v>
       </c>
       <c r="BO2">
-        <v>1072.278744278378</v>
+        <v>16128.54153310078</v>
       </c>
       <c r="BP2">
-        <v>1081.570337391527</v>
+        <v>16552.10446148214</v>
       </c>
       <c r="BQ2">
-        <v>1074.334070674188</v>
+        <v>16674.78100789013</v>
       </c>
       <c r="BR2">
-        <v>1079.483747764993</v>
+        <v>16944.79508215929</v>
       </c>
       <c r="BS2">
-        <v>1084.165350081036</v>
+        <v>17176.27856050376</v>
       </c>
       <c r="BT2">
-        <v>1086.572255494762</v>
+        <v>17322.51560581177</v>
       </c>
       <c r="BU2">
-        <v>1079.73414124064</v>
+        <v>17305.4231222734</v>
       </c>
       <c r="BV2">
-        <v>1042.111477830739</v>
+        <v>16900.34839961646</v>
       </c>
       <c r="BW2">
-        <v>1012.647486827561</v>
+        <v>16670.46847602967</v>
       </c>
       <c r="BX2">
-        <v>997.4011763113591</v>
+        <v>16517.14450730824</v>
       </c>
       <c r="BY2">
-        <v>995.2876280286404</v>
+        <v>16453.9523522353</v>
       </c>
       <c r="BZ2">
-        <v>994.9618308900295</v>
+        <v>16425.27319832929</v>
       </c>
       <c r="CA2">
-        <v>978.2763238704088</v>
+        <v>16181.65575118283</v>
       </c>
       <c r="CB2">
-        <v>976.2500150019441</v>
+        <v>16149.2846041232</v>
       </c>
       <c r="CC2">
-        <v>979.2662918949696</v>
+        <v>16181.50873685207</v>
       </c>
       <c r="CD2">
-        <v>990.5725417712317</v>
+        <v>16307.92970512471</v>
       </c>
       <c r="CE2">
-        <v>1013.000167816229</v>
+        <v>16541.15837283122</v>
       </c>
       <c r="CF2">
-        <v>1032.008258268781</v>
+        <v>16608.08770815024</v>
       </c>
       <c r="CG2">
-        <v>1076.795214718335</v>
+        <v>16994.31354172703</v>
       </c>
       <c r="CH2">
-        <v>1126.857748734077</v>
+        <v>17418.40661142801</v>
       </c>
       <c r="CI2">
-        <v>1176.157693580835</v>
+        <v>17868.58028640713</v>
       </c>
       <c r="CJ2">
-        <v>1218.333346102828</v>
+        <v>18347.58359490629</v>
       </c>
       <c r="CK2">
-        <v>1226.889707917357</v>
+        <v>18424.07480421112</v>
       </c>
       <c r="CL2">
-        <v>1244.863300874676</v>
+        <v>18845.12935620473</v>
       </c>
       <c r="CM2">
-        <v>1255.002920914531</v>
+        <v>19181.99445341201</v>
       </c>
       <c r="CN2">
-        <v>1261.575287593672</v>
+        <v>19440.453400874</v>
       </c>
       <c r="CO2">
-        <v>1266.612866201052</v>
+        <v>19648.48980944431</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.48537993724342</v>
+        <v>70.90986595796893</v>
       </c>
       <c r="E3">
-        <v>19.15588856276863</v>
+        <v>92.70278747730308</v>
       </c>
       <c r="F3">
-        <v>32.31100287195206</v>
+        <v>92.53591792813646</v>
       </c>
       <c r="G3">
-        <v>23.60655368172608</v>
+        <v>87.8682005298993</v>
       </c>
       <c r="H3">
-        <v>62.55259237644246</v>
+        <v>118.3889012694805</v>
       </c>
       <c r="I3">
-        <v>35.4266080237992</v>
+        <v>85.06514181381809</v>
       </c>
       <c r="J3">
-        <v>39.56040732986385</v>
+        <v>154.7796443152045</v>
       </c>
       <c r="K3">
-        <v>45.54701273377307</v>
+        <v>153.7102763812833</v>
       </c>
       <c r="L3">
-        <v>36.05219760501377</v>
+        <v>136.6494192519786</v>
       </c>
       <c r="M3">
-        <v>44.48477195818336</v>
+        <v>125.7452760166197</v>
       </c>
       <c r="N3">
-        <v>21.61883087004233</v>
+        <v>270.5822456892791</v>
       </c>
       <c r="O3">
-        <v>24.31857910209132</v>
+        <v>163.5795662081159</v>
       </c>
       <c r="P3">
-        <v>50.25329065818438</v>
+        <v>329.0125410761777</v>
       </c>
       <c r="Q3">
-        <v>50.69382503739336</v>
+        <v>354.3510821214373</v>
       </c>
       <c r="R3">
-        <v>51.14318108949972</v>
+        <v>379.7619572562782</v>
       </c>
       <c r="S3">
-        <v>130.7435212352095</v>
+        <v>834.7491458915803</v>
       </c>
       <c r="T3">
-        <v>130.9363135840933</v>
+        <v>894.3517847191054</v>
       </c>
       <c r="U3">
-        <v>131.2542657743722</v>
+        <v>954.0884152123988</v>
       </c>
       <c r="V3">
-        <v>131.7238117521813</v>
+        <v>1014.045704327563</v>
       </c>
       <c r="W3">
-        <v>132.2122502263641</v>
+        <v>1074.187941609948</v>
       </c>
       <c r="X3">
-        <v>121.1478155400725</v>
+        <v>1076.176467563342</v>
       </c>
       <c r="Y3">
-        <v>121.7275831153449</v>
+        <v>1131.342340220599</v>
       </c>
       <c r="Z3">
-        <v>122.2368904470552</v>
+        <v>1186.654811264117</v>
       </c>
       <c r="AA3">
-        <v>122.7892485067165</v>
+        <v>1242.27175960041</v>
       </c>
       <c r="AB3">
-        <v>123.7992289571712</v>
+        <v>1298.308817084575</v>
       </c>
       <c r="AC3">
-        <v>34.84669890175937</v>
+        <v>583.5444701807556</v>
       </c>
       <c r="AD3">
-        <v>36.45653176670924</v>
+        <v>594.2934115865562</v>
       </c>
       <c r="AE3">
-        <v>38.03791239260138</v>
+        <v>606.1676032727111</v>
       </c>
       <c r="AF3">
-        <v>38.28618390332246</v>
+        <v>618.2721323360391</v>
       </c>
       <c r="AG3">
-        <v>38.20111887702271</v>
+        <v>631.4707317670518</v>
       </c>
       <c r="AH3">
-        <v>26.03162858441701</v>
+        <v>369.93554887898</v>
       </c>
       <c r="AI3">
-        <v>26.19176717477905</v>
+        <v>368.7310623572561</v>
       </c>
       <c r="AJ3">
-        <v>26.31085366282995</v>
+        <v>371.2647622138876</v>
       </c>
       <c r="AK3">
-        <v>26.59994426740899</v>
+        <v>377.9867691462483</v>
       </c>
       <c r="AL3">
-        <v>28.21515432041273</v>
+        <v>385.3187147800629</v>
       </c>
       <c r="AM3">
-        <v>31.15564098198947</v>
+        <v>517.4341379836927</v>
       </c>
       <c r="AN3">
-        <v>34.36215401238877</v>
+        <v>539.8214875231919</v>
       </c>
       <c r="AO3">
-        <v>38.66389717068211</v>
+        <v>568.9086669025321</v>
       </c>
       <c r="AP3">
-        <v>43.99504061930835</v>
+        <v>604.6917204944361</v>
       </c>
       <c r="AQ3">
-        <v>47.04771391204812</v>
+        <v>631.9711248079021</v>
       </c>
       <c r="AR3">
-        <v>47.92453729165306</v>
+        <v>871.5530372221667</v>
       </c>
       <c r="AS3">
-        <v>48.47789529750027</v>
+        <v>895.3201702600111</v>
       </c>
       <c r="AT3">
-        <v>48.70483968609841</v>
+        <v>915.9754560070717</v>
       </c>
       <c r="AU3">
-        <v>48.63178038159134</v>
+        <v>933.3460748142886</v>
       </c>
       <c r="AV3">
-        <v>49.35393159843112</v>
+        <v>949.1811276643379</v>
       </c>
       <c r="AW3">
-        <v>49.44202486963682</v>
+        <v>1011.064917294028</v>
       </c>
       <c r="AX3">
-        <v>62.78181388152785</v>
+        <v>1013.89488111727</v>
       </c>
       <c r="AY3">
-        <v>59.79340307780486</v>
+        <v>998.0567397580055</v>
       </c>
       <c r="AZ3">
-        <v>55.61235404829592</v>
+        <v>968.3934911011449</v>
       </c>
       <c r="BA3">
-        <v>53.83860428514903</v>
+        <v>954.9526718072062</v>
       </c>
       <c r="BB3">
-        <v>52.31824961893121</v>
+        <v>897.2110095175932</v>
       </c>
       <c r="BC3">
-        <v>52.14051987478872</v>
+        <v>897.2703897631091</v>
       </c>
       <c r="BD3">
-        <v>51.44609530992616</v>
+        <v>892.0920570190651</v>
       </c>
       <c r="BE3">
-        <v>50.65593303188957</v>
+        <v>883.9615536659446</v>
       </c>
       <c r="BF3">
-        <v>50.33984841549508</v>
+        <v>884.7543816258353</v>
       </c>
       <c r="BG3">
-        <v>48.88163758781356</v>
+        <v>852.1883115087364</v>
       </c>
       <c r="BH3">
-        <v>49.85267362901053</v>
+        <v>868.4482646730155</v>
       </c>
       <c r="BI3">
-        <v>51.78556820578853</v>
+        <v>891.4456935416903</v>
       </c>
       <c r="BJ3">
-        <v>54.65958901487823</v>
+        <v>921.3910361193876</v>
       </c>
       <c r="BK3">
-        <v>58.18162948287311</v>
+        <v>954.3232734530678</v>
       </c>
       <c r="BL3">
-        <v>60.74749083466683</v>
+        <v>965.0864503468262</v>
       </c>
       <c r="BM3">
-        <v>64.35503583934266</v>
+        <v>1002.977988213651</v>
       </c>
       <c r="BN3">
-        <v>66.77048649412571</v>
+        <v>1041.872238822344</v>
       </c>
       <c r="BO3">
-        <v>67.93162187280578</v>
+        <v>1078.985895738368</v>
       </c>
       <c r="BP3">
-        <v>68.4908011344737</v>
+        <v>1107.360408163801</v>
       </c>
       <c r="BQ3">
-        <v>67.93552344254115</v>
+        <v>1115.52442961334</v>
       </c>
       <c r="BR3">
-        <v>68.2120638127667</v>
+        <v>1133.585758318508</v>
       </c>
       <c r="BS3">
-        <v>68.45737380255733</v>
+        <v>1149.061106629014</v>
       </c>
       <c r="BT3">
-        <v>68.55023677296357</v>
+        <v>1158.813943735903</v>
       </c>
       <c r="BU3">
-        <v>68.02284589525068</v>
+        <v>1157.601426890382</v>
       </c>
       <c r="BV3">
-        <v>65.42487082173695</v>
+        <v>1130.331213550893</v>
       </c>
       <c r="BW3">
-        <v>63.37498644751282</v>
+        <v>1114.82818267903</v>
       </c>
       <c r="BX3">
-        <v>62.27939032120079</v>
+        <v>1104.464501925539</v>
       </c>
       <c r="BY3">
-        <v>62.06514445741061</v>
+        <v>1100.151644340479</v>
       </c>
       <c r="BZ3">
-        <v>61.97074115350754</v>
+        <v>1098.15648928206</v>
       </c>
       <c r="CA3">
-        <v>60.77337882582801</v>
+        <v>1081.72201352677</v>
       </c>
       <c r="CB3">
-        <v>60.56014968011761</v>
+        <v>1079.474099739661</v>
       </c>
       <c r="CC3">
-        <v>60.68523264032837</v>
+        <v>1081.563394400715</v>
       </c>
       <c r="CD3">
-        <v>61.36659723143823</v>
+        <v>1089.977430747001</v>
       </c>
       <c r="CE3">
-        <v>62.79434806849929</v>
+        <v>1105.562732171815</v>
       </c>
       <c r="CF3">
-        <v>63.98718790147537</v>
+        <v>1109.971749248927</v>
       </c>
       <c r="CG3">
-        <v>66.91066426310346</v>
+        <v>1135.820648024169</v>
       </c>
       <c r="CH3">
-        <v>70.18818927256976</v>
+        <v>1164.211125441064</v>
       </c>
       <c r="CI3">
-        <v>73.41446114700635</v>
+        <v>1194.352497401695</v>
       </c>
       <c r="CJ3">
-        <v>76.16250020168715</v>
+        <v>1226.430214358821</v>
       </c>
       <c r="CK3">
-        <v>76.64884506215728</v>
+        <v>1231.473251085311</v>
       </c>
       <c r="CL3">
-        <v>77.76779697555394</v>
+        <v>1259.657351403554</v>
       </c>
       <c r="CM3">
-        <v>78.36097092525588</v>
+        <v>1282.189180009029</v>
       </c>
       <c r="CN3">
-        <v>78.71477060629303</v>
+        <v>1299.456790010772</v>
       </c>
       <c r="CO3">
-        <v>78.96564121194649</v>
+        <v>1313.339213385962</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>804639.2050553659</v>
+        <v>1624027.935765215</v>
       </c>
       <c r="E4">
-        <v>548723.3242650117</v>
+        <v>1458743.140269049</v>
       </c>
       <c r="F4">
-        <v>355073.8984457181</v>
+        <v>1273362.790431096</v>
       </c>
       <c r="G4">
-        <v>291545.9398878629</v>
+        <v>1476945.969605482</v>
       </c>
       <c r="H4">
-        <v>328006.5025128267</v>
+        <v>1622915.3665169</v>
       </c>
       <c r="I4">
-        <v>256108.6506172263</v>
+        <v>1542128.509846961</v>
       </c>
       <c r="J4">
-        <v>249600.0595948292</v>
+        <v>1676172.046758618</v>
       </c>
       <c r="K4">
-        <v>237583.1566489558</v>
+        <v>1536493.198225289</v>
       </c>
       <c r="L4">
-        <v>305969.2535715514</v>
+        <v>1524993.372153508</v>
       </c>
       <c r="M4">
-        <v>280503.061528866</v>
+        <v>2032661.502009666</v>
       </c>
       <c r="N4">
-        <v>306576.0581405597</v>
+        <v>1923614.750070309</v>
       </c>
       <c r="O4">
-        <v>386749.5594112837</v>
+        <v>1897709.196161142</v>
       </c>
       <c r="P4">
-        <v>1801530.329054188</v>
+        <v>9895608.299679782</v>
       </c>
       <c r="Q4">
-        <v>1808597.852628684</v>
+        <v>9923628.169482224</v>
       </c>
       <c r="R4">
-        <v>1812860.879121145</v>
+        <v>9947869.656974236</v>
       </c>
       <c r="S4">
-        <v>5689217.357277946</v>
+        <v>31194187.57392101</v>
       </c>
       <c r="T4">
-        <v>5691608.613121784</v>
+        <v>31242119.10891572</v>
       </c>
       <c r="U4">
-        <v>5695171.818355992</v>
+        <v>31292817.85269543</v>
       </c>
       <c r="V4">
-        <v>5699108.583822033</v>
+        <v>31345643.34675269</v>
       </c>
       <c r="W4">
-        <v>5703040.633327082</v>
+        <v>31399929.68885191</v>
       </c>
       <c r="X4">
-        <v>5374888.169368589</v>
+        <v>32300391.56187513</v>
       </c>
       <c r="Y4">
-        <v>5379875.400106831</v>
+        <v>32353371.87009951</v>
       </c>
       <c r="Z4">
-        <v>5383758.960864661</v>
+        <v>32402756.27343388</v>
       </c>
       <c r="AA4">
-        <v>5387498.581991775</v>
+        <v>32451392.62228598</v>
       </c>
       <c r="AB4">
-        <v>5392277.297044988</v>
+        <v>32498787.191476</v>
       </c>
       <c r="AC4">
-        <v>897654.9198817867</v>
+        <v>8459841.157366931</v>
       </c>
       <c r="AD4">
-        <v>904451.2418461674</v>
+        <v>8482726.946505221</v>
       </c>
       <c r="AE4">
-        <v>912703.4926970723</v>
+        <v>8503986.099690871</v>
       </c>
       <c r="AF4">
-        <v>921745.5918088916</v>
+        <v>8509003.087262124</v>
       </c>
       <c r="AG4">
-        <v>932509.0391692072</v>
+        <v>8513751.869511055</v>
       </c>
       <c r="AH4">
-        <v>150868.9783683423</v>
+        <v>935624.0412012103</v>
       </c>
       <c r="AI4">
-        <v>172187.626735935</v>
+        <v>750638.9749055646</v>
       </c>
       <c r="AJ4">
-        <v>201942.4464327527</v>
+        <v>627010.6633383328</v>
       </c>
       <c r="AK4">
-        <v>243124.6617538523</v>
+        <v>592061.8579848238</v>
       </c>
       <c r="AL4">
-        <v>298578.4961583769</v>
+        <v>550353.7818413976</v>
       </c>
       <c r="AM4">
-        <v>365844.614574245</v>
+        <v>3953628.6609218</v>
       </c>
       <c r="AN4">
-        <v>439540.0530973302</v>
+        <v>4091558.043991133</v>
       </c>
       <c r="AO4">
-        <v>527759.1127925945</v>
+        <v>4272600.804131874</v>
       </c>
       <c r="AP4">
-        <v>627695.6467452359</v>
+        <v>4501725.663407697</v>
       </c>
       <c r="AQ4">
-        <v>699670.2434188125</v>
+        <v>4624819.409846065</v>
       </c>
       <c r="AR4">
-        <v>742043.9918424489</v>
+        <v>9663977.394955309</v>
       </c>
       <c r="AS4">
-        <v>773660.4427390648</v>
+        <v>9671632.84826925</v>
       </c>
       <c r="AT4">
-        <v>792760.8092025765</v>
+        <v>9663296.690038826</v>
       </c>
       <c r="AU4">
-        <v>798438.0008717187</v>
+        <v>9640314.343506603</v>
       </c>
       <c r="AV4">
-        <v>1237289.780110251</v>
+        <v>9618658.646185722</v>
       </c>
       <c r="AW4">
-        <v>1345377.777379535</v>
+        <v>10923456.23596253</v>
       </c>
       <c r="AX4">
-        <v>1480175.270517842</v>
+        <v>10830248.53339748</v>
       </c>
       <c r="AY4">
-        <v>1407677.708723225</v>
+        <v>10634558.49131585</v>
       </c>
       <c r="AZ4">
-        <v>1313767.133457336</v>
+        <v>10373647.56659991</v>
       </c>
       <c r="BA4">
-        <v>1245326.215671117</v>
+        <v>10235288.80783921</v>
       </c>
       <c r="BB4">
-        <v>1118797.163870912</v>
+        <v>9265344.266913543</v>
       </c>
       <c r="BC4">
-        <v>1079580.730513598</v>
+        <v>9234836.326064834</v>
       </c>
       <c r="BD4">
-        <v>1041969.167460487</v>
+        <v>9217726.899343137</v>
       </c>
       <c r="BE4">
-        <v>1010468.945903504</v>
+        <v>9254515.155685494</v>
       </c>
       <c r="BF4">
-        <v>994277.2102867065</v>
+        <v>9255586.472422622</v>
       </c>
       <c r="BG4">
-        <v>911996.6945050539</v>
+        <v>8696281.345795637</v>
       </c>
       <c r="BH4">
-        <v>929012.1876663502</v>
+        <v>8676426.925131379</v>
       </c>
       <c r="BI4">
-        <v>961220.8135492017</v>
+        <v>8770052.182273211</v>
       </c>
       <c r="BJ4">
-        <v>1006686.222834959</v>
+        <v>8922064.544823699</v>
       </c>
       <c r="BK4">
-        <v>1062819.259188419</v>
+        <v>9090501.620839925</v>
       </c>
       <c r="BL4">
-        <v>1063194.262851791</v>
+        <v>9137978.087616045</v>
       </c>
       <c r="BM4">
-        <v>1124871.042273574</v>
+        <v>9306575.264827577</v>
       </c>
       <c r="BN4">
-        <v>1173161.728744209</v>
+        <v>9440251.408713184</v>
       </c>
       <c r="BO4">
-        <v>1205994.011840343</v>
+        <v>9527343.23607623</v>
       </c>
       <c r="BP4">
-        <v>1229635.212015672</v>
+        <v>9556075.926140001</v>
       </c>
       <c r="BQ4">
-        <v>1203738.701838366</v>
+        <v>9526867.299081901</v>
       </c>
       <c r="BR4">
-        <v>1216565.403806582</v>
+        <v>9504037.260356583</v>
       </c>
       <c r="BS4">
-        <v>1224074.295360831</v>
+        <v>9468911.57311427</v>
       </c>
       <c r="BT4">
-        <v>1223971.940356318</v>
+        <v>9404600.314774647</v>
       </c>
       <c r="BU4">
-        <v>1210287.384748435</v>
+        <v>9285932.225325365</v>
       </c>
       <c r="BV4">
-        <v>1133946.08153552</v>
+        <v>8976100.329503536</v>
       </c>
       <c r="BW4">
-        <v>1091815.487368502</v>
+        <v>8808900.661017083</v>
       </c>
       <c r="BX4">
-        <v>1058835.384802549</v>
+        <v>8763349.037751194</v>
       </c>
       <c r="BY4">
-        <v>1036688.000889484</v>
+        <v>8827049.259704441</v>
       </c>
       <c r="BZ4">
-        <v>1017939.06019074</v>
+        <v>8846724.661002113</v>
       </c>
       <c r="CA4">
-        <v>954355.7862108706</v>
+        <v>8636777.910057437</v>
       </c>
       <c r="CB4">
-        <v>938489.0124144518</v>
+        <v>8622250.627306497</v>
       </c>
       <c r="CC4">
-        <v>929601.949079862</v>
+        <v>8596959.656822046</v>
       </c>
       <c r="CD4">
-        <v>930351.3488015354</v>
+        <v>8554569.575359868</v>
       </c>
       <c r="CE4">
-        <v>941965.1663468548</v>
+        <v>8469899.117701709</v>
       </c>
       <c r="CF4">
-        <v>913403.3500767406</v>
+        <v>8159575.920425488</v>
       </c>
       <c r="CG4">
-        <v>944376.6032661406</v>
+        <v>8295871.240477972</v>
       </c>
       <c r="CH4">
-        <v>981437.8623258495</v>
+        <v>8444175.995800028</v>
       </c>
       <c r="CI4">
-        <v>1020354.627749699</v>
+        <v>8588662.439137109</v>
       </c>
       <c r="CJ4">
-        <v>1055891.942685894</v>
+        <v>8717010.701074239</v>
       </c>
       <c r="CK4">
-        <v>1013997.38214646</v>
+        <v>8246503.011480561</v>
       </c>
       <c r="CL4">
-        <v>1032381.711033423</v>
+        <v>8300962.812062181</v>
       </c>
       <c r="CM4">
-        <v>1044412.968818649</v>
+        <v>8314222.015246811</v>
       </c>
       <c r="CN4">
-        <v>1052575.503680638</v>
+        <v>8296895.323657802</v>
       </c>
       <c r="CO4">
-        <v>1057647.212430665</v>
+        <v>8259780.635674952</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694765.500019309</v>
+        <v>2149411.454479799</v>
       </c>
       <c r="E5">
-        <v>995923.9418223609</v>
+        <v>1439128.734582136</v>
       </c>
       <c r="F5">
-        <v>499080.1759011137</v>
+        <v>1344817.738856483</v>
       </c>
       <c r="G5">
-        <v>306563.2458506891</v>
+        <v>1295519.135276374</v>
       </c>
       <c r="H5">
-        <v>287214.6565754326</v>
+        <v>1242428.684991512</v>
       </c>
       <c r="I5">
-        <v>203379.0319039942</v>
+        <v>1551435.391545877</v>
       </c>
       <c r="J5">
-        <v>165862.260963542</v>
+        <v>1704868.869159334</v>
       </c>
       <c r="K5">
-        <v>213790.6907842293</v>
+        <v>1478697.85391748</v>
       </c>
       <c r="L5">
-        <v>388716.5891332898</v>
+        <v>1362753.092029047</v>
       </c>
       <c r="M5">
-        <v>338415.2376235322</v>
+        <v>1518470.051385538</v>
       </c>
       <c r="N5">
-        <v>425186.3321593324</v>
+        <v>1585232.130254602</v>
       </c>
       <c r="O5">
-        <v>533217.8721845702</v>
+        <v>2065207.429645389</v>
       </c>
       <c r="P5">
-        <v>3529921.410042091</v>
+        <v>16239868.18247488</v>
       </c>
       <c r="Q5">
-        <v>3532417.325437126</v>
+        <v>16239906.37529962</v>
       </c>
       <c r="R5">
-        <v>3535471.199540295</v>
+        <v>16239543.37563867</v>
       </c>
       <c r="S5">
-        <v>11253285.54521802</v>
+        <v>54040589.02552959</v>
       </c>
       <c r="T5">
-        <v>11257574.47100712</v>
+        <v>54038689.04807176</v>
       </c>
       <c r="U5">
-        <v>11262471.61563974</v>
+        <v>54035343.11372478</v>
       </c>
       <c r="V5">
-        <v>11267936.7948878</v>
+        <v>54029836.47463441</v>
       </c>
       <c r="W5">
-        <v>11273906.90943887</v>
+        <v>54021122.40592901</v>
       </c>
       <c r="X5">
-        <v>10772414.51871099</v>
+        <v>56805483.36756951</v>
       </c>
       <c r="Y5">
-        <v>10779203.12676499</v>
+        <v>56785343.36260366</v>
       </c>
       <c r="Z5">
-        <v>10786371.77143875</v>
+        <v>56755753.1193978</v>
       </c>
       <c r="AA5">
-        <v>10794029.69298962</v>
+        <v>56713250.90698275</v>
       </c>
       <c r="AB5">
-        <v>10802458.24477617</v>
+        <v>56653526.80236299</v>
       </c>
       <c r="AC5">
-        <v>1801254.759697539</v>
+        <v>14853643.16441106</v>
       </c>
       <c r="AD5">
-        <v>1813095.067817081</v>
+        <v>14742782.37016296</v>
       </c>
       <c r="AE5">
-        <v>1828204.317212147</v>
+        <v>14595983.80715623</v>
       </c>
       <c r="AF5">
-        <v>1848052.522558907</v>
+        <v>14405036.47668436</v>
       </c>
       <c r="AG5">
-        <v>1874344.534818555</v>
+        <v>14160965.4776433</v>
       </c>
       <c r="AH5">
-        <v>204374.3400486798</v>
+        <v>-121859.5483294017</v>
       </c>
       <c r="AI5">
-        <v>248792.9832535175</v>
+        <v>-696190.6620982778</v>
       </c>
       <c r="AJ5">
-        <v>304400.5749421639</v>
+        <v>-1390823.959432746</v>
       </c>
       <c r="AK5">
-        <v>371886.2405280492</v>
+        <v>-1953802.285759205</v>
       </c>
       <c r="AL5">
-        <v>451115.5566156618</v>
+        <v>-2582914.069924235</v>
       </c>
       <c r="AM5">
-        <v>540961.4961567003</v>
+        <v>2610970.008628289</v>
       </c>
       <c r="AN5">
-        <v>639195.4324622758</v>
+        <v>1830768.122750149</v>
       </c>
       <c r="AO5">
-        <v>742479.5282097947</v>
+        <v>1001960.955862832</v>
       </c>
       <c r="AP5">
-        <v>846440.2564803202</v>
+        <v>154137.2452233536</v>
       </c>
       <c r="AQ5">
-        <v>945879.6276757841</v>
+        <v>-675591.2368233795</v>
       </c>
       <c r="AR5">
-        <v>1035187.589359238</v>
+        <v>6758024.219210423</v>
       </c>
       <c r="AS5">
-        <v>1108831.44948511</v>
+        <v>6091905.533933168</v>
       </c>
       <c r="AT5">
-        <v>1161968.350506955</v>
+        <v>5568572.404987115</v>
       </c>
       <c r="AU5">
-        <v>1191048.13782815</v>
+        <v>5218916.971586394</v>
       </c>
       <c r="AV5">
-        <v>2343871.558658456</v>
+        <v>5061349.59786189</v>
       </c>
       <c r="AW5">
-        <v>2646835.624409389</v>
+        <v>7498485.601740447</v>
       </c>
       <c r="AX5">
-        <v>2601279.903456337</v>
+        <v>7720332.950678174</v>
       </c>
       <c r="AY5">
-        <v>2536513.620622267</v>
+        <v>8100178.087970628</v>
       </c>
       <c r="AZ5">
-        <v>2457951.176699388</v>
+        <v>8601067.223037207</v>
       </c>
       <c r="BA5">
-        <v>2371809.991789562</v>
+        <v>9178243.852846228</v>
       </c>
       <c r="BB5">
-        <v>2117548.629441518</v>
+        <v>8385699.346253713</v>
       </c>
       <c r="BC5">
-        <v>2035494.60977754</v>
+        <v>8966810.34992657</v>
       </c>
       <c r="BD5">
-        <v>1964248.707069941</v>
+        <v>9476987.966666458</v>
       </c>
       <c r="BE5">
-        <v>1908395.115549221</v>
+        <v>9874571.762162831</v>
       </c>
       <c r="BF5">
-        <v>1871095.047059432</v>
+        <v>10127435.82449395</v>
       </c>
       <c r="BG5">
-        <v>1689075.50539843</v>
+        <v>9444627.672035204</v>
       </c>
       <c r="BH5">
-        <v>1691652.829119179</v>
+        <v>9361611.20948655</v>
       </c>
       <c r="BI5">
-        <v>1712341.925468352</v>
+        <v>9113339.432857769</v>
       </c>
       <c r="BJ5">
-        <v>1748347.685928397</v>
+        <v>8716171.62804989</v>
       </c>
       <c r="BK5">
-        <v>1796275.679387742</v>
+        <v>8193942.154558162</v>
       </c>
       <c r="BL5">
-        <v>1728646.507207921</v>
+        <v>7469961.339183913</v>
       </c>
       <c r="BM5">
-        <v>1789789.872622165</v>
+        <v>6786490.38035409</v>
       </c>
       <c r="BN5">
-        <v>1852525.240778111</v>
+        <v>6071006.010277417</v>
       </c>
       <c r="BO5">
-        <v>1913850.429029914</v>
+        <v>5356415.912823349</v>
       </c>
       <c r="BP5">
-        <v>1971059.617246651</v>
+        <v>4674166.592746292</v>
       </c>
       <c r="BQ5">
-        <v>1935377.18952197</v>
+        <v>4076774.90961935</v>
       </c>
       <c r="BR5">
-        <v>1977665.333512838</v>
+        <v>3539580.959159137</v>
       </c>
       <c r="BS5">
-        <v>2010002.21939749</v>
+        <v>3104456.456748025</v>
       </c>
       <c r="BT5">
-        <v>2031398.300048313</v>
+        <v>2782304.687556048</v>
       </c>
       <c r="BU5">
-        <v>2041419.547921177</v>
+        <v>2576697.033942798</v>
       </c>
       <c r="BV5">
-        <v>1955903.588918315</v>
+        <v>2264195.907525644</v>
       </c>
       <c r="BW5">
-        <v>1944285.024792138</v>
+        <v>2272965.725562173</v>
       </c>
       <c r="BX5">
-        <v>1923634.813189436</v>
+        <v>2366202.912442428</v>
       </c>
       <c r="BY5">
-        <v>1895923.32212873</v>
+        <v>2521867.109260812</v>
       </c>
       <c r="BZ5">
-        <v>1863592.090538655</v>
+        <v>2714879.230848034</v>
       </c>
       <c r="CA5">
-        <v>1740872.285278122</v>
+        <v>2528194.617631335</v>
       </c>
       <c r="CB5">
-        <v>1707663.575576252</v>
+        <v>2718255.289845983</v>
       </c>
       <c r="CC5">
-        <v>1678114.746642368</v>
+        <v>2871102.951938198</v>
       </c>
       <c r="CD5">
-        <v>1654506.100357424</v>
+        <v>2967452.291853295</v>
       </c>
       <c r="CE5">
-        <v>1638527.891577693</v>
+        <v>2992836.183550996</v>
       </c>
       <c r="CF5">
-        <v>1531345.607897239</v>
+        <v>2267874.752177094</v>
       </c>
       <c r="CG5">
-        <v>1532903.592032054</v>
+        <v>2130454.466476746</v>
       </c>
       <c r="CH5">
-        <v>1542971.620552969</v>
+        <v>1912616.191787023</v>
       </c>
       <c r="CI5">
-        <v>1560602.575033618</v>
+        <v>1621987.689544266</v>
       </c>
       <c r="CJ5">
-        <v>1584421.435270553</v>
+        <v>1270368.490168918</v>
       </c>
       <c r="CK5">
-        <v>1476322.580884</v>
+        <v>-179701.0221666571</v>
       </c>
       <c r="CL5">
-        <v>1507393.412089416</v>
+        <v>-606667.2161891621</v>
       </c>
       <c r="CM5">
-        <v>1539339.19854678</v>
+        <v>-1045347.495405768</v>
       </c>
       <c r="CN5">
-        <v>1570411.786038188</v>
+        <v>-1478529.65242723</v>
       </c>
       <c r="CO5">
-        <v>1599045.674785746</v>
+        <v>-1890389.063917893</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>261.9472600640528</v>
+        <v>1072.353283839067</v>
       </c>
       <c r="E2">
-        <v>564.5112483098653</v>
+        <v>2470.050402214806</v>
       </c>
       <c r="F2">
-        <v>1064.713580832773</v>
+        <v>3867.023789191748</v>
       </c>
       <c r="G2">
-        <v>1435.302022441202</v>
+        <v>5194.515755872628</v>
       </c>
       <c r="H2">
-        <v>2384.282318689235</v>
+        <v>6974.971751542806</v>
       </c>
       <c r="I2">
-        <v>2929.557225609062</v>
+        <v>8259.445960354602</v>
       </c>
       <c r="J2">
-        <v>3538.055363736339</v>
+        <v>10583.57399326197</v>
       </c>
       <c r="K2">
-        <v>4237.968829622355</v>
+        <v>12894.04671020658</v>
       </c>
       <c r="L2">
-        <v>4795.845021741201</v>
+        <v>14949.82542165631</v>
       </c>
       <c r="M2">
-        <v>5480.36263282998</v>
+        <v>16844.40458926615</v>
       </c>
       <c r="N2">
-        <v>5825.808468269634</v>
+        <v>20896.78519619908</v>
       </c>
       <c r="O2">
-        <v>6209.400728397502</v>
+        <v>23353.96663660111</v>
       </c>
       <c r="P2">
-        <v>6980.381601273356</v>
+        <v>28276.14212329085</v>
       </c>
       <c r="Q2">
-        <v>7758.461070790396</v>
+        <v>33576.12074566639</v>
       </c>
       <c r="R2">
-        <v>8543.768155331352</v>
+        <v>39254.97642972171</v>
       </c>
       <c r="S2">
-        <v>10515.28638148508</v>
+        <v>51710.87776642106</v>
       </c>
       <c r="T2">
-        <v>12490.34557212561</v>
+        <v>65054.86637387935</v>
       </c>
       <c r="U2">
-        <v>14470.81020433605</v>
+        <v>79288.93993595238</v>
       </c>
       <c r="V2">
-        <v>16458.93771163884</v>
+        <v>94416.38599628172</v>
       </c>
       <c r="W2">
-        <v>18455.00933318336</v>
+        <v>110439.9598799131</v>
       </c>
       <c r="X2">
-        <v>20286.95447549651</v>
+        <v>126493.8423642527</v>
       </c>
       <c r="Y2">
-        <v>22128.17874970573</v>
+        <v>143369.7377819169</v>
       </c>
       <c r="Z2">
-        <v>23977.63207769134</v>
+        <v>161069.8274779941</v>
       </c>
       <c r="AA2">
-        <v>25835.95529949772</v>
+        <v>179598.6473406876</v>
       </c>
       <c r="AB2">
-        <v>27709.96306801069</v>
+        <v>198962.4548554196</v>
       </c>
       <c r="AC2">
-        <v>28259.78882524174</v>
+        <v>207682.5233602805</v>
       </c>
       <c r="AD2">
-        <v>28834.24767053889</v>
+        <v>216563.3209423576</v>
       </c>
       <c r="AE2">
-        <v>29432.91672586709</v>
+        <v>225621.6088698962</v>
       </c>
       <c r="AF2">
-        <v>30035.94630329657</v>
+        <v>234860.8134826279</v>
       </c>
       <c r="AG2">
-        <v>30638.37367670823</v>
+        <v>244297.23293618</v>
       </c>
       <c r="AH2">
-        <v>31060.22317899247</v>
+        <v>249839.7067653567</v>
       </c>
       <c r="AI2">
-        <v>31485.1492212366</v>
+        <v>255364.9928213742</v>
       </c>
       <c r="AJ2">
-        <v>31912.54597126568</v>
+        <v>260928.7751768556</v>
       </c>
       <c r="AK2">
-        <v>32344.95251399587</v>
+        <v>266593.438606383</v>
       </c>
       <c r="AL2">
-        <v>32802.12458293604</v>
+        <v>272368.0982607878</v>
       </c>
       <c r="AM2">
-        <v>33303.80969695441</v>
+        <v>280111.0199666271</v>
       </c>
       <c r="AN2">
-        <v>33853.97308969918</v>
+        <v>288188.1998345367</v>
       </c>
       <c r="AO2">
-        <v>34468.93363153014</v>
+        <v>296699.4415040964</v>
       </c>
       <c r="AP2">
-        <v>35164.02827533264</v>
+        <v>305744.4844682223</v>
       </c>
       <c r="AQ2">
-        <v>35905.30901417151</v>
+        <v>315196.6280850106</v>
       </c>
       <c r="AR2">
-        <v>36660.37924488024</v>
+        <v>328217.2216260965</v>
       </c>
       <c r="AS2">
-        <v>37424.4158851918</v>
+        <v>341592.5150518291</v>
       </c>
       <c r="AT2">
-        <v>38192.55113445189</v>
+        <v>355276.1374435996</v>
       </c>
       <c r="AU2">
-        <v>38960.31013860155</v>
+        <v>369219.1403497242</v>
       </c>
       <c r="AV2">
-        <v>39739.5663142659</v>
+        <v>383398.6278995847</v>
       </c>
       <c r="AW2">
-        <v>40520.9093810313</v>
+        <v>398500.3544337485</v>
       </c>
       <c r="AX2">
-        <v>41501.63893899975</v>
+        <v>413644.8705806711</v>
       </c>
       <c r="AY2">
-        <v>42438.59684048261</v>
+        <v>428554.1130313725</v>
       </c>
       <c r="AZ2">
-        <v>43314.00934782792</v>
+        <v>443022.1624599181</v>
       </c>
       <c r="BA2">
-        <v>44163.74219723378</v>
+        <v>457290.6423473077</v>
       </c>
       <c r="BB2">
-        <v>44991.65339536441</v>
+        <v>470700.0347703077</v>
       </c>
       <c r="BC2">
-        <v>45817.74241292285</v>
+        <v>484111.0231377255</v>
       </c>
       <c r="BD2">
-        <v>46634.3157185211</v>
+        <v>497445.6224090767</v>
       </c>
       <c r="BE2">
-        <v>47439.95082215829</v>
+        <v>510659.8991201592</v>
       </c>
       <c r="BF2">
-        <v>48241.71671170378</v>
+        <v>523886.7605323536</v>
       </c>
       <c r="BG2">
-        <v>49022.67157925863</v>
+        <v>536629.5955290323</v>
       </c>
       <c r="BH2">
-        <v>49819.00318622762</v>
+        <v>549615.471893516</v>
       </c>
       <c r="BI2">
-        <v>50645.04344532066</v>
+        <v>562944.7781347068</v>
       </c>
       <c r="BJ2">
-        <v>51514.81435205101</v>
+        <v>576721.0296670386</v>
       </c>
       <c r="BK2">
-        <v>52437.97193142539</v>
+        <v>590988.7357846547</v>
       </c>
       <c r="BL2">
-        <v>53400.32741025716</v>
+        <v>605417.882729813</v>
       </c>
       <c r="BM2">
-        <v>54417.39429604196</v>
+        <v>620412.405589624</v>
       </c>
       <c r="BN2">
-        <v>55471.4115232818</v>
+        <v>635987.2122199306</v>
       </c>
       <c r="BO2">
-        <v>56543.69026756018</v>
+        <v>652115.7537530314</v>
       </c>
       <c r="BP2">
-        <v>57625.26060495171</v>
+        <v>668667.8582145135</v>
       </c>
       <c r="BQ2">
-        <v>58699.59467562589</v>
+        <v>685342.6392224036</v>
       </c>
       <c r="BR2">
-        <v>59779.07842339089</v>
+        <v>702287.434304563</v>
       </c>
       <c r="BS2">
-        <v>60863.24377347192</v>
+        <v>719463.7128650667</v>
       </c>
       <c r="BT2">
-        <v>61949.81602896668</v>
+        <v>736786.2284708784</v>
       </c>
       <c r="BU2">
-        <v>63029.55017020732</v>
+        <v>754091.6515931519</v>
       </c>
       <c r="BV2">
-        <v>64071.66164803806</v>
+        <v>770991.9999927683</v>
       </c>
       <c r="BW2">
-        <v>65084.30913486562</v>
+        <v>787662.468468798</v>
       </c>
       <c r="BX2">
-        <v>66081.71031117698</v>
+        <v>804179.6129761062</v>
       </c>
       <c r="BY2">
-        <v>67076.99793920563</v>
+        <v>820633.5653283416</v>
       </c>
       <c r="BZ2">
-        <v>68071.95977009565</v>
+        <v>837058.8385266708</v>
       </c>
       <c r="CA2">
-        <v>69050.23609396606</v>
+        <v>853240.4942778536</v>
       </c>
       <c r="CB2">
-        <v>70026.48610896801</v>
+        <v>869389.7788819768</v>
       </c>
       <c r="CC2">
-        <v>71005.75240086297</v>
+        <v>885571.2876188289</v>
       </c>
       <c r="CD2">
-        <v>71996.32494263421</v>
+        <v>901879.2173239536</v>
       </c>
       <c r="CE2">
-        <v>73009.32511045043</v>
+        <v>918420.3756967848</v>
       </c>
       <c r="CF2">
-        <v>74041.33336871921</v>
+        <v>935028.4634049351</v>
       </c>
       <c r="CG2">
-        <v>75118.12858343754</v>
+        <v>952022.7769466621</v>
       </c>
       <c r="CH2">
-        <v>76244.98633217163</v>
+        <v>969441.1835580901</v>
       </c>
       <c r="CI2">
-        <v>77421.14402575247</v>
+        <v>987309.7638444973</v>
       </c>
       <c r="CJ2">
-        <v>78639.47737185529</v>
+        <v>1005657.347439404</v>
       </c>
       <c r="CK2">
-        <v>79866.36707977265</v>
+        <v>1024081.422243615</v>
       </c>
       <c r="CL2">
-        <v>81111.23038064732</v>
+        <v>1042926.551599819</v>
       </c>
       <c r="CM2">
-        <v>82366.23330156185</v>
+        <v>1062108.546053231</v>
       </c>
       <c r="CN2">
-        <v>83627.80858915552</v>
+        <v>1081548.999454106</v>
       </c>
       <c r="CO2">
-        <v>84894.42145535658</v>
+        <v>1101197.48926355</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.48537993724342</v>
+        <v>70.90986595796893</v>
       </c>
       <c r="E3">
-        <v>35.64126850001205</v>
+        <v>163.612653435272</v>
       </c>
       <c r="F3">
-        <v>67.95227137196412</v>
+        <v>256.1485713634085</v>
       </c>
       <c r="G3">
-        <v>91.55882505369019</v>
+        <v>344.0167718933077</v>
       </c>
       <c r="H3">
-        <v>154.1114174301326</v>
+        <v>462.4056731627882</v>
       </c>
       <c r="I3">
-        <v>189.5380254539318</v>
+        <v>547.4708149766063</v>
       </c>
       <c r="J3">
-        <v>229.0984327837957</v>
+        <v>702.2504592918109</v>
       </c>
       <c r="K3">
-        <v>274.6454455175687</v>
+        <v>855.9607356730942</v>
       </c>
       <c r="L3">
-        <v>310.6976431225825</v>
+        <v>992.6101549250728</v>
       </c>
       <c r="M3">
-        <v>355.1824150807658</v>
+        <v>1118.355430941692</v>
       </c>
       <c r="N3">
-        <v>376.8012459508082</v>
+        <v>1388.937676630972</v>
       </c>
       <c r="O3">
-        <v>401.1198250528995</v>
+        <v>1552.517242839087</v>
       </c>
       <c r="P3">
-        <v>451.3731157110839</v>
+        <v>1881.529783915265</v>
       </c>
       <c r="Q3">
-        <v>502.0669407484772</v>
+        <v>2235.880866036703</v>
       </c>
       <c r="R3">
-        <v>553.210121837977</v>
+        <v>2615.642823292981</v>
       </c>
       <c r="S3">
-        <v>683.9536430731865</v>
+        <v>3450.391969184561</v>
       </c>
       <c r="T3">
-        <v>814.8899566572799</v>
+        <v>4344.743753903666</v>
       </c>
       <c r="U3">
-        <v>946.144222431652</v>
+        <v>5298.832169116065</v>
       </c>
       <c r="V3">
-        <v>1077.868034183833</v>
+        <v>6312.877873443628</v>
       </c>
       <c r="W3">
-        <v>1210.080284410197</v>
+        <v>7387.065815053576</v>
       </c>
       <c r="X3">
-        <v>1331.22809995027</v>
+        <v>8463.242282616919</v>
       </c>
       <c r="Y3">
-        <v>1452.955683065615</v>
+        <v>9594.584622837518</v>
       </c>
       <c r="Z3">
-        <v>1575.19257351267</v>
+        <v>10781.23943410163</v>
       </c>
       <c r="AA3">
-        <v>1697.981822019387</v>
+        <v>12023.51119370204</v>
       </c>
       <c r="AB3">
-        <v>1821.781050976558</v>
+        <v>13321.82001078662</v>
       </c>
       <c r="AC3">
-        <v>1856.627749878317</v>
+        <v>13905.36448096738</v>
       </c>
       <c r="AD3">
-        <v>1893.084281645027</v>
+        <v>14499.65789255393</v>
       </c>
       <c r="AE3">
-        <v>1931.122194037628</v>
+        <v>15105.82549582664</v>
       </c>
       <c r="AF3">
-        <v>1969.40837794095</v>
+        <v>15724.09762816268</v>
       </c>
       <c r="AG3">
-        <v>2007.609496817973</v>
+        <v>16355.56835992973</v>
       </c>
       <c r="AH3">
-        <v>2033.64112540239</v>
+        <v>16725.50390880871</v>
       </c>
       <c r="AI3">
-        <v>2059.832892577169</v>
+        <v>17094.23497116597</v>
       </c>
       <c r="AJ3">
-        <v>2086.143746239999</v>
+        <v>17465.49973337986</v>
       </c>
       <c r="AK3">
-        <v>2112.743690507408</v>
+        <v>17843.48650252611</v>
       </c>
       <c r="AL3">
-        <v>2140.95884482782</v>
+        <v>18228.80521730617</v>
       </c>
       <c r="AM3">
-        <v>2172.11448580981</v>
+        <v>18746.23935528986</v>
       </c>
       <c r="AN3">
-        <v>2206.476639822199</v>
+        <v>19286.06084281305</v>
       </c>
       <c r="AO3">
-        <v>2245.140536992881</v>
+        <v>19854.96950971559</v>
       </c>
       <c r="AP3">
-        <v>2289.135577612189</v>
+        <v>20459.66123021002</v>
       </c>
       <c r="AQ3">
-        <v>2336.183291524237</v>
+        <v>21091.63235501793</v>
       </c>
       <c r="AR3">
-        <v>2384.10782881589</v>
+        <v>21963.18539224009</v>
       </c>
       <c r="AS3">
-        <v>2432.58572411339</v>
+        <v>22858.5055625001</v>
       </c>
       <c r="AT3">
-        <v>2481.290563799489</v>
+        <v>23774.48101850718</v>
       </c>
       <c r="AU3">
-        <v>2529.92234418108</v>
+        <v>24707.82709332147</v>
       </c>
       <c r="AV3">
-        <v>2579.276275779511</v>
+        <v>25657.0082209858</v>
       </c>
       <c r="AW3">
-        <v>2628.718300649148</v>
+        <v>26668.07313827983</v>
       </c>
       <c r="AX3">
-        <v>2691.500114530676</v>
+        <v>27681.9680193971</v>
       </c>
       <c r="AY3">
-        <v>2751.293517608481</v>
+        <v>28680.02475915511</v>
       </c>
       <c r="AZ3">
-        <v>2806.905871656777</v>
+        <v>29648.41825025625</v>
       </c>
       <c r="BA3">
-        <v>2860.744475941925</v>
+        <v>30603.37092206346</v>
       </c>
       <c r="BB3">
-        <v>2913.062725560857</v>
+        <v>31500.58193158105</v>
       </c>
       <c r="BC3">
-        <v>2965.203245435645</v>
+        <v>32397.85232134416</v>
       </c>
       <c r="BD3">
-        <v>3016.649340745571</v>
+        <v>33289.94437836322</v>
       </c>
       <c r="BE3">
-        <v>3067.305273777461</v>
+        <v>34173.90593202917</v>
       </c>
       <c r="BF3">
-        <v>3117.645122192956</v>
+        <v>35058.660313655</v>
       </c>
       <c r="BG3">
-        <v>3166.52675978077</v>
+        <v>35910.84862516374</v>
       </c>
       <c r="BH3">
-        <v>3216.37943340978</v>
+        <v>36779.29688983675</v>
       </c>
       <c r="BI3">
-        <v>3268.165001615569</v>
+        <v>37670.74258337844</v>
       </c>
       <c r="BJ3">
-        <v>3322.824590630447</v>
+        <v>38592.13361949783</v>
       </c>
       <c r="BK3">
-        <v>3381.00622011332</v>
+        <v>39546.4568929509</v>
       </c>
       <c r="BL3">
-        <v>3441.753710947987</v>
+        <v>40511.54334329772</v>
       </c>
       <c r="BM3">
-        <v>3506.108746787329</v>
+        <v>41514.52133151137</v>
       </c>
       <c r="BN3">
-        <v>3572.879233281455</v>
+        <v>42556.39357033372</v>
       </c>
       <c r="BO3">
-        <v>3640.810855154261</v>
+        <v>43635.37946607209</v>
       </c>
       <c r="BP3">
-        <v>3709.301656288735</v>
+        <v>44742.73987423589</v>
       </c>
       <c r="BQ3">
-        <v>3777.237179731276</v>
+        <v>45858.26430384923</v>
       </c>
       <c r="BR3">
-        <v>3845.449243544042</v>
+        <v>46991.85006216774</v>
       </c>
       <c r="BS3">
-        <v>3913.9066173466</v>
+        <v>48140.91116879675</v>
       </c>
       <c r="BT3">
-        <v>3982.456854119564</v>
+        <v>49299.72511253266</v>
       </c>
       <c r="BU3">
-        <v>4050.479700014814</v>
+        <v>50457.32653942304</v>
       </c>
       <c r="BV3">
-        <v>4115.904570836551</v>
+        <v>51587.65775297394</v>
       </c>
       <c r="BW3">
-        <v>4179.279557284064</v>
+        <v>52702.48593565296</v>
       </c>
       <c r="BX3">
-        <v>4241.558947605265</v>
+        <v>53806.9504375785</v>
       </c>
       <c r="BY3">
-        <v>4303.624092062675</v>
+        <v>54907.10208191898</v>
       </c>
       <c r="BZ3">
-        <v>4365.594833216182</v>
+        <v>56005.25857120104</v>
       </c>
       <c r="CA3">
-        <v>4426.368212042011</v>
+        <v>57086.98058472781</v>
       </c>
       <c r="CB3">
-        <v>4486.928361722128</v>
+        <v>58166.45468446747</v>
       </c>
       <c r="CC3">
-        <v>4547.613594362457</v>
+        <v>59248.01807886818</v>
       </c>
       <c r="CD3">
-        <v>4608.980191593895</v>
+        <v>60337.99550961518</v>
       </c>
       <c r="CE3">
-        <v>4671.774539662394</v>
+        <v>61443.558241787</v>
       </c>
       <c r="CF3">
-        <v>4735.761727563869</v>
+        <v>62553.52999103592</v>
       </c>
       <c r="CG3">
-        <v>4802.672391826973</v>
+        <v>63689.3506390601</v>
       </c>
       <c r="CH3">
-        <v>4872.860581099542</v>
+        <v>64853.56176450116</v>
       </c>
       <c r="CI3">
-        <v>4946.275042246549</v>
+        <v>66047.91426190286</v>
       </c>
       <c r="CJ3">
-        <v>5022.437542448236</v>
+        <v>67274.34447626167</v>
       </c>
       <c r="CK3">
-        <v>5099.086387510393</v>
+        <v>68505.81772734698</v>
       </c>
       <c r="CL3">
-        <v>5176.854184485947</v>
+        <v>69765.47507875053</v>
       </c>
       <c r="CM3">
-        <v>5255.215155411203</v>
+        <v>71047.66425875956</v>
       </c>
       <c r="CN3">
-        <v>5333.929926017497</v>
+        <v>72347.12104877032</v>
       </c>
       <c r="CO3">
-        <v>5412.895567229443</v>
+        <v>73660.46026215628</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>804639.2050553659</v>
+        <v>1624027.935765215</v>
       </c>
       <c r="E4">
-        <v>1353362.529320378</v>
+        <v>3082771.076034263</v>
       </c>
       <c r="F4">
-        <v>1708436.427766096</v>
+        <v>4356133.86646536</v>
       </c>
       <c r="G4">
-        <v>1999982.367653959</v>
+        <v>5833079.836070841</v>
       </c>
       <c r="H4">
-        <v>2327988.870166786</v>
+        <v>7455995.20258774</v>
       </c>
       <c r="I4">
-        <v>2584097.520784012</v>
+        <v>8998123.712434702</v>
       </c>
       <c r="J4">
-        <v>2833697.580378841</v>
+        <v>10674295.75919332</v>
       </c>
       <c r="K4">
-        <v>3071280.737027797</v>
+        <v>12210788.95741861</v>
       </c>
       <c r="L4">
-        <v>3377249.990599348</v>
+        <v>13735782.32957212</v>
       </c>
       <c r="M4">
-        <v>3657753.052128214</v>
+        <v>15768443.83158178</v>
       </c>
       <c r="N4">
-        <v>3964329.110268774</v>
+        <v>17692058.58165209</v>
       </c>
       <c r="O4">
-        <v>4351078.669680058</v>
+        <v>19589767.77781323</v>
       </c>
       <c r="P4">
-        <v>6152608.998734247</v>
+        <v>29485376.07749302</v>
       </c>
       <c r="Q4">
-        <v>7961206.851362932</v>
+        <v>39409004.24697524</v>
       </c>
       <c r="R4">
-        <v>9774067.730484076</v>
+        <v>49356873.90394948</v>
       </c>
       <c r="S4">
-        <v>15463285.08776202</v>
+        <v>80551061.47787049</v>
       </c>
       <c r="T4">
-        <v>21154893.70088381</v>
+        <v>111793180.5867862</v>
       </c>
       <c r="U4">
-        <v>26850065.5192398</v>
+        <v>143085998.4394816</v>
       </c>
       <c r="V4">
-        <v>32549174.10306183</v>
+        <v>174431641.7862343</v>
       </c>
       <c r="W4">
-        <v>38252214.73638891</v>
+        <v>205831571.4750862</v>
       </c>
       <c r="X4">
-        <v>43627102.9057575</v>
+        <v>238131963.0369614</v>
       </c>
       <c r="Y4">
-        <v>49006978.30586433</v>
+        <v>270485334.9070609</v>
       </c>
       <c r="Z4">
-        <v>54390737.266729</v>
+        <v>302888091.1804947</v>
       </c>
       <c r="AA4">
-        <v>59778235.84872077</v>
+        <v>335339483.8027807</v>
       </c>
       <c r="AB4">
-        <v>65170513.14576576</v>
+        <v>367838270.9942567</v>
       </c>
       <c r="AC4">
-        <v>66068168.06564754</v>
+        <v>376298112.1516236</v>
       </c>
       <c r="AD4">
-        <v>66972619.30749371</v>
+        <v>384780839.0981289</v>
       </c>
       <c r="AE4">
-        <v>67885322.80019078</v>
+        <v>393284825.1978197</v>
       </c>
       <c r="AF4">
-        <v>68807068.39199966</v>
+        <v>401793828.2850819</v>
       </c>
       <c r="AG4">
-        <v>69739577.43116887</v>
+        <v>410307580.1545929</v>
       </c>
       <c r="AH4">
-        <v>69890446.40953721</v>
+        <v>411243204.1957942</v>
       </c>
       <c r="AI4">
-        <v>70062634.03627315</v>
+        <v>411993843.1706997</v>
       </c>
       <c r="AJ4">
-        <v>70264576.48270591</v>
+        <v>412620853.834038</v>
       </c>
       <c r="AK4">
-        <v>70507701.14445975</v>
+        <v>413212915.6920229</v>
       </c>
       <c r="AL4">
-        <v>70806279.64061813</v>
+        <v>413763269.4738643</v>
       </c>
       <c r="AM4">
-        <v>71172124.25519237</v>
+        <v>417716898.1347861</v>
       </c>
       <c r="AN4">
-        <v>71611664.30828971</v>
+        <v>421808456.1787772</v>
       </c>
       <c r="AO4">
-        <v>72139423.4210823</v>
+        <v>426081056.9829091</v>
       </c>
       <c r="AP4">
-        <v>72767119.06782754</v>
+        <v>430582782.6463168</v>
       </c>
       <c r="AQ4">
-        <v>73466789.31124635</v>
+        <v>435207602.0561628</v>
       </c>
       <c r="AR4">
-        <v>74208833.3030888</v>
+        <v>444871579.4511182</v>
       </c>
       <c r="AS4">
-        <v>74982493.74582787</v>
+        <v>454543212.2993874</v>
       </c>
       <c r="AT4">
-        <v>75775254.55503045</v>
+        <v>464206508.9894262</v>
       </c>
       <c r="AU4">
-        <v>76573692.55590217</v>
+        <v>473846823.3329328</v>
       </c>
       <c r="AV4">
-        <v>77810982.33601242</v>
+        <v>483465481.9791185</v>
       </c>
       <c r="AW4">
-        <v>79156360.11339197</v>
+        <v>494388938.215081</v>
       </c>
       <c r="AX4">
-        <v>80636535.38390981</v>
+        <v>505219186.7484785</v>
       </c>
       <c r="AY4">
-        <v>82044213.09263304</v>
+        <v>515853745.2397943</v>
       </c>
       <c r="AZ4">
-        <v>83357980.22609037</v>
+        <v>526227392.8063942</v>
       </c>
       <c r="BA4">
-        <v>84603306.44176149</v>
+        <v>536462681.6142334</v>
       </c>
       <c r="BB4">
-        <v>85722103.60563241</v>
+        <v>545728025.881147</v>
       </c>
       <c r="BC4">
-        <v>86801684.33614601</v>
+        <v>554962862.2072119</v>
       </c>
       <c r="BD4">
-        <v>87843653.5036065</v>
+        <v>564180589.106555</v>
       </c>
       <c r="BE4">
-        <v>88854122.44951001</v>
+        <v>573435104.2622405</v>
       </c>
       <c r="BF4">
-        <v>89848399.65979671</v>
+        <v>582690690.7346631</v>
       </c>
       <c r="BG4">
-        <v>90760396.35430177</v>
+        <v>591386972.0804588</v>
       </c>
       <c r="BH4">
-        <v>91689408.54196812</v>
+        <v>600063399.0055901</v>
       </c>
       <c r="BI4">
-        <v>92650629.35551733</v>
+        <v>608833451.1878633</v>
       </c>
       <c r="BJ4">
-        <v>93657315.57835229</v>
+        <v>617755515.732687</v>
       </c>
       <c r="BK4">
-        <v>94720134.8375407</v>
+        <v>626846017.3535269</v>
       </c>
       <c r="BL4">
-        <v>95783329.10039249</v>
+        <v>635983995.441143</v>
       </c>
       <c r="BM4">
-        <v>96908200.14266607</v>
+        <v>645290570.7059706</v>
       </c>
       <c r="BN4">
-        <v>98081361.87141028</v>
+        <v>654730822.1146839</v>
       </c>
       <c r="BO4">
-        <v>99287355.88325062</v>
+        <v>664258165.3507601</v>
       </c>
       <c r="BP4">
-        <v>100516991.0952663</v>
+        <v>673814241.2769001</v>
       </c>
       <c r="BQ4">
-        <v>101720729.7971047</v>
+        <v>683341108.575982</v>
       </c>
       <c r="BR4">
-        <v>102937295.2009112</v>
+        <v>692845145.8363385</v>
       </c>
       <c r="BS4">
-        <v>104161369.4962721</v>
+        <v>702314057.4094528</v>
       </c>
       <c r="BT4">
-        <v>105385341.4366284</v>
+        <v>711718657.7242274</v>
       </c>
       <c r="BU4">
-        <v>106595628.8213768</v>
+        <v>721004589.9495528</v>
       </c>
       <c r="BV4">
-        <v>107729574.9029123</v>
+        <v>729980690.2790563</v>
       </c>
       <c r="BW4">
-        <v>108821390.3902808</v>
+        <v>738789590.9400734</v>
       </c>
       <c r="BX4">
-        <v>109880225.7750834</v>
+        <v>747552939.9778246</v>
       </c>
       <c r="BY4">
-        <v>110916913.7759729</v>
+        <v>756379989.237529</v>
       </c>
       <c r="BZ4">
-        <v>111934852.8361636</v>
+        <v>765226713.8985312</v>
       </c>
       <c r="CA4">
-        <v>112889208.6223745</v>
+        <v>773863491.8085886</v>
       </c>
       <c r="CB4">
-        <v>113827697.6347889</v>
+        <v>782485742.4358951</v>
       </c>
       <c r="CC4">
-        <v>114757299.5838688</v>
+        <v>791082702.0927172</v>
       </c>
       <c r="CD4">
-        <v>115687650.9326703</v>
+        <v>799637271.668077</v>
       </c>
       <c r="CE4">
-        <v>116629616.0990172</v>
+        <v>808107170.7857788</v>
       </c>
       <c r="CF4">
-        <v>117543019.4490939</v>
+        <v>816266746.7062043</v>
       </c>
       <c r="CG4">
-        <v>118487396.05236</v>
+        <v>824562617.9466822</v>
       </c>
       <c r="CH4">
-        <v>119468833.9146859</v>
+        <v>833006793.9424822</v>
       </c>
       <c r="CI4">
-        <v>120489188.5424356</v>
+        <v>841595456.3816193</v>
       </c>
       <c r="CJ4">
-        <v>121545080.4851215</v>
+        <v>850312467.0826936</v>
       </c>
       <c r="CK4">
-        <v>122559077.8672679</v>
+        <v>858558970.0941741</v>
       </c>
       <c r="CL4">
-        <v>123591459.5783014</v>
+        <v>866859932.9062363</v>
       </c>
       <c r="CM4">
-        <v>124635872.54712</v>
+        <v>875174154.9214832</v>
       </c>
       <c r="CN4">
-        <v>125688448.0508006</v>
+        <v>883471050.2451409</v>
       </c>
       <c r="CO4">
-        <v>126746095.2632313</v>
+        <v>891730830.8808159</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694765.500019309</v>
+        <v>2149411.454479799</v>
       </c>
       <c r="E5">
-        <v>2690689.44184167</v>
+        <v>3588540.189061934</v>
       </c>
       <c r="F5">
-        <v>3189769.617742783</v>
+        <v>4933357.927918417</v>
       </c>
       <c r="G5">
-        <v>3496332.863593473</v>
+        <v>6228877.063194792</v>
       </c>
       <c r="H5">
-        <v>3783547.520168905</v>
+        <v>7471305.748186304</v>
       </c>
       <c r="I5">
-        <v>3986926.552072899</v>
+        <v>9022741.139732182</v>
       </c>
       <c r="J5">
-        <v>4152788.813036441</v>
+        <v>10727610.00889152</v>
       </c>
       <c r="K5">
-        <v>4366579.503820671</v>
+        <v>12206307.86280899</v>
       </c>
       <c r="L5">
-        <v>4755296.09295396</v>
+        <v>13569060.95483804</v>
       </c>
       <c r="M5">
-        <v>5093711.330577493</v>
+        <v>15087531.00622358</v>
       </c>
       <c r="N5">
-        <v>5518897.662736825</v>
+        <v>16672763.13647818</v>
       </c>
       <c r="O5">
-        <v>6052115.534921395</v>
+        <v>18737970.56612357</v>
       </c>
       <c r="P5">
-        <v>9582036.944963485</v>
+        <v>34977838.74859846</v>
       </c>
       <c r="Q5">
-        <v>13114454.27040061</v>
+        <v>51217745.12389807</v>
       </c>
       <c r="R5">
-        <v>16649925.46994091</v>
+        <v>67457288.49953674</v>
       </c>
       <c r="S5">
-        <v>27903211.01515893</v>
+        <v>121497877.5250663</v>
       </c>
       <c r="T5">
-        <v>39160785.48616605</v>
+        <v>175536566.5731381</v>
       </c>
       <c r="U5">
-        <v>50423257.10180578</v>
+        <v>229571909.6868628</v>
       </c>
       <c r="V5">
-        <v>61691193.89669359</v>
+        <v>283601746.1614972</v>
       </c>
       <c r="W5">
-        <v>72965100.80613247</v>
+        <v>337622868.5674263</v>
       </c>
       <c r="X5">
-        <v>83737515.32484347</v>
+        <v>394428351.9349958</v>
       </c>
       <c r="Y5">
-        <v>94516718.45160845</v>
+        <v>451213695.2975994</v>
       </c>
       <c r="Z5">
-        <v>105303090.2230472</v>
+        <v>507969448.4169973</v>
       </c>
       <c r="AA5">
-        <v>116097119.9160368</v>
+        <v>564682699.32398</v>
       </c>
       <c r="AB5">
-        <v>126899578.160813</v>
+        <v>621336226.126343</v>
       </c>
       <c r="AC5">
-        <v>128700832.9205105</v>
+        <v>636189869.2907541</v>
       </c>
       <c r="AD5">
-        <v>130513927.9883276</v>
+        <v>650932651.660917</v>
       </c>
       <c r="AE5">
-        <v>132342132.3055398</v>
+        <v>665528635.4680732</v>
       </c>
       <c r="AF5">
-        <v>134190184.8280987</v>
+        <v>679933671.9447576</v>
       </c>
       <c r="AG5">
-        <v>136064529.3629172</v>
+        <v>694094637.4224008</v>
       </c>
       <c r="AH5">
-        <v>136268903.7029659</v>
+        <v>693972777.8740715</v>
       </c>
       <c r="AI5">
-        <v>136517696.6862194</v>
+        <v>693276587.2119732</v>
       </c>
       <c r="AJ5">
-        <v>136822097.2611616</v>
+        <v>691885763.2525405</v>
       </c>
       <c r="AK5">
-        <v>137193983.5016896</v>
+        <v>689931960.9667813</v>
       </c>
       <c r="AL5">
-        <v>137645099.0583053</v>
+        <v>687349046.896857</v>
       </c>
       <c r="AM5">
-        <v>138186060.554462</v>
+        <v>689960016.9054853</v>
       </c>
       <c r="AN5">
-        <v>138825255.9869242</v>
+        <v>691790785.0282354</v>
       </c>
       <c r="AO5">
-        <v>139567735.515134</v>
+        <v>692792745.9840983</v>
       </c>
       <c r="AP5">
-        <v>140414175.7716143</v>
+        <v>692946883.2293217</v>
       </c>
       <c r="AQ5">
-        <v>141360055.3992901</v>
+        <v>692271291.9924984</v>
       </c>
       <c r="AR5">
-        <v>142395242.9886493</v>
+        <v>699029316.2117088</v>
       </c>
       <c r="AS5">
-        <v>143504074.4381345</v>
+        <v>705121221.7456419</v>
       </c>
       <c r="AT5">
-        <v>144666042.7886414</v>
+        <v>710689794.150629</v>
       </c>
       <c r="AU5">
-        <v>145857090.9264696</v>
+        <v>715908711.1222154</v>
       </c>
       <c r="AV5">
-        <v>148200962.485128</v>
+        <v>720970060.7200773</v>
       </c>
       <c r="AW5">
-        <v>150847798.1095374</v>
+        <v>728468546.3218178</v>
       </c>
       <c r="AX5">
-        <v>153449078.0129937</v>
+        <v>736188879.272496</v>
       </c>
       <c r="AY5">
-        <v>155985591.633616</v>
+        <v>744289057.3604666</v>
       </c>
       <c r="AZ5">
-        <v>158443542.8103154</v>
+        <v>752890124.5835038</v>
       </c>
       <c r="BA5">
-        <v>160815352.8021049</v>
+        <v>762068368.4363501</v>
       </c>
       <c r="BB5">
-        <v>162932901.4315465</v>
+        <v>770454067.7826039</v>
       </c>
       <c r="BC5">
-        <v>164968396.041324</v>
+        <v>779420878.1325305</v>
       </c>
       <c r="BD5">
-        <v>166932644.748394</v>
+        <v>788897866.0991969</v>
       </c>
       <c r="BE5">
-        <v>168841039.8639432</v>
+        <v>798772437.8613597</v>
       </c>
       <c r="BF5">
-        <v>170712134.9110026</v>
+        <v>808899873.6858537</v>
       </c>
       <c r="BG5">
-        <v>172401210.416401</v>
+        <v>818344501.3578889</v>
       </c>
       <c r="BH5">
-        <v>174092863.2455202</v>
+        <v>827706112.5673755</v>
       </c>
       <c r="BI5">
-        <v>175805205.1709886</v>
+        <v>836819452.0002333</v>
       </c>
       <c r="BJ5">
-        <v>177553552.856917</v>
+        <v>845535623.6282831</v>
       </c>
       <c r="BK5">
-        <v>179349828.5363047</v>
+        <v>853729565.7828413</v>
       </c>
       <c r="BL5">
-        <v>181078475.0435126</v>
+        <v>861199527.1220253</v>
       </c>
       <c r="BM5">
-        <v>182868264.9161348</v>
+        <v>867986017.5023793</v>
       </c>
       <c r="BN5">
-        <v>184720790.1569129</v>
+        <v>874057023.5126567</v>
       </c>
       <c r="BO5">
-        <v>186634640.5859428</v>
+        <v>879413439.42548</v>
       </c>
       <c r="BP5">
-        <v>188605700.2031895</v>
+        <v>884087606.0182263</v>
       </c>
       <c r="BQ5">
-        <v>190541077.3927115</v>
+        <v>888164380.9278456</v>
       </c>
       <c r="BR5">
-        <v>192518742.7262243</v>
+        <v>891703961.8870047</v>
       </c>
       <c r="BS5">
-        <v>194528744.9456218</v>
+        <v>894808418.3437527</v>
       </c>
       <c r="BT5">
-        <v>196560143.2456701</v>
+        <v>897590723.0313088</v>
       </c>
       <c r="BU5">
-        <v>198601562.7935913</v>
+        <v>900167420.0652516</v>
       </c>
       <c r="BV5">
-        <v>200557466.3825096</v>
+        <v>902431615.9727772</v>
       </c>
       <c r="BW5">
-        <v>202501751.4073018</v>
+        <v>904704581.6983395</v>
       </c>
       <c r="BX5">
-        <v>204425386.2204912</v>
+        <v>907070784.6107819</v>
       </c>
       <c r="BY5">
-        <v>206321309.5426199</v>
+        <v>909592651.7200427</v>
       </c>
       <c r="BZ5">
-        <v>208184901.6331586</v>
+        <v>912307530.9508908</v>
       </c>
       <c r="CA5">
-        <v>209925773.9184367</v>
+        <v>914835725.5685221</v>
       </c>
       <c r="CB5">
-        <v>211633437.494013</v>
+        <v>917553980.858368</v>
       </c>
       <c r="CC5">
-        <v>213311552.2406553</v>
+        <v>920425083.8103062</v>
       </c>
       <c r="CD5">
-        <v>214966058.3410127</v>
+        <v>923392536.1021595</v>
       </c>
       <c r="CE5">
-        <v>216604586.2325904</v>
+        <v>926385372.2857105</v>
       </c>
       <c r="CF5">
-        <v>218135931.8404877</v>
+        <v>928653247.0378876</v>
       </c>
       <c r="CG5">
-        <v>219668835.4325197</v>
+        <v>930783701.5043644</v>
       </c>
       <c r="CH5">
-        <v>221211807.0530727</v>
+        <v>932696317.6961514</v>
       </c>
       <c r="CI5">
-        <v>222772409.6281063</v>
+        <v>934318305.3856957</v>
       </c>
       <c r="CJ5">
-        <v>224356831.0633768</v>
+        <v>935588673.8758646</v>
       </c>
       <c r="CK5">
-        <v>225833153.6442609</v>
+        <v>935408972.853698</v>
       </c>
       <c r="CL5">
-        <v>227340547.0563503</v>
+        <v>934802305.6375089</v>
       </c>
       <c r="CM5">
-        <v>228879886.254897</v>
+        <v>933756958.1421031</v>
       </c>
       <c r="CN5">
-        <v>230450298.0409352</v>
+        <v>932278428.4896759</v>
       </c>
       <c r="CO5">
-        <v>232049343.715721</v>
+        <v>930388039.425758</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/RR/Results_world_base_RR_full.xlsx
+++ b/Results/Baseline/RR/Results_world_base_RR_full.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Results/Baseline/RR/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_7D5EF40968596325ADB1BC624DEF7573503A3F2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD5FC6D7-08E6-4DC4-9FC3-73CD8D969D0E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual production" sheetId="1" r:id="rId1"/>
     <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -38,8 +44,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,9 +97,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -102,13 +115,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,7 +167,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -180,6 +201,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -214,9 +236,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,14 +412,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:G28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.35">
       <c r="D1" s="1">
         <v>2011</v>
       </c>
@@ -668,11 +696,11 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:93">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -682,49 +710,49 @@
         <v>1072.353283839067</v>
       </c>
       <c r="E2">
-        <v>1397.697118375739</v>
+        <v>1397.6971183757389</v>
       </c>
       <c r="F2">
         <v>1396.973386976942</v>
       </c>
       <c r="G2">
-        <v>1327.49196668088</v>
+        <v>1327.4919666808801</v>
       </c>
       <c r="H2">
-        <v>1780.455995670179</v>
+        <v>1780.4559956701789</v>
       </c>
       <c r="I2">
-        <v>1284.474208811795</v>
+        <v>1284.4742088117951</v>
       </c>
       <c r="J2">
         <v>2324.128032907367</v>
       </c>
       <c r="K2">
-        <v>2310.472716944614</v>
+        <v>2310.4727169446141</v>
       </c>
       <c r="L2">
-        <v>2055.778711449723</v>
+        <v>2055.7787114497228</v>
       </c>
       <c r="M2">
-        <v>1894.579167609841</v>
+        <v>1894.5791676098411</v>
       </c>
       <c r="N2">
-        <v>4052.380606932934</v>
+        <v>4052.3806069329339</v>
       </c>
       <c r="O2">
         <v>2457.181440402027</v>
       </c>
       <c r="P2">
-        <v>4922.175486689748</v>
+        <v>4922.1754866897481</v>
       </c>
       <c r="Q2">
-        <v>5299.978622375539</v>
+        <v>5299.9786223755391</v>
       </c>
       <c r="R2">
-        <v>5678.855684055323</v>
+        <v>5678.8556840553229</v>
       </c>
       <c r="S2">
-        <v>12455.90133669935</v>
+        <v>12455.901336699349</v>
       </c>
       <c r="T2">
         <v>13343.98860745829</v>
@@ -733,70 +761,70 @@
         <v>14234.07356207303</v>
       </c>
       <c r="V2">
-        <v>15127.44606032934</v>
+        <v>15127.446060329339</v>
       </c>
       <c r="W2">
-        <v>16023.57388363136</v>
+        <v>16023.573883631359</v>
       </c>
       <c r="X2">
-        <v>16053.88248433963</v>
+        <v>16053.882484339631</v>
       </c>
       <c r="Y2">
-        <v>16875.89541766425</v>
+        <v>16875.895417664251</v>
       </c>
       <c r="Z2">
-        <v>17700.0896960772</v>
+        <v>17700.089696077201</v>
       </c>
       <c r="AA2">
-        <v>18528.81986269342</v>
+        <v>18528.819862693421</v>
       </c>
       <c r="AB2">
-        <v>19363.80751473205</v>
+        <v>19363.807514732049</v>
       </c>
       <c r="AC2">
-        <v>8720.068504860867</v>
+        <v>8720.0685048608666</v>
       </c>
       <c r="AD2">
         <v>8880.797582077128</v>
       </c>
       <c r="AE2">
-        <v>9058.287927538566</v>
+        <v>9058.2879275385658</v>
       </c>
       <c r="AF2">
-        <v>9239.204612731695</v>
+        <v>9239.2046127316953</v>
       </c>
       <c r="AG2">
-        <v>9436.419453552146</v>
+        <v>9436.4194535521456</v>
       </c>
       <c r="AH2">
-        <v>5542.4738291767</v>
+        <v>5542.4738291766998</v>
       </c>
       <c r="AI2">
-        <v>5525.286056017435</v>
+        <v>5525.2860560174349</v>
       </c>
       <c r="AJ2">
-        <v>5563.782355481401</v>
+        <v>5563.7823554814013</v>
       </c>
       <c r="AK2">
-        <v>5664.663429527501</v>
+        <v>5664.6634295275007</v>
       </c>
       <c r="AL2">
-        <v>5774.659654404786</v>
+        <v>5774.6596544047861</v>
       </c>
       <c r="AM2">
-        <v>7742.921705839284</v>
+        <v>7742.9217058392842</v>
       </c>
       <c r="AN2">
-        <v>8077.179867909555</v>
+        <v>8077.1798679095546</v>
       </c>
       <c r="AO2">
-        <v>8511.241669559668</v>
+        <v>8511.2416695596676</v>
       </c>
       <c r="AP2">
-        <v>9045.042964125932</v>
+        <v>9045.0429641259325</v>
       </c>
       <c r="AQ2">
-        <v>9452.143616788342</v>
+        <v>9452.1436167883421</v>
       </c>
       <c r="AR2">
         <v>13020.59354108584</v>
@@ -805,16 +833,16 @@
         <v>13375.29342573262</v>
       </c>
       <c r="AT2">
-        <v>13683.6223917705</v>
+        <v>13683.622391770499</v>
       </c>
       <c r="AU2">
         <v>13943.00290612465</v>
       </c>
       <c r="AV2">
-        <v>14179.48754986051</v>
+        <v>14179.487549860511</v>
       </c>
       <c r="AW2">
-        <v>15101.72653416384</v>
+        <v>15101.726534163839</v>
       </c>
       <c r="AX2">
         <v>15144.51614692256</v>
@@ -826,25 +854,25 @@
         <v>14468.04942854563</v>
       </c>
       <c r="BA2">
-        <v>14268.47988738955</v>
+        <v>14268.479887389551</v>
       </c>
       <c r="BB2">
         <v>13409.39242300001</v>
       </c>
       <c r="BC2">
-        <v>13410.98836741779</v>
+        <v>13410.988367417791</v>
       </c>
       <c r="BD2">
-        <v>13334.59927135124</v>
+        <v>13334.599271351241</v>
       </c>
       <c r="BE2">
-        <v>13214.27671108248</v>
+        <v>13214.276711082481</v>
       </c>
       <c r="BF2">
         <v>13226.86141219439</v>
       </c>
       <c r="BG2">
-        <v>12742.83499667864</v>
+        <v>12742.834996678641</v>
       </c>
       <c r="BH2">
         <v>12985.87636448368</v>
@@ -853,7 +881,7 @@
         <v>13329.30624119079</v>
       </c>
       <c r="BJ2">
-        <v>13776.25153233177</v>
+        <v>13776.251532331769</v>
       </c>
       <c r="BK2">
         <v>14267.70611761617</v>
@@ -865,31 +893,31 @@
         <v>14994.52285981097</v>
       </c>
       <c r="BN2">
-        <v>15574.80663030666</v>
+        <v>15574.806630306661</v>
       </c>
       <c r="BO2">
-        <v>16128.54153310078</v>
+        <v>16128.541533100781</v>
       </c>
       <c r="BP2">
         <v>16552.10446148214</v>
       </c>
       <c r="BQ2">
-        <v>16674.78100789013</v>
+        <v>16674.781007890131</v>
       </c>
       <c r="BR2">
-        <v>16944.79508215929</v>
+        <v>16944.795082159289</v>
       </c>
       <c r="BS2">
-        <v>17176.27856050376</v>
+        <v>17176.278560503761</v>
       </c>
       <c r="BT2">
-        <v>17322.51560581177</v>
+        <v>17322.515605811768</v>
       </c>
       <c r="BU2">
-        <v>17305.4231222734</v>
+        <v>17305.423122273402</v>
       </c>
       <c r="BV2">
-        <v>16900.34839961646</v>
+        <v>16900.348399616461</v>
       </c>
       <c r="BW2">
         <v>16670.46847602967</v>
@@ -898,31 +926,31 @@
         <v>16517.14450730824</v>
       </c>
       <c r="BY2">
-        <v>16453.9523522353</v>
+        <v>16453.952352235301</v>
       </c>
       <c r="BZ2">
-        <v>16425.27319832929</v>
+        <v>16425.273198329291</v>
       </c>
       <c r="CA2">
         <v>16181.65575118283</v>
       </c>
       <c r="CB2">
-        <v>16149.2846041232</v>
+        <v>16149.284604123201</v>
       </c>
       <c r="CC2">
-        <v>16181.50873685207</v>
+        <v>16181.508736852071</v>
       </c>
       <c r="CD2">
         <v>16307.92970512471</v>
       </c>
       <c r="CE2">
-        <v>16541.15837283122</v>
+        <v>16541.158372831222</v>
       </c>
       <c r="CF2">
         <v>16608.08770815024</v>
       </c>
       <c r="CG2">
-        <v>16994.31354172703</v>
+        <v>16994.313541727031</v>
       </c>
       <c r="CH2">
         <v>17418.40661142801</v>
@@ -931,53 +959,53 @@
         <v>17868.58028640713</v>
       </c>
       <c r="CJ2">
-        <v>18347.58359490629</v>
+        <v>18347.583594906289</v>
       </c>
       <c r="CK2">
-        <v>18424.07480421112</v>
+        <v>18424.074804211119</v>
       </c>
       <c r="CL2">
-        <v>18845.12935620473</v>
+        <v>18845.129356204729</v>
       </c>
       <c r="CM2">
-        <v>19181.99445341201</v>
+        <v>19181.994453412011</v>
       </c>
       <c r="CN2">
-        <v>19440.453400874</v>
+        <v>19440.453400874001</v>
       </c>
       <c r="CO2">
-        <v>19648.48980944431</v>
+        <v>19648.489809444309</v>
       </c>
     </row>
-    <row r="3" spans="1:93">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>70.90986595796893</v>
+        <v>70.909865957968933</v>
       </c>
       <c r="E3">
-        <v>92.70278747730308</v>
+        <v>92.702787477303076</v>
       </c>
       <c r="F3">
-        <v>92.53591792813646</v>
+        <v>92.535917928136456</v>
       </c>
       <c r="G3">
-        <v>87.8682005298993</v>
+        <v>87.868200529899298</v>
       </c>
       <c r="H3">
         <v>118.3889012694805</v>
       </c>
       <c r="I3">
-        <v>85.06514181381809</v>
+        <v>85.065141813818087</v>
       </c>
       <c r="J3">
-        <v>154.7796443152045</v>
+        <v>154.77964431520451</v>
       </c>
       <c r="K3">
-        <v>153.7102763812833</v>
+        <v>153.71027638128331</v>
       </c>
       <c r="L3">
         <v>136.6494192519786</v>
@@ -986,28 +1014,28 @@
         <v>125.7452760166197</v>
       </c>
       <c r="N3">
-        <v>270.5822456892791</v>
+        <v>270.58224568927909</v>
       </c>
       <c r="O3">
-        <v>163.5795662081159</v>
+        <v>163.57956620811589</v>
       </c>
       <c r="P3">
-        <v>329.0125410761777</v>
+        <v>329.01254107617768</v>
       </c>
       <c r="Q3">
-        <v>354.3510821214373</v>
+        <v>354.35108212143729</v>
       </c>
       <c r="R3">
-        <v>379.7619572562782</v>
+        <v>379.76195725627821</v>
       </c>
       <c r="S3">
-        <v>834.7491458915803</v>
+        <v>834.74914589158027</v>
       </c>
       <c r="T3">
-        <v>894.3517847191054</v>
+        <v>894.35178471910535</v>
       </c>
       <c r="U3">
-        <v>954.0884152123988</v>
+        <v>954.08841521239879</v>
       </c>
       <c r="V3">
         <v>1014.045704327563</v>
@@ -1016,31 +1044,31 @@
         <v>1074.187941609948</v>
       </c>
       <c r="X3">
-        <v>1076.176467563342</v>
+        <v>1076.1764675633419</v>
       </c>
       <c r="Y3">
         <v>1131.342340220599</v>
       </c>
       <c r="Z3">
-        <v>1186.654811264117</v>
+        <v>1186.6548112641169</v>
       </c>
       <c r="AA3">
         <v>1242.27175960041</v>
       </c>
       <c r="AB3">
-        <v>1298.308817084575</v>
+        <v>1298.3088170845749</v>
       </c>
       <c r="AC3">
-        <v>583.5444701807556</v>
+        <v>583.54447018075564</v>
       </c>
       <c r="AD3">
         <v>594.2934115865562</v>
       </c>
       <c r="AE3">
-        <v>606.1676032727111</v>
+        <v>606.16760327271106</v>
       </c>
       <c r="AF3">
-        <v>618.2721323360391</v>
+        <v>618.27213233603914</v>
       </c>
       <c r="AG3">
         <v>631.4707317670518</v>
@@ -1049,46 +1077,46 @@
         <v>369.93554887898</v>
       </c>
       <c r="AI3">
-        <v>368.7310623572561</v>
+        <v>368.73106235725612</v>
       </c>
       <c r="AJ3">
-        <v>371.2647622138876</v>
+        <v>371.26476221388759</v>
       </c>
       <c r="AK3">
-        <v>377.9867691462483</v>
+        <v>377.98676914624832</v>
       </c>
       <c r="AL3">
-        <v>385.3187147800629</v>
+        <v>385.31871478006292</v>
       </c>
       <c r="AM3">
-        <v>517.4341379836927</v>
+        <v>517.43413798369272</v>
       </c>
       <c r="AN3">
-        <v>539.8214875231919</v>
+        <v>539.82148752319188</v>
       </c>
       <c r="AO3">
         <v>568.9086669025321</v>
       </c>
       <c r="AP3">
-        <v>604.6917204944361</v>
+        <v>604.69172049443614</v>
       </c>
       <c r="AQ3">
-        <v>631.9711248079021</v>
+        <v>631.97112480790213</v>
       </c>
       <c r="AR3">
-        <v>871.5530372221667</v>
+        <v>871.55303722216672</v>
       </c>
       <c r="AS3">
-        <v>895.3201702600111</v>
+        <v>895.32017026001108</v>
       </c>
       <c r="AT3">
-        <v>915.9754560070717</v>
+        <v>915.97545600707167</v>
       </c>
       <c r="AU3">
-        <v>933.3460748142886</v>
+        <v>933.34607481428861</v>
       </c>
       <c r="AV3">
-        <v>949.1811276643379</v>
+        <v>949.18112766433785</v>
       </c>
       <c r="AW3">
         <v>1011.064917294028</v>
@@ -1097,106 +1125,106 @@
         <v>1013.89488111727</v>
       </c>
       <c r="AY3">
-        <v>998.0567397580055</v>
+        <v>998.05673975800551</v>
       </c>
       <c r="AZ3">
-        <v>968.3934911011449</v>
+        <v>968.39349110114495</v>
       </c>
       <c r="BA3">
-        <v>954.9526718072062</v>
+        <v>954.95267180720623</v>
       </c>
       <c r="BB3">
         <v>897.2110095175932</v>
       </c>
       <c r="BC3">
-        <v>897.2703897631091</v>
+        <v>897.27038976310905</v>
       </c>
       <c r="BD3">
-        <v>892.0920570190651</v>
+        <v>892.09205701906512</v>
       </c>
       <c r="BE3">
-        <v>883.9615536659446</v>
+        <v>883.96155366594462</v>
       </c>
       <c r="BF3">
-        <v>884.7543816258353</v>
+        <v>884.75438162583532</v>
       </c>
       <c r="BG3">
-        <v>852.1883115087364</v>
+        <v>852.18831150873643</v>
       </c>
       <c r="BH3">
         <v>868.4482646730155</v>
       </c>
       <c r="BI3">
-        <v>891.4456935416903</v>
+        <v>891.44569354169028</v>
       </c>
       <c r="BJ3">
-        <v>921.3910361193876</v>
+        <v>921.39103611938765</v>
       </c>
       <c r="BK3">
-        <v>954.3232734530678</v>
+        <v>954.32327345306783</v>
       </c>
       <c r="BL3">
-        <v>965.0864503468262</v>
+        <v>965.08645034682615</v>
       </c>
       <c r="BM3">
         <v>1002.977988213651</v>
       </c>
       <c r="BN3">
-        <v>1041.872238822344</v>
+        <v>1041.8722388223439</v>
       </c>
       <c r="BO3">
-        <v>1078.985895738368</v>
+        <v>1078.9858957383681</v>
       </c>
       <c r="BP3">
-        <v>1107.360408163801</v>
+        <v>1107.3604081638009</v>
       </c>
       <c r="BQ3">
-        <v>1115.52442961334</v>
+        <v>1115.5244296133401</v>
       </c>
       <c r="BR3">
-        <v>1133.585758318508</v>
+        <v>1133.5857583185079</v>
       </c>
       <c r="BS3">
-        <v>1149.061106629014</v>
+        <v>1149.0611066290139</v>
       </c>
       <c r="BT3">
         <v>1158.813943735903</v>
       </c>
       <c r="BU3">
-        <v>1157.601426890382</v>
+        <v>1157.6014268903821</v>
       </c>
       <c r="BV3">
-        <v>1130.331213550893</v>
+        <v>1130.3312135508929</v>
       </c>
       <c r="BW3">
-        <v>1114.82818267903</v>
+        <v>1114.8281826790301</v>
       </c>
       <c r="BX3">
         <v>1104.464501925539</v>
       </c>
       <c r="BY3">
-        <v>1100.151644340479</v>
+        <v>1100.1516443404789</v>
       </c>
       <c r="BZ3">
         <v>1098.15648928206</v>
       </c>
       <c r="CA3">
-        <v>1081.72201352677</v>
+        <v>1081.7220135267701</v>
       </c>
       <c r="CB3">
-        <v>1079.474099739661</v>
+        <v>1079.4740997396609</v>
       </c>
       <c r="CC3">
         <v>1081.563394400715</v>
       </c>
       <c r="CD3">
-        <v>1089.977430747001</v>
+        <v>1089.9774307470011</v>
       </c>
       <c r="CE3">
         <v>1105.562732171815</v>
       </c>
       <c r="CF3">
-        <v>1109.971749248927</v>
+        <v>1109.9717492489269</v>
       </c>
       <c r="CG3">
         <v>1135.820648024169</v>
@@ -1208,16 +1236,16 @@
         <v>1194.352497401695</v>
       </c>
       <c r="CJ3">
-        <v>1226.430214358821</v>
+        <v>1226.4302143588211</v>
       </c>
       <c r="CK3">
-        <v>1231.473251085311</v>
+        <v>1231.4732510853109</v>
       </c>
       <c r="CL3">
         <v>1259.657351403554</v>
       </c>
       <c r="CM3">
-        <v>1282.189180009029</v>
+        <v>1282.1891800090291</v>
       </c>
       <c r="CN3">
         <v>1299.456790010772</v>
@@ -1226,9 +1254,9 @@
         <v>1313.339213385962</v>
       </c>
     </row>
-    <row r="4" spans="1:93">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1248,34 +1276,34 @@
         <v>1622915.3665169</v>
       </c>
       <c r="I4">
-        <v>1542128.509846961</v>
+        <v>1542128.5098469609</v>
       </c>
       <c r="J4">
         <v>1676172.046758618</v>
       </c>
       <c r="K4">
-        <v>1536493.198225289</v>
+        <v>1536493.1982252889</v>
       </c>
       <c r="L4">
         <v>1524993.372153508</v>
       </c>
       <c r="M4">
-        <v>2032661.502009666</v>
+        <v>2032661.5020096661</v>
       </c>
       <c r="N4">
         <v>1923614.750070309</v>
       </c>
       <c r="O4">
-        <v>1897709.196161142</v>
+        <v>1897709.1961611421</v>
       </c>
       <c r="P4">
-        <v>9895608.299679782</v>
+        <v>9895608.2996797822</v>
       </c>
       <c r="Q4">
-        <v>9923628.169482224</v>
+        <v>9923628.1694822237</v>
       </c>
       <c r="R4">
-        <v>9947869.656974236</v>
+        <v>9947869.6569742355</v>
       </c>
       <c r="S4">
         <v>31194187.57392101</v>
@@ -1284,251 +1312,251 @@
         <v>31242119.10891572</v>
       </c>
       <c r="U4">
-        <v>31292817.85269543</v>
+        <v>31292817.852695432</v>
       </c>
       <c r="V4">
-        <v>31345643.34675269</v>
+        <v>31345643.346752688</v>
       </c>
       <c r="W4">
-        <v>31399929.68885191</v>
+        <v>31399929.688851912</v>
       </c>
       <c r="X4">
-        <v>32300391.56187513</v>
+        <v>32300391.561875131</v>
       </c>
       <c r="Y4">
-        <v>32353371.87009951</v>
+        <v>32353371.870099511</v>
       </c>
       <c r="Z4">
-        <v>32402756.27343388</v>
+        <v>32402756.273433879</v>
       </c>
       <c r="AA4">
-        <v>32451392.62228598</v>
+        <v>32451392.622285981</v>
       </c>
       <c r="AB4">
-        <v>32498787.191476</v>
+        <v>32498787.191475999</v>
       </c>
       <c r="AC4">
-        <v>8459841.157366931</v>
+        <v>8459841.1573669314</v>
       </c>
       <c r="AD4">
-        <v>8482726.946505221</v>
+        <v>8482726.9465052206</v>
       </c>
       <c r="AE4">
-        <v>8503986.099690871</v>
+        <v>8503986.0996908713</v>
       </c>
       <c r="AF4">
-        <v>8509003.087262124</v>
+        <v>8509003.0872621238</v>
       </c>
       <c r="AG4">
-        <v>8513751.869511055</v>
+        <v>8513751.8695110548</v>
       </c>
       <c r="AH4">
-        <v>935624.0412012103</v>
+        <v>935624.04120121035</v>
       </c>
       <c r="AI4">
-        <v>750638.9749055646</v>
+        <v>750638.97490556457</v>
       </c>
       <c r="AJ4">
-        <v>627010.6633383328</v>
+        <v>627010.66333833279</v>
       </c>
       <c r="AK4">
-        <v>592061.8579848238</v>
+        <v>592061.85798482376</v>
       </c>
       <c r="AL4">
-        <v>550353.7818413976</v>
+        <v>550353.78184139763</v>
       </c>
       <c r="AM4">
         <v>3953628.6609218</v>
       </c>
       <c r="AN4">
-        <v>4091558.043991133</v>
+        <v>4091558.0439911331</v>
       </c>
       <c r="AO4">
-        <v>4272600.804131874</v>
+        <v>4272600.8041318739</v>
       </c>
       <c r="AP4">
-        <v>4501725.663407697</v>
+        <v>4501725.6634076973</v>
       </c>
       <c r="AQ4">
-        <v>4624819.409846065</v>
+        <v>4624819.4098460646</v>
       </c>
       <c r="AR4">
-        <v>9663977.394955309</v>
+        <v>9663977.3949553091</v>
       </c>
       <c r="AS4">
-        <v>9671632.84826925</v>
+        <v>9671632.8482692502</v>
       </c>
       <c r="AT4">
-        <v>9663296.690038826</v>
+        <v>9663296.6900388263</v>
       </c>
       <c r="AU4">
-        <v>9640314.343506603</v>
+        <v>9640314.3435066026</v>
       </c>
       <c r="AV4">
-        <v>9618658.646185722</v>
+        <v>9618658.6461857222</v>
       </c>
       <c r="AW4">
-        <v>10923456.23596253</v>
+        <v>10923456.235962531</v>
       </c>
       <c r="AX4">
-        <v>10830248.53339748</v>
+        <v>10830248.533397481</v>
       </c>
       <c r="AY4">
-        <v>10634558.49131585</v>
+        <v>10634558.491315849</v>
       </c>
       <c r="AZ4">
-        <v>10373647.56659991</v>
+        <v>10373647.566599909</v>
       </c>
       <c r="BA4">
-        <v>10235288.80783921</v>
+        <v>10235288.807839209</v>
       </c>
       <c r="BB4">
-        <v>9265344.266913543</v>
+        <v>9265344.2669135425</v>
       </c>
       <c r="BC4">
-        <v>9234836.326064834</v>
+        <v>9234836.3260648344</v>
       </c>
       <c r="BD4">
-        <v>9217726.899343137</v>
+        <v>9217726.8993431367</v>
       </c>
       <c r="BE4">
-        <v>9254515.155685494</v>
+        <v>9254515.1556854937</v>
       </c>
       <c r="BF4">
-        <v>9255586.472422622</v>
+        <v>9255586.4724226221</v>
       </c>
       <c r="BG4">
         <v>8696281.345795637</v>
       </c>
       <c r="BH4">
-        <v>8676426.925131379</v>
+        <v>8676426.9251313787</v>
       </c>
       <c r="BI4">
         <v>8770052.182273211</v>
       </c>
       <c r="BJ4">
-        <v>8922064.544823699</v>
+        <v>8922064.5448236987</v>
       </c>
       <c r="BK4">
-        <v>9090501.620839925</v>
+        <v>9090501.6208399255</v>
       </c>
       <c r="BL4">
         <v>9137978.087616045</v>
       </c>
       <c r="BM4">
-        <v>9306575.264827577</v>
+        <v>9306575.2648275774</v>
       </c>
       <c r="BN4">
-        <v>9440251.408713184</v>
+        <v>9440251.4087131843</v>
       </c>
       <c r="BO4">
-        <v>9527343.23607623</v>
+        <v>9527343.2360762302</v>
       </c>
       <c r="BP4">
         <v>9556075.926140001</v>
       </c>
       <c r="BQ4">
-        <v>9526867.299081901</v>
+        <v>9526867.2990819011</v>
       </c>
       <c r="BR4">
-        <v>9504037.260356583</v>
+        <v>9504037.2603565827</v>
       </c>
       <c r="BS4">
-        <v>9468911.57311427</v>
+        <v>9468911.5731142703</v>
       </c>
       <c r="BT4">
-        <v>9404600.314774647</v>
+        <v>9404600.3147746474</v>
       </c>
       <c r="BU4">
-        <v>9285932.225325365</v>
+        <v>9285932.2253253646</v>
       </c>
       <c r="BV4">
-        <v>8976100.329503536</v>
+        <v>8976100.3295035362</v>
       </c>
       <c r="BW4">
-        <v>8808900.661017083</v>
+        <v>8808900.6610170826</v>
       </c>
       <c r="BX4">
-        <v>8763349.037751194</v>
+        <v>8763349.0377511941</v>
       </c>
       <c r="BY4">
-        <v>8827049.259704441</v>
+        <v>8827049.2597044408</v>
       </c>
       <c r="BZ4">
-        <v>8846724.661002113</v>
+        <v>8846724.6610021126</v>
       </c>
       <c r="CA4">
-        <v>8636777.910057437</v>
+        <v>8636777.9100574367</v>
       </c>
       <c r="CB4">
-        <v>8622250.627306497</v>
+        <v>8622250.6273064967</v>
       </c>
       <c r="CC4">
-        <v>8596959.656822046</v>
+        <v>8596959.6568220463</v>
       </c>
       <c r="CD4">
-        <v>8554569.575359868</v>
+        <v>8554569.5753598679</v>
       </c>
       <c r="CE4">
-        <v>8469899.117701709</v>
+        <v>8469899.1177017093</v>
       </c>
       <c r="CF4">
-        <v>8159575.920425488</v>
+        <v>8159575.9204254877</v>
       </c>
       <c r="CG4">
-        <v>8295871.240477972</v>
+        <v>8295871.2404779717</v>
       </c>
       <c r="CH4">
-        <v>8444175.995800028</v>
+        <v>8444175.9958000276</v>
       </c>
       <c r="CI4">
-        <v>8588662.439137109</v>
+        <v>8588662.4391371086</v>
       </c>
       <c r="CJ4">
-        <v>8717010.701074239</v>
+        <v>8717010.7010742389</v>
       </c>
       <c r="CK4">
-        <v>8246503.011480561</v>
+        <v>8246503.0114805615</v>
       </c>
       <c r="CL4">
-        <v>8300962.812062181</v>
+        <v>8300962.8120621806</v>
       </c>
       <c r="CM4">
-        <v>8314222.015246811</v>
+        <v>8314222.0152468113</v>
       </c>
       <c r="CN4">
-        <v>8296895.323657802</v>
+        <v>8296895.3236578023</v>
       </c>
       <c r="CO4">
-        <v>8259780.635674952</v>
+        <v>8259780.6356749516</v>
       </c>
     </row>
-    <row r="5" spans="1:93">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2149411.454479799</v>
+        <v>2149411.4544797991</v>
       </c>
       <c r="E5">
-        <v>1439128.734582136</v>
+        <v>1439128.7345821359</v>
       </c>
       <c r="F5">
         <v>1344817.738856483</v>
       </c>
       <c r="G5">
-        <v>1295519.135276374</v>
+        <v>1295519.1352763739</v>
       </c>
       <c r="H5">
         <v>1242428.684991512</v>
       </c>
       <c r="I5">
-        <v>1551435.391545877</v>
+        <v>1551435.3915458771</v>
       </c>
       <c r="J5">
-        <v>1704868.869159334</v>
+        <v>1704868.8691593341</v>
       </c>
       <c r="K5">
         <v>1478697.85391748</v>
@@ -1540,10 +1568,10 @@
         <v>1518470.051385538</v>
       </c>
       <c r="N5">
-        <v>1585232.130254602</v>
+        <v>1585232.1302546021</v>
       </c>
       <c r="O5">
-        <v>2065207.429645389</v>
+        <v>2065207.4296453891</v>
       </c>
       <c r="P5">
         <v>16239868.18247488</v>
@@ -1552,46 +1580,46 @@
         <v>16239906.37529962</v>
       </c>
       <c r="R5">
-        <v>16239543.37563867</v>
+        <v>16239543.375638669</v>
       </c>
       <c r="S5">
-        <v>54040589.02552959</v>
+        <v>54040589.025529593</v>
       </c>
       <c r="T5">
-        <v>54038689.04807176</v>
+        <v>54038689.048071757</v>
       </c>
       <c r="U5">
-        <v>54035343.11372478</v>
+        <v>54035343.113724783</v>
       </c>
       <c r="V5">
-        <v>54029836.47463441</v>
+        <v>54029836.474634409</v>
       </c>
       <c r="W5">
-        <v>54021122.40592901</v>
+        <v>54021122.405929007</v>
       </c>
       <c r="X5">
-        <v>56805483.36756951</v>
+        <v>56805483.367569514</v>
       </c>
       <c r="Y5">
-        <v>56785343.36260366</v>
+        <v>56785343.362603657</v>
       </c>
       <c r="Z5">
-        <v>56755753.1193978</v>
+        <v>56755753.119397797</v>
       </c>
       <c r="AA5">
         <v>56713250.90698275</v>
       </c>
       <c r="AB5">
-        <v>56653526.80236299</v>
+        <v>56653526.802362993</v>
       </c>
       <c r="AC5">
-        <v>14853643.16441106</v>
+        <v>14853643.164411061</v>
       </c>
       <c r="AD5">
         <v>14742782.37016296</v>
       </c>
       <c r="AE5">
-        <v>14595983.80715623</v>
+        <v>14595983.807156229</v>
       </c>
       <c r="AF5">
         <v>14405036.47668436</v>
@@ -1603,172 +1631,172 @@
         <v>-121859.5483294017</v>
       </c>
       <c r="AI5">
-        <v>-696190.6620982778</v>
+        <v>-696190.66209827783</v>
       </c>
       <c r="AJ5">
-        <v>-1390823.959432746</v>
+        <v>-1390823.9594327461</v>
       </c>
       <c r="AK5">
         <v>-1953802.285759205</v>
       </c>
       <c r="AL5">
-        <v>-2582914.069924235</v>
+        <v>-2582914.0699242349</v>
       </c>
       <c r="AM5">
-        <v>2610970.008628289</v>
+        <v>2610970.0086282892</v>
       </c>
       <c r="AN5">
-        <v>1830768.122750149</v>
+        <v>1830768.1227501491</v>
       </c>
       <c r="AO5">
         <v>1001960.955862832</v>
       </c>
       <c r="AP5">
-        <v>154137.2452233536</v>
+        <v>154137.24522335359</v>
       </c>
       <c r="AQ5">
-        <v>-675591.2368233795</v>
+        <v>-675591.23682337953</v>
       </c>
       <c r="AR5">
-        <v>6758024.219210423</v>
+        <v>6758024.2192104226</v>
       </c>
       <c r="AS5">
-        <v>6091905.533933168</v>
+        <v>6091905.5339331683</v>
       </c>
       <c r="AT5">
-        <v>5568572.404987115</v>
+        <v>5568572.4049871154</v>
       </c>
       <c r="AU5">
-        <v>5218916.971586394</v>
+        <v>5218916.9715863941</v>
       </c>
       <c r="AV5">
-        <v>5061349.59786189</v>
+        <v>5061349.5978618897</v>
       </c>
       <c r="AW5">
-        <v>7498485.601740447</v>
+        <v>7498485.6017404469</v>
       </c>
       <c r="AX5">
-        <v>7720332.950678174</v>
+        <v>7720332.9506781744</v>
       </c>
       <c r="AY5">
-        <v>8100178.087970628</v>
+        <v>8100178.0879706284</v>
       </c>
       <c r="AZ5">
-        <v>8601067.223037207</v>
+        <v>8601067.2230372075</v>
       </c>
       <c r="BA5">
-        <v>9178243.852846228</v>
+        <v>9178243.8528462276</v>
       </c>
       <c r="BB5">
-        <v>8385699.346253713</v>
+        <v>8385699.3462537127</v>
       </c>
       <c r="BC5">
-        <v>8966810.34992657</v>
+        <v>8966810.3499265704</v>
       </c>
       <c r="BD5">
-        <v>9476987.966666458</v>
+        <v>9476987.9666664582</v>
       </c>
       <c r="BE5">
-        <v>9874571.762162831</v>
+        <v>9874571.7621628307</v>
       </c>
       <c r="BF5">
         <v>10127435.82449395</v>
       </c>
       <c r="BG5">
-        <v>9444627.672035204</v>
+        <v>9444627.6720352042</v>
       </c>
       <c r="BH5">
-        <v>9361611.20948655</v>
+        <v>9361611.2094865497</v>
       </c>
       <c r="BI5">
-        <v>9113339.432857769</v>
+        <v>9113339.4328577686</v>
       </c>
       <c r="BJ5">
-        <v>8716171.62804989</v>
+        <v>8716171.6280498896</v>
       </c>
       <c r="BK5">
-        <v>8193942.154558162</v>
+        <v>8193942.1545581622</v>
       </c>
       <c r="BL5">
-        <v>7469961.339183913</v>
+        <v>7469961.3391839126</v>
       </c>
       <c r="BM5">
-        <v>6786490.38035409</v>
+        <v>6786490.3803540897</v>
       </c>
       <c r="BN5">
-        <v>6071006.010277417</v>
+        <v>6071006.0102774166</v>
       </c>
       <c r="BO5">
-        <v>5356415.912823349</v>
+        <v>5356415.9128233492</v>
       </c>
       <c r="BP5">
-        <v>4674166.592746292</v>
+        <v>4674166.5927462922</v>
       </c>
       <c r="BQ5">
         <v>4076774.90961935</v>
       </c>
       <c r="BR5">
-        <v>3539580.959159137</v>
+        <v>3539580.9591591372</v>
       </c>
       <c r="BS5">
         <v>3104456.456748025</v>
       </c>
       <c r="BT5">
-        <v>2782304.687556048</v>
+        <v>2782304.6875560479</v>
       </c>
       <c r="BU5">
-        <v>2576697.033942798</v>
+        <v>2576697.0339427982</v>
       </c>
       <c r="BV5">
-        <v>2264195.907525644</v>
+        <v>2264195.9075256442</v>
       </c>
       <c r="BW5">
-        <v>2272965.725562173</v>
+        <v>2272965.7255621729</v>
       </c>
       <c r="BX5">
-        <v>2366202.912442428</v>
+        <v>2366202.9124424281</v>
       </c>
       <c r="BY5">
-        <v>2521867.109260812</v>
+        <v>2521867.1092608119</v>
       </c>
       <c r="BZ5">
-        <v>2714879.230848034</v>
+        <v>2714879.2308480339</v>
       </c>
       <c r="CA5">
-        <v>2528194.617631335</v>
+        <v>2528194.6176313348</v>
       </c>
       <c r="CB5">
         <v>2718255.289845983</v>
       </c>
       <c r="CC5">
-        <v>2871102.951938198</v>
+        <v>2871102.9519381979</v>
       </c>
       <c r="CD5">
-        <v>2967452.291853295</v>
+        <v>2967452.2918532952</v>
       </c>
       <c r="CE5">
-        <v>2992836.183550996</v>
+        <v>2992836.1835509958</v>
       </c>
       <c r="CF5">
-        <v>2267874.752177094</v>
+        <v>2267874.7521770941</v>
       </c>
       <c r="CG5">
-        <v>2130454.466476746</v>
+        <v>2130454.4664767459</v>
       </c>
       <c r="CH5">
-        <v>1912616.191787023</v>
+        <v>1912616.1917870231</v>
       </c>
       <c r="CI5">
-        <v>1621987.689544266</v>
+        <v>1621987.6895442661</v>
       </c>
       <c r="CJ5">
-        <v>1270368.490168918</v>
+        <v>1270368.4901689179</v>
       </c>
       <c r="CK5">
-        <v>-179701.0221666571</v>
+        <v>-179701.02216665709</v>
       </c>
       <c r="CL5">
-        <v>-606667.2161891621</v>
+        <v>-606667.21618916211</v>
       </c>
       <c r="CM5">
         <v>-1045347.495405768</v>
@@ -1779,6 +1807,97 @@
       <c r="CO5">
         <v>-1890389.063917893</v>
       </c>
+    </row>
+    <row r="16" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1790,14 +1909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CO5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.35">
       <c r="D1" s="1">
         <v>2011</v>
       </c>
@@ -2069,11 +2188,11 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:93">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2083,253 +2202,253 @@
         <v>1072.353283839067</v>
       </c>
       <c r="E2">
-        <v>2470.050402214806</v>
+        <v>2470.0504022148061</v>
       </c>
       <c r="F2">
-        <v>3867.023789191748</v>
+        <v>3867.0237891917482</v>
       </c>
       <c r="G2">
-        <v>5194.515755872628</v>
+        <v>5194.5157558726278</v>
       </c>
       <c r="H2">
-        <v>6974.971751542806</v>
+        <v>6974.9717515428056</v>
       </c>
       <c r="I2">
         <v>8259.445960354602</v>
       </c>
       <c r="J2">
-        <v>10583.57399326197</v>
+        <v>10583.573993261971</v>
       </c>
       <c r="K2">
         <v>12894.04671020658</v>
       </c>
       <c r="L2">
-        <v>14949.82542165631</v>
+        <v>14949.825421656309</v>
       </c>
       <c r="M2">
-        <v>16844.40458926615</v>
+        <v>16844.404589266149</v>
       </c>
       <c r="N2">
-        <v>20896.78519619908</v>
+        <v>20896.785196199078</v>
       </c>
       <c r="O2">
-        <v>23353.96663660111</v>
+        <v>23353.966636601112</v>
       </c>
       <c r="P2">
-        <v>28276.14212329085</v>
+        <v>28276.142123290851</v>
       </c>
       <c r="Q2">
-        <v>33576.12074566639</v>
+        <v>33576.120745666391</v>
       </c>
       <c r="R2">
-        <v>39254.97642972171</v>
+        <v>39254.976429721712</v>
       </c>
       <c r="S2">
-        <v>51710.87776642106</v>
+        <v>51710.877766421057</v>
       </c>
       <c r="T2">
-        <v>65054.86637387935</v>
+        <v>65054.866373879348</v>
       </c>
       <c r="U2">
-        <v>79288.93993595238</v>
+        <v>79288.939935952381</v>
       </c>
       <c r="V2">
-        <v>94416.38599628172</v>
+        <v>94416.385996281722</v>
       </c>
       <c r="W2">
-        <v>110439.9598799131</v>
+        <v>110439.95987991311</v>
       </c>
       <c r="X2">
-        <v>126493.8423642527</v>
+        <v>126493.84236425271</v>
       </c>
       <c r="Y2">
-        <v>143369.7377819169</v>
+        <v>143369.73778191689</v>
       </c>
       <c r="Z2">
-        <v>161069.8274779941</v>
+        <v>161069.82747799411</v>
       </c>
       <c r="AA2">
         <v>179598.6473406876</v>
       </c>
       <c r="AB2">
-        <v>198962.4548554196</v>
+        <v>198962.45485541961</v>
       </c>
       <c r="AC2">
-        <v>207682.5233602805</v>
+        <v>207682.52336028049</v>
       </c>
       <c r="AD2">
-        <v>216563.3209423576</v>
+        <v>216563.32094235759</v>
       </c>
       <c r="AE2">
-        <v>225621.6088698962</v>
+        <v>225621.60886989621</v>
       </c>
       <c r="AF2">
-        <v>234860.8134826279</v>
+        <v>234860.81348262791</v>
       </c>
       <c r="AG2">
-        <v>244297.23293618</v>
+        <v>244297.23293617999</v>
       </c>
       <c r="AH2">
-        <v>249839.7067653567</v>
+        <v>249839.70676535671</v>
       </c>
       <c r="AI2">
-        <v>255364.9928213742</v>
+        <v>255364.99282137421</v>
       </c>
       <c r="AJ2">
-        <v>260928.7751768556</v>
+        <v>260928.77517685559</v>
       </c>
       <c r="AK2">
-        <v>266593.438606383</v>
+        <v>266593.43860638299</v>
       </c>
       <c r="AL2">
-        <v>272368.0982607878</v>
+        <v>272368.09826078778</v>
       </c>
       <c r="AM2">
-        <v>280111.0199666271</v>
+        <v>280111.01996662712</v>
       </c>
       <c r="AN2">
         <v>288188.1998345367</v>
       </c>
       <c r="AO2">
-        <v>296699.4415040964</v>
+        <v>296699.44150409638</v>
       </c>
       <c r="AP2">
         <v>305744.4844682223</v>
       </c>
       <c r="AQ2">
-        <v>315196.6280850106</v>
+        <v>315196.62808501063</v>
       </c>
       <c r="AR2">
-        <v>328217.2216260965</v>
+        <v>328217.22162609652</v>
       </c>
       <c r="AS2">
         <v>341592.5150518291</v>
       </c>
       <c r="AT2">
-        <v>355276.1374435996</v>
+        <v>355276.13744359958</v>
       </c>
       <c r="AU2">
-        <v>369219.1403497242</v>
+        <v>369219.14034972421</v>
       </c>
       <c r="AV2">
-        <v>383398.6278995847</v>
+        <v>383398.62789958471</v>
       </c>
       <c r="AW2">
-        <v>398500.3544337485</v>
+        <v>398500.35443374852</v>
       </c>
       <c r="AX2">
-        <v>413644.8705806711</v>
+        <v>413644.87058067112</v>
       </c>
       <c r="AY2">
-        <v>428554.1130313725</v>
+        <v>428554.11303137249</v>
       </c>
       <c r="AZ2">
-        <v>443022.1624599181</v>
+        <v>443022.16245991812</v>
       </c>
       <c r="BA2">
         <v>457290.6423473077</v>
       </c>
       <c r="BB2">
-        <v>470700.0347703077</v>
+        <v>470700.03477030771</v>
       </c>
       <c r="BC2">
-        <v>484111.0231377255</v>
+        <v>484111.02313772548</v>
       </c>
       <c r="BD2">
-        <v>497445.6224090767</v>
+        <v>497445.62240907672</v>
       </c>
       <c r="BE2">
-        <v>510659.8991201592</v>
+        <v>510659.89912015921</v>
       </c>
       <c r="BF2">
         <v>523886.7605323536</v>
       </c>
       <c r="BG2">
-        <v>536629.5955290323</v>
+        <v>536629.59552903229</v>
       </c>
       <c r="BH2">
-        <v>549615.471893516</v>
+        <v>549615.47189351602</v>
       </c>
       <c r="BI2">
-        <v>562944.7781347068</v>
+        <v>562944.77813470678</v>
       </c>
       <c r="BJ2">
-        <v>576721.0296670386</v>
+        <v>576721.02966703859</v>
       </c>
       <c r="BK2">
-        <v>590988.7357846547</v>
+        <v>590988.73578465474</v>
       </c>
       <c r="BL2">
-        <v>605417.882729813</v>
+        <v>605417.88272981299</v>
       </c>
       <c r="BM2">
-        <v>620412.405589624</v>
+        <v>620412.40558962396</v>
       </c>
       <c r="BN2">
         <v>635987.2122199306</v>
       </c>
       <c r="BO2">
-        <v>652115.7537530314</v>
+        <v>652115.75375303137</v>
       </c>
       <c r="BP2">
-        <v>668667.8582145135</v>
+        <v>668667.85821451352</v>
       </c>
       <c r="BQ2">
-        <v>685342.6392224036</v>
+        <v>685342.63922240364</v>
       </c>
       <c r="BR2">
-        <v>702287.434304563</v>
+        <v>702287.43430456298</v>
       </c>
       <c r="BS2">
-        <v>719463.7128650667</v>
+        <v>719463.71286506671</v>
       </c>
       <c r="BT2">
-        <v>736786.2284708784</v>
+        <v>736786.22847087844</v>
       </c>
       <c r="BU2">
-        <v>754091.6515931519</v>
+        <v>754091.65159315185</v>
       </c>
       <c r="BV2">
-        <v>770991.9999927683</v>
+        <v>770991.99999276828</v>
       </c>
       <c r="BW2">
-        <v>787662.468468798</v>
+        <v>787662.46846879798</v>
       </c>
       <c r="BX2">
-        <v>804179.6129761062</v>
+        <v>804179.61297610623</v>
       </c>
       <c r="BY2">
-        <v>820633.5653283416</v>
+        <v>820633.56532834156</v>
       </c>
       <c r="BZ2">
-        <v>837058.8385266708</v>
+        <v>837058.83852667082</v>
       </c>
       <c r="CA2">
-        <v>853240.4942778536</v>
+        <v>853240.49427785364</v>
       </c>
       <c r="CB2">
-        <v>869389.7788819768</v>
+        <v>869389.77888197685</v>
       </c>
       <c r="CC2">
-        <v>885571.2876188289</v>
+        <v>885571.28761882894</v>
       </c>
       <c r="CD2">
-        <v>901879.2173239536</v>
+        <v>901879.21732395364</v>
       </c>
       <c r="CE2">
-        <v>918420.3756967848</v>
+        <v>918420.37569678482</v>
       </c>
       <c r="CF2">
-        <v>935028.4634049351</v>
+        <v>935028.46340493509</v>
       </c>
       <c r="CG2">
-        <v>952022.7769466621</v>
+        <v>952022.77694666211</v>
       </c>
       <c r="CH2">
-        <v>969441.1835580901</v>
+        <v>969441.18355809012</v>
       </c>
       <c r="CI2">
-        <v>987309.7638444973</v>
+        <v>987309.76384449727</v>
       </c>
       <c r="CJ2">
         <v>1005657.347439404</v>
@@ -2347,41 +2466,41 @@
         <v>1081548.999454106</v>
       </c>
       <c r="CO2">
-        <v>1101197.48926355</v>
+        <v>1101197.4892635499</v>
       </c>
     </row>
-    <row r="3" spans="1:93">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>70.90986595796893</v>
+        <v>70.909865957968933</v>
       </c>
       <c r="E3">
-        <v>163.612653435272</v>
+        <v>163.61265343527199</v>
       </c>
       <c r="F3">
-        <v>256.1485713634085</v>
+        <v>256.14857136340851</v>
       </c>
       <c r="G3">
-        <v>344.0167718933077</v>
+        <v>344.01677189330769</v>
       </c>
       <c r="H3">
-        <v>462.4056731627882</v>
+        <v>462.40567316278822</v>
       </c>
       <c r="I3">
-        <v>547.4708149766063</v>
+        <v>547.47081497660633</v>
       </c>
       <c r="J3">
         <v>702.2504592918109</v>
       </c>
       <c r="K3">
-        <v>855.9607356730942</v>
+        <v>855.96073567309418</v>
       </c>
       <c r="L3">
-        <v>992.6101549250728</v>
+        <v>992.61015492507283</v>
       </c>
       <c r="M3">
         <v>1118.355430941692</v>
@@ -2393,61 +2512,61 @@
         <v>1552.517242839087</v>
       </c>
       <c r="P3">
-        <v>1881.529783915265</v>
+        <v>1881.5297839152649</v>
       </c>
       <c r="Q3">
-        <v>2235.880866036703</v>
+        <v>2235.8808660367031</v>
       </c>
       <c r="R3">
-        <v>2615.642823292981</v>
+        <v>2615.6428232929811</v>
       </c>
       <c r="S3">
-        <v>3450.391969184561</v>
+        <v>3450.3919691845608</v>
       </c>
       <c r="T3">
-        <v>4344.743753903666</v>
+        <v>4344.7437539036664</v>
       </c>
       <c r="U3">
-        <v>5298.832169116065</v>
+        <v>5298.8321691160654</v>
       </c>
       <c r="V3">
-        <v>6312.877873443628</v>
+        <v>6312.8778734436282</v>
       </c>
       <c r="W3">
-        <v>7387.065815053576</v>
+        <v>7387.0658150535764</v>
       </c>
       <c r="X3">
-        <v>8463.242282616919</v>
+        <v>8463.2422826169186</v>
       </c>
       <c r="Y3">
-        <v>9594.584622837518</v>
+        <v>9594.5846228375176</v>
       </c>
       <c r="Z3">
         <v>10781.23943410163</v>
       </c>
       <c r="AA3">
-        <v>12023.51119370204</v>
+        <v>12023.511193702039</v>
       </c>
       <c r="AB3">
         <v>13321.82001078662</v>
       </c>
       <c r="AC3">
-        <v>13905.36448096738</v>
+        <v>13905.364480967381</v>
       </c>
       <c r="AD3">
-        <v>14499.65789255393</v>
+        <v>14499.657892553931</v>
       </c>
       <c r="AE3">
-        <v>15105.82549582664</v>
+        <v>15105.825495826641</v>
       </c>
       <c r="AF3">
-        <v>15724.09762816268</v>
+        <v>15724.097628162681</v>
       </c>
       <c r="AG3">
         <v>16355.56835992973</v>
       </c>
       <c r="AH3">
-        <v>16725.50390880871</v>
+        <v>16725.503908808711</v>
       </c>
       <c r="AI3">
         <v>17094.23497116597</v>
@@ -2462,22 +2581,22 @@
         <v>18228.80521730617</v>
       </c>
       <c r="AM3">
-        <v>18746.23935528986</v>
+        <v>18746.239355289861</v>
       </c>
       <c r="AN3">
-        <v>19286.06084281305</v>
+        <v>19286.060842813051</v>
       </c>
       <c r="AO3">
-        <v>19854.96950971559</v>
+        <v>19854.969509715589</v>
       </c>
       <c r="AP3">
-        <v>20459.66123021002</v>
+        <v>20459.661230210018</v>
       </c>
       <c r="AQ3">
         <v>21091.63235501793</v>
       </c>
       <c r="AR3">
-        <v>21963.18539224009</v>
+        <v>21963.185392240091</v>
       </c>
       <c r="AS3">
         <v>22858.5055625001</v>
@@ -2489,91 +2608,91 @@
         <v>24707.82709332147</v>
       </c>
       <c r="AV3">
-        <v>25657.0082209858</v>
+        <v>25657.008220985801</v>
       </c>
       <c r="AW3">
-        <v>26668.07313827983</v>
+        <v>26668.073138279829</v>
       </c>
       <c r="AX3">
         <v>27681.9680193971</v>
       </c>
       <c r="AY3">
-        <v>28680.02475915511</v>
+        <v>28680.024759155109</v>
       </c>
       <c r="AZ3">
-        <v>29648.41825025625</v>
+        <v>29648.418250256251</v>
       </c>
       <c r="BA3">
-        <v>30603.37092206346</v>
+        <v>30603.370922063459</v>
       </c>
       <c r="BB3">
-        <v>31500.58193158105</v>
+        <v>31500.581931581051</v>
       </c>
       <c r="BC3">
-        <v>32397.85232134416</v>
+        <v>32397.852321344159</v>
       </c>
       <c r="BD3">
-        <v>33289.94437836322</v>
+        <v>33289.944378363223</v>
       </c>
       <c r="BE3">
-        <v>34173.90593202917</v>
+        <v>34173.905932029171</v>
       </c>
       <c r="BF3">
-        <v>35058.660313655</v>
+        <v>35058.660313654997</v>
       </c>
       <c r="BG3">
-        <v>35910.84862516374</v>
+        <v>35910.848625163737</v>
       </c>
       <c r="BH3">
-        <v>36779.29688983675</v>
+        <v>36779.296889836747</v>
       </c>
       <c r="BI3">
-        <v>37670.74258337844</v>
+        <v>37670.742583378436</v>
       </c>
       <c r="BJ3">
-        <v>38592.13361949783</v>
+        <v>38592.133619497828</v>
       </c>
       <c r="BK3">
-        <v>39546.4568929509</v>
+        <v>39546.456892950897</v>
       </c>
       <c r="BL3">
-        <v>40511.54334329772</v>
+        <v>40511.543343297722</v>
       </c>
       <c r="BM3">
-        <v>41514.52133151137</v>
+        <v>41514.521331511372</v>
       </c>
       <c r="BN3">
-        <v>42556.39357033372</v>
+        <v>42556.393570333719</v>
       </c>
       <c r="BO3">
-        <v>43635.37946607209</v>
+        <v>43635.379466072089</v>
       </c>
       <c r="BP3">
-        <v>44742.73987423589</v>
+        <v>44742.739874235893</v>
       </c>
       <c r="BQ3">
-        <v>45858.26430384923</v>
+        <v>45858.264303849232</v>
       </c>
       <c r="BR3">
-        <v>46991.85006216774</v>
+        <v>46991.850062167738</v>
       </c>
       <c r="BS3">
-        <v>48140.91116879675</v>
+        <v>48140.911168796752</v>
       </c>
       <c r="BT3">
-        <v>49299.72511253266</v>
+        <v>49299.725112532658</v>
       </c>
       <c r="BU3">
         <v>50457.32653942304</v>
       </c>
       <c r="BV3">
-        <v>51587.65775297394</v>
+        <v>51587.657752973937</v>
       </c>
       <c r="BW3">
-        <v>52702.48593565296</v>
+        <v>52702.485935652963</v>
       </c>
       <c r="BX3">
-        <v>53806.9504375785</v>
+        <v>53806.950437578504</v>
       </c>
       <c r="BY3">
         <v>54907.10208191898</v>
@@ -2582,54 +2701,54 @@
         <v>56005.25857120104</v>
       </c>
       <c r="CA3">
-        <v>57086.98058472781</v>
+        <v>57086.980584727811</v>
       </c>
       <c r="CB3">
         <v>58166.45468446747</v>
       </c>
       <c r="CC3">
-        <v>59248.01807886818</v>
+        <v>59248.018078868183</v>
       </c>
       <c r="CD3">
-        <v>60337.99550961518</v>
+        <v>60337.995509615183</v>
       </c>
       <c r="CE3">
-        <v>61443.558241787</v>
+        <v>61443.558241787003</v>
       </c>
       <c r="CF3">
-        <v>62553.52999103592</v>
+        <v>62553.529991035917</v>
       </c>
       <c r="CG3">
-        <v>63689.3506390601</v>
+        <v>63689.350639060103</v>
       </c>
       <c r="CH3">
-        <v>64853.56176450116</v>
+        <v>64853.561764501159</v>
       </c>
       <c r="CI3">
-        <v>66047.91426190286</v>
+        <v>66047.914261902857</v>
       </c>
       <c r="CJ3">
-        <v>67274.34447626167</v>
+        <v>67274.344476261671</v>
       </c>
       <c r="CK3">
-        <v>68505.81772734698</v>
+        <v>68505.817727346977</v>
       </c>
       <c r="CL3">
-        <v>69765.47507875053</v>
+        <v>69765.475078750533</v>
       </c>
       <c r="CM3">
-        <v>71047.66425875956</v>
+        <v>71047.664258759556</v>
       </c>
       <c r="CN3">
-        <v>72347.12104877032</v>
+        <v>72347.121048770321</v>
       </c>
       <c r="CO3">
-        <v>73660.46026215628</v>
+        <v>73660.460262156281</v>
       </c>
     </row>
-    <row r="4" spans="1:93">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2637,31 +2756,31 @@
         <v>1624027.935765215</v>
       </c>
       <c r="E4">
-        <v>3082771.076034263</v>
+        <v>3082771.0760342628</v>
       </c>
       <c r="F4">
-        <v>4356133.86646536</v>
+        <v>4356133.8664653599</v>
       </c>
       <c r="G4">
-        <v>5833079.836070841</v>
+        <v>5833079.8360708412</v>
       </c>
       <c r="H4">
-        <v>7455995.20258774</v>
+        <v>7455995.2025877396</v>
       </c>
       <c r="I4">
-        <v>8998123.712434702</v>
+        <v>8998123.7124347016</v>
       </c>
       <c r="J4">
         <v>10674295.75919332</v>
       </c>
       <c r="K4">
-        <v>12210788.95741861</v>
+        <v>12210788.957418609</v>
       </c>
       <c r="L4">
-        <v>13735782.32957212</v>
+        <v>13735782.329572121</v>
       </c>
       <c r="M4">
-        <v>15768443.83158178</v>
+        <v>15768443.831581781</v>
       </c>
       <c r="N4">
         <v>17692058.58165209</v>
@@ -2670,91 +2789,91 @@
         <v>19589767.77781323</v>
       </c>
       <c r="P4">
-        <v>29485376.07749302</v>
+        <v>29485376.077493019</v>
       </c>
       <c r="Q4">
-        <v>39409004.24697524</v>
+        <v>39409004.246975243</v>
       </c>
       <c r="R4">
-        <v>49356873.90394948</v>
+        <v>49356873.903949477</v>
       </c>
       <c r="S4">
-        <v>80551061.47787049</v>
+        <v>80551061.477870494</v>
       </c>
       <c r="T4">
         <v>111793180.5867862</v>
       </c>
       <c r="U4">
-        <v>143085998.4394816</v>
+        <v>143085998.43948159</v>
       </c>
       <c r="V4">
-        <v>174431641.7862343</v>
+        <v>174431641.78623429</v>
       </c>
       <c r="W4">
-        <v>205831571.4750862</v>
+        <v>205831571.47508621</v>
       </c>
       <c r="X4">
-        <v>238131963.0369614</v>
+        <v>238131963.03696141</v>
       </c>
       <c r="Y4">
-        <v>270485334.9070609</v>
+        <v>270485334.90706092</v>
       </c>
       <c r="Z4">
-        <v>302888091.1804947</v>
+        <v>302888091.18049473</v>
       </c>
       <c r="AA4">
-        <v>335339483.8027807</v>
+        <v>335339483.80278069</v>
       </c>
       <c r="AB4">
-        <v>367838270.9942567</v>
+        <v>367838270.99425668</v>
       </c>
       <c r="AC4">
-        <v>376298112.1516236</v>
+        <v>376298112.15162361</v>
       </c>
       <c r="AD4">
-        <v>384780839.0981289</v>
+        <v>384780839.09812891</v>
       </c>
       <c r="AE4">
-        <v>393284825.1978197</v>
+        <v>393284825.19781971</v>
       </c>
       <c r="AF4">
-        <v>401793828.2850819</v>
+        <v>401793828.28508192</v>
       </c>
       <c r="AG4">
-        <v>410307580.1545929</v>
+        <v>410307580.15459287</v>
       </c>
       <c r="AH4">
-        <v>411243204.1957942</v>
+        <v>411243204.19579422</v>
       </c>
       <c r="AI4">
-        <v>411993843.1706997</v>
+        <v>411993843.17069972</v>
       </c>
       <c r="AJ4">
-        <v>412620853.834038</v>
+        <v>412620853.83403802</v>
       </c>
       <c r="AK4">
-        <v>413212915.6920229</v>
+        <v>413212915.69202292</v>
       </c>
       <c r="AL4">
-        <v>413763269.4738643</v>
+        <v>413763269.47386432</v>
       </c>
       <c r="AM4">
-        <v>417716898.1347861</v>
+        <v>417716898.13478613</v>
       </c>
       <c r="AN4">
-        <v>421808456.1787772</v>
+        <v>421808456.17877722</v>
       </c>
       <c r="AO4">
-        <v>426081056.9829091</v>
+        <v>426081056.98290908</v>
       </c>
       <c r="AP4">
-        <v>430582782.6463168</v>
+        <v>430582782.64631683</v>
       </c>
       <c r="AQ4">
-        <v>435207602.0561628</v>
+        <v>435207602.05616277</v>
       </c>
       <c r="AR4">
-        <v>444871579.4511182</v>
+        <v>444871579.45111817</v>
       </c>
       <c r="AS4">
         <v>454543212.2993874</v>
@@ -2763,179 +2882,179 @@
         <v>464206508.9894262</v>
       </c>
       <c r="AU4">
-        <v>473846823.3329328</v>
+        <v>473846823.33293277</v>
       </c>
       <c r="AV4">
-        <v>483465481.9791185</v>
+        <v>483465481.97911853</v>
       </c>
       <c r="AW4">
-        <v>494388938.215081</v>
+        <v>494388938.21508098</v>
       </c>
       <c r="AX4">
-        <v>505219186.7484785</v>
+        <v>505219186.74847847</v>
       </c>
       <c r="AY4">
-        <v>515853745.2397943</v>
+        <v>515853745.23979431</v>
       </c>
       <c r="AZ4">
-        <v>526227392.8063942</v>
+        <v>526227392.80639422</v>
       </c>
       <c r="BA4">
-        <v>536462681.6142334</v>
+        <v>536462681.61423337</v>
       </c>
       <c r="BB4">
-        <v>545728025.881147</v>
+        <v>545728025.88114703</v>
       </c>
       <c r="BC4">
-        <v>554962862.2072119</v>
+        <v>554962862.20721185</v>
       </c>
       <c r="BD4">
-        <v>564180589.106555</v>
+        <v>564180589.10655499</v>
       </c>
       <c r="BE4">
-        <v>573435104.2622405</v>
+        <v>573435104.26224053</v>
       </c>
       <c r="BF4">
-        <v>582690690.7346631</v>
+        <v>582690690.73466313</v>
       </c>
       <c r="BG4">
-        <v>591386972.0804588</v>
+        <v>591386972.08045876</v>
       </c>
       <c r="BH4">
-        <v>600063399.0055901</v>
+        <v>600063399.00559008</v>
       </c>
       <c r="BI4">
-        <v>608833451.1878633</v>
+        <v>608833451.18786335</v>
       </c>
       <c r="BJ4">
         <v>617755515.732687</v>
       </c>
       <c r="BK4">
-        <v>626846017.3535269</v>
+        <v>626846017.35352695</v>
       </c>
       <c r="BL4">
-        <v>635983995.441143</v>
+        <v>635983995.44114304</v>
       </c>
       <c r="BM4">
-        <v>645290570.7059706</v>
+        <v>645290570.70597064</v>
       </c>
       <c r="BN4">
-        <v>654730822.1146839</v>
+        <v>654730822.11468387</v>
       </c>
       <c r="BO4">
         <v>664258165.3507601</v>
       </c>
       <c r="BP4">
-        <v>673814241.2769001</v>
+        <v>673814241.27690005</v>
       </c>
       <c r="BQ4">
-        <v>683341108.575982</v>
+        <v>683341108.57598197</v>
       </c>
       <c r="BR4">
-        <v>692845145.8363385</v>
+        <v>692845145.83633852</v>
       </c>
       <c r="BS4">
         <v>702314057.4094528</v>
       </c>
       <c r="BT4">
-        <v>711718657.7242274</v>
+        <v>711718657.72422743</v>
       </c>
       <c r="BU4">
-        <v>721004589.9495528</v>
+        <v>721004589.94955277</v>
       </c>
       <c r="BV4">
-        <v>729980690.2790563</v>
+        <v>729980690.27905631</v>
       </c>
       <c r="BW4">
-        <v>738789590.9400734</v>
+        <v>738789590.94007337</v>
       </c>
       <c r="BX4">
-        <v>747552939.9778246</v>
+        <v>747552939.97782457</v>
       </c>
       <c r="BY4">
-        <v>756379989.237529</v>
+        <v>756379989.23752904</v>
       </c>
       <c r="BZ4">
         <v>765226713.8985312</v>
       </c>
       <c r="CA4">
-        <v>773863491.8085886</v>
+        <v>773863491.80858862</v>
       </c>
       <c r="CB4">
-        <v>782485742.4358951</v>
+        <v>782485742.43589509</v>
       </c>
       <c r="CC4">
-        <v>791082702.0927172</v>
+        <v>791082702.09271717</v>
       </c>
       <c r="CD4">
-        <v>799637271.668077</v>
+        <v>799637271.66807699</v>
       </c>
       <c r="CE4">
-        <v>808107170.7857788</v>
+        <v>808107170.78577876</v>
       </c>
       <c r="CF4">
         <v>816266746.7062043</v>
       </c>
       <c r="CG4">
-        <v>824562617.9466822</v>
+        <v>824562617.94668221</v>
       </c>
       <c r="CH4">
-        <v>833006793.9424822</v>
+        <v>833006793.94248223</v>
       </c>
       <c r="CI4">
-        <v>841595456.3816193</v>
+        <v>841595456.38161933</v>
       </c>
       <c r="CJ4">
-        <v>850312467.0826936</v>
+        <v>850312467.08269358</v>
       </c>
       <c r="CK4">
-        <v>858558970.0941741</v>
+        <v>858558970.09417415</v>
       </c>
       <c r="CL4">
-        <v>866859932.9062363</v>
+        <v>866859932.90623629</v>
       </c>
       <c r="CM4">
-        <v>875174154.9214832</v>
+        <v>875174154.92148316</v>
       </c>
       <c r="CN4">
-        <v>883471050.2451409</v>
+        <v>883471050.24514091</v>
       </c>
       <c r="CO4">
-        <v>891730830.8808159</v>
+        <v>891730830.88081586</v>
       </c>
     </row>
-    <row r="5" spans="1:93">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2149411.454479799</v>
+        <v>2149411.4544797991</v>
       </c>
       <c r="E5">
-        <v>3588540.189061934</v>
+        <v>3588540.1890619341</v>
       </c>
       <c r="F5">
-        <v>4933357.927918417</v>
+        <v>4933357.9279184174</v>
       </c>
       <c r="G5">
-        <v>6228877.063194792</v>
+        <v>6228877.0631947918</v>
       </c>
       <c r="H5">
-        <v>7471305.748186304</v>
+        <v>7471305.7481863042</v>
       </c>
       <c r="I5">
         <v>9022741.139732182</v>
       </c>
       <c r="J5">
-        <v>10727610.00889152</v>
+        <v>10727610.008891519</v>
       </c>
       <c r="K5">
-        <v>12206307.86280899</v>
+        <v>12206307.862808989</v>
       </c>
       <c r="L5">
-        <v>13569060.95483804</v>
+        <v>13569060.954838039</v>
       </c>
       <c r="M5">
         <v>15087531.00622358</v>
@@ -2944,238 +3063,238 @@
         <v>16672763.13647818</v>
       </c>
       <c r="O5">
-        <v>18737970.56612357</v>
+        <v>18737970.566123571</v>
       </c>
       <c r="P5">
-        <v>34977838.74859846</v>
+        <v>34977838.748598456</v>
       </c>
       <c r="Q5">
-        <v>51217745.12389807</v>
+        <v>51217745.123898067</v>
       </c>
       <c r="R5">
-        <v>67457288.49953674</v>
+        <v>67457288.499536738</v>
       </c>
       <c r="S5">
         <v>121497877.5250663</v>
       </c>
       <c r="T5">
-        <v>175536566.5731381</v>
+        <v>175536566.57313809</v>
       </c>
       <c r="U5">
         <v>229571909.6868628</v>
       </c>
       <c r="V5">
-        <v>283601746.1614972</v>
+        <v>283601746.16149718</v>
       </c>
       <c r="W5">
-        <v>337622868.5674263</v>
+        <v>337622868.56742632</v>
       </c>
       <c r="X5">
-        <v>394428351.9349958</v>
+        <v>394428351.93499577</v>
       </c>
       <c r="Y5">
-        <v>451213695.2975994</v>
+        <v>451213695.29759938</v>
       </c>
       <c r="Z5">
-        <v>507969448.4169973</v>
+        <v>507969448.41699731</v>
       </c>
       <c r="AA5">
-        <v>564682699.32398</v>
+        <v>564682699.32397997</v>
       </c>
       <c r="AB5">
-        <v>621336226.126343</v>
+        <v>621336226.12634301</v>
       </c>
       <c r="AC5">
-        <v>636189869.2907541</v>
+        <v>636189869.29075408</v>
       </c>
       <c r="AD5">
-        <v>650932651.660917</v>
+        <v>650932651.66091704</v>
       </c>
       <c r="AE5">
-        <v>665528635.4680732</v>
+        <v>665528635.46807325</v>
       </c>
       <c r="AF5">
-        <v>679933671.9447576</v>
+        <v>679933671.94475758</v>
       </c>
       <c r="AG5">
-        <v>694094637.4224008</v>
+        <v>694094637.42240083</v>
       </c>
       <c r="AH5">
-        <v>693972777.8740715</v>
+        <v>693972777.87407148</v>
       </c>
       <c r="AI5">
-        <v>693276587.2119732</v>
+        <v>693276587.21197319</v>
       </c>
       <c r="AJ5">
-        <v>691885763.2525405</v>
+        <v>691885763.25254047</v>
       </c>
       <c r="AK5">
-        <v>689931960.9667813</v>
+        <v>689931960.96678126</v>
       </c>
       <c r="AL5">
-        <v>687349046.896857</v>
+        <v>687349046.89685702</v>
       </c>
       <c r="AM5">
-        <v>689960016.9054853</v>
+        <v>689960016.90548527</v>
       </c>
       <c r="AN5">
-        <v>691790785.0282354</v>
+        <v>691790785.02823544</v>
       </c>
       <c r="AO5">
-        <v>692792745.9840983</v>
+        <v>692792745.98409832</v>
       </c>
       <c r="AP5">
-        <v>692946883.2293217</v>
+        <v>692946883.22932172</v>
       </c>
       <c r="AQ5">
         <v>692271291.9924984</v>
       </c>
       <c r="AR5">
-        <v>699029316.2117088</v>
+        <v>699029316.21170878</v>
       </c>
       <c r="AS5">
-        <v>705121221.7456419</v>
+        <v>705121221.74564195</v>
       </c>
       <c r="AT5">
-        <v>710689794.150629</v>
+        <v>710689794.15062904</v>
       </c>
       <c r="AU5">
-        <v>715908711.1222154</v>
+        <v>715908711.12221539</v>
       </c>
       <c r="AV5">
-        <v>720970060.7200773</v>
+        <v>720970060.72007728</v>
       </c>
       <c r="AW5">
-        <v>728468546.3218178</v>
+        <v>728468546.32181776</v>
       </c>
       <c r="AX5">
-        <v>736188879.272496</v>
+        <v>736188879.27249599</v>
       </c>
       <c r="AY5">
         <v>744289057.3604666</v>
       </c>
       <c r="AZ5">
-        <v>752890124.5835038</v>
+        <v>752890124.58350384</v>
       </c>
       <c r="BA5">
-        <v>762068368.4363501</v>
+        <v>762068368.43635011</v>
       </c>
       <c r="BB5">
-        <v>770454067.7826039</v>
+        <v>770454067.78260386</v>
       </c>
       <c r="BC5">
-        <v>779420878.1325305</v>
+        <v>779420878.13253045</v>
       </c>
       <c r="BD5">
-        <v>788897866.0991969</v>
+        <v>788897866.09919691</v>
       </c>
       <c r="BE5">
-        <v>798772437.8613597</v>
+        <v>798772437.86135972</v>
       </c>
       <c r="BF5">
-        <v>808899873.6858537</v>
+        <v>808899873.68585372</v>
       </c>
       <c r="BG5">
-        <v>818344501.3578889</v>
+        <v>818344501.35788894</v>
       </c>
       <c r="BH5">
-        <v>827706112.5673755</v>
+        <v>827706112.56737554</v>
       </c>
       <c r="BI5">
-        <v>836819452.0002333</v>
+        <v>836819452.00023329</v>
       </c>
       <c r="BJ5">
-        <v>845535623.6282831</v>
+        <v>845535623.62828314</v>
       </c>
       <c r="BK5">
-        <v>853729565.7828413</v>
+        <v>853729565.78284132</v>
       </c>
       <c r="BL5">
-        <v>861199527.1220253</v>
+        <v>861199527.12202525</v>
       </c>
       <c r="BM5">
         <v>867986017.5023793</v>
       </c>
       <c r="BN5">
-        <v>874057023.5126567</v>
+        <v>874057023.51265669</v>
       </c>
       <c r="BO5">
-        <v>879413439.42548</v>
+        <v>879413439.42548001</v>
       </c>
       <c r="BP5">
-        <v>884087606.0182263</v>
+        <v>884087606.01822627</v>
       </c>
       <c r="BQ5">
         <v>888164380.9278456</v>
       </c>
       <c r="BR5">
-        <v>891703961.8870047</v>
+        <v>891703961.88700473</v>
       </c>
       <c r="BS5">
-        <v>894808418.3437527</v>
+        <v>894808418.34375274</v>
       </c>
       <c r="BT5">
-        <v>897590723.0313088</v>
+        <v>897590723.03130877</v>
       </c>
       <c r="BU5">
-        <v>900167420.0652516</v>
+        <v>900167420.06525159</v>
       </c>
       <c r="BV5">
-        <v>902431615.9727772</v>
+        <v>902431615.97277725</v>
       </c>
       <c r="BW5">
-        <v>904704581.6983395</v>
+        <v>904704581.69833946</v>
       </c>
       <c r="BX5">
-        <v>907070784.6107819</v>
+        <v>907070784.61078191</v>
       </c>
       <c r="BY5">
-        <v>909592651.7200427</v>
+        <v>909592651.72004271</v>
       </c>
       <c r="BZ5">
-        <v>912307530.9508908</v>
+        <v>912307530.95089078</v>
       </c>
       <c r="CA5">
         <v>914835725.5685221</v>
       </c>
       <c r="CB5">
-        <v>917553980.858368</v>
+        <v>917553980.85836804</v>
       </c>
       <c r="CC5">
-        <v>920425083.8103062</v>
+        <v>920425083.81030619</v>
       </c>
       <c r="CD5">
         <v>923392536.1021595</v>
       </c>
       <c r="CE5">
-        <v>926385372.2857105</v>
+        <v>926385372.28571045</v>
       </c>
       <c r="CF5">
-        <v>928653247.0378876</v>
+        <v>928653247.03788757</v>
       </c>
       <c r="CG5">
-        <v>930783701.5043644</v>
+        <v>930783701.50436437</v>
       </c>
       <c r="CH5">
-        <v>932696317.6961514</v>
+        <v>932696317.69615138</v>
       </c>
       <c r="CI5">
         <v>934318305.3856957</v>
       </c>
       <c r="CJ5">
-        <v>935588673.8758646</v>
+        <v>935588673.87586462</v>
       </c>
       <c r="CK5">
-        <v>935408972.853698</v>
+        <v>935408972.85369802</v>
       </c>
       <c r="CL5">
-        <v>934802305.6375089</v>
+        <v>934802305.63750887</v>
       </c>
       <c r="CM5">
-        <v>933756958.1421031</v>
+        <v>933756958.14210308</v>
       </c>
       <c r="CN5">
-        <v>932278428.4896759</v>
+        <v>932278428.48967588</v>
       </c>
       <c r="CO5">
         <v>930388039.425758</v>
